--- a/emails.xlsx
+++ b/emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihranw\Desktop\Tools\Email Sender\Group-MailSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FC8CC-29DF-4D0A-92B7-0659EE1F816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6CA64E-F550-43A9-BFCB-D99300544870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{BC0D1A69-BB01-41F3-8244-CA01FFABFD31}"/>
+    <workbookView xWindow="6140" yWindow="4270" windowWidth="18720" windowHeight="11650" xr2:uid="{BC0D1A69-BB01-41F3-8244-CA01FFABFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,1180 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="2040">
-  <si>
-    <t>hosseinkhani1350@gmail.com</t>
-  </si>
-  <si>
-    <t>sheikhnejad@msn.com</t>
-  </si>
-  <si>
-    <t>Raziehasgari69@gmail.com</t>
-  </si>
-  <si>
-    <t>Raziehasghari69@gmail.com</t>
-  </si>
-  <si>
-    <t>mohsenalipoor2013@gmail.com</t>
-  </si>
-  <si>
-    <t>hadi.soofi@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>Majid.ghadrdan@mail.usb.ac.ir</t>
-  </si>
-  <si>
-    <t>h.soofi@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>mina.ranjbartork@gamil.com</t>
-  </si>
-  <si>
-    <t>n.naderi@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>mansouri@ece.usb.ac.ir</t>
-  </si>
-  <si>
-    <t>behzadihadi@yahoo.com</t>
-  </si>
-  <si>
-    <t>kianm27@yahoo.com</t>
-  </si>
-  <si>
-    <t>parisa.fallahazad@gmail.com</t>
-  </si>
-  <si>
-    <t>Loghmanjamilpanah@gmail.com</t>
-  </si>
-  <si>
-    <t>loghmanjamilpanah@yahoo.com</t>
-  </si>
-  <si>
-    <t>m-mohseni@sbu.ac.ir</t>
-  </si>
-  <si>
-    <t>rostami-m@icrc.ac.ir</t>
-  </si>
-  <si>
-    <t>attar@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>yasserrahi@gmail.com</t>
-  </si>
-  <si>
-    <t>hos-a-p1@umz.ac.ir</t>
-  </si>
-  <si>
-    <t>Mds.Shadfar@gmail.com</t>
-  </si>
-  <si>
-    <t>parvizahmadi@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>mahdiyeh.esmaili@gmail.com</t>
-  </si>
-  <si>
-    <t>m_azari82@yahoo.com</t>
-  </si>
-  <si>
-    <t>ali.khakpoor@iauctb.ac.ir</t>
-  </si>
-  <si>
-    <t>iiranmanesh@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>thinfilm2000@gmail.com</t>
-  </si>
-  <si>
-    <t>bahare.agahi@yahoo.com</t>
-  </si>
-  <si>
-    <t>iraji@sharif.edu</t>
-  </si>
-  <si>
-    <t>ravishan@uji.es</t>
-  </si>
-  <si>
-    <t>Leyla.shooshtai@gmail.com</t>
-  </si>
-  <si>
-    <t>atefeh.kalantari@ymail.com</t>
-  </si>
-  <si>
-    <t>smohammad_elahi@srbiau.ac.ir</t>
-  </si>
-  <si>
-    <t>hadavi@chmail.ir</t>
-  </si>
-  <si>
-    <t>moonlight1991.np@gmail.com</t>
-  </si>
-  <si>
-    <t>afroogh_ma@yahoo.com</t>
-  </si>
-  <si>
-    <t>nafi3.gudarzi@gmail.com</t>
-  </si>
-  <si>
-    <t>kahani@kahani.a.c..ir</t>
-  </si>
-  <si>
-    <t>hajirb@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>firouzi@ibb.ut.ac.ir</t>
-  </si>
-  <si>
-    <t>zhassannejad@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>haririan@tums.ac.ir</t>
-  </si>
-  <si>
-    <t>javadpour.ayat@yahoo.com</t>
-  </si>
-  <si>
-    <t>babakjanjan@gmail.con</t>
-  </si>
-  <si>
-    <t>mohadese.dashti@yahoo.com</t>
-  </si>
-  <si>
-    <t>smhosseini@khayam.ut.ac.ir</t>
-  </si>
-  <si>
-    <t>m.yousefi@ippi.ac.ir</t>
-  </si>
-  <si>
-    <t>fariba.azamian24@gmail.com</t>
-  </si>
-  <si>
-    <t>ramazani@sharif.edu</t>
-  </si>
-  <si>
-    <t>sahaddadi2015@gmail.com</t>
-  </si>
-  <si>
-    <t>behnejad@gmail.com</t>
-  </si>
-  <si>
-    <t>saturn_mercury_69@yahoo.com</t>
-  </si>
-  <si>
-    <t>a_haddadi@sut.ac.ir</t>
-  </si>
-  <si>
-    <t>rafieisamaneh@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>ainie@um.edu.my</t>
-  </si>
-  <si>
-    <t>reza_b_m_a@yahoo.com</t>
-  </si>
-  <si>
-    <t>vosoughi@sharif.edu</t>
-  </si>
-  <si>
-    <t>a.mahmoudi@qom.ac.ir</t>
-  </si>
-  <si>
-    <t>aatefe.arab@yahoo.com</t>
-  </si>
-  <si>
-    <t>amhosein@yahoo.com</t>
-  </si>
-  <si>
-    <t>m.partovi.eng@gmail.com</t>
-  </si>
-  <si>
-    <t>m-sadeghi@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>phdzahedi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>nejadsattari_t@yahoo.com</t>
-  </si>
-  <si>
-    <t>aa.babaluo@gmail.com</t>
-  </si>
-  <si>
-    <t>Homa_mahmoodzadeh@yahoo.com</t>
-  </si>
-  <si>
-    <t>ra.khavarinejad@gmail.com</t>
-  </si>
-  <si>
-    <t>m.abbasi.b@gmail.com</t>
-  </si>
-  <si>
-    <t>noosheen.raeisi@gmail.com</t>
-  </si>
-  <si>
-    <t>ebrahim.m.110@gmail.com</t>
-  </si>
-  <si>
-    <t>sangpour@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>m_adelifard@du.ac.ir</t>
-  </si>
-  <si>
-    <t>kazemizadeh@acecr.ac.ir</t>
-  </si>
-  <si>
-    <t>jandaghiyanzeinab@gmail.com</t>
-  </si>
-  <si>
-    <t>masoud.karimipour@gmail.com</t>
-  </si>
-  <si>
-    <t>a-ghassempour@sbu.ac.ir</t>
-  </si>
-  <si>
-    <t>mahtabpooya83@gmail.com</t>
-  </si>
-  <si>
-    <t>fateme.mirzanai@gmail.com</t>
-  </si>
-  <si>
-    <t>fateme.mirzajani@gmail.com</t>
-  </si>
-  <si>
-    <t>abbasisamaneh1@gmail.com</t>
-  </si>
-  <si>
-    <t>sranjbar@ipm.ir</t>
-  </si>
-  <si>
-    <t>mrezaie@yahoo.com</t>
-  </si>
-  <si>
-    <t>eskandarimm@ripi.ir</t>
-  </si>
-  <si>
-    <t>mmolaei8@gmail.com</t>
-  </si>
-  <si>
-    <t>pkeshavarz@shirazu.ac.ir</t>
-  </si>
-  <si>
-    <t>zh7174481@gmail.com</t>
-  </si>
-  <si>
-    <t>mrezaie47@yahoo.com</t>
-  </si>
-  <si>
-    <t>dan.mahmoodbarani@gmail.com</t>
-  </si>
-  <si>
-    <t>mkhedmati86@yahoo.com</t>
-  </si>
-  <si>
-    <t>rezvaneh.ramezani69@gmail.com</t>
-  </si>
-  <si>
-    <t>kharaghani66@gmail.com</t>
-  </si>
-  <si>
-    <t>Meskinfam@gmail.com</t>
-  </si>
-  <si>
-    <t>khosravani@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>S.ghassemi2000@gmail.com</t>
-  </si>
-  <si>
-    <t>sabbaghan@srttu.edu</t>
-  </si>
-  <si>
-    <t>hoseinian@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>susansamadi@iausr.ac.ir</t>
-  </si>
-  <si>
-    <t>saman_h@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>f.tajabadi@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>ata.shakeri89@gmail.com</t>
-  </si>
-  <si>
-    <t>arvin.keshvari@gmail.com</t>
-  </si>
-  <si>
-    <t>naderi.msc@gmail.com</t>
-  </si>
-  <si>
-    <t>p.sangpour@gmail.com</t>
-  </si>
-  <si>
-    <t>azim@tmu.ac.ir</t>
-  </si>
-  <si>
-    <t>az.vafaeinezhad@yahoo.com</t>
-  </si>
-  <si>
-    <t>msarmast81@gmail.com</t>
-  </si>
-  <si>
-    <t>alibahari@lu.ac.ir</t>
-  </si>
-  <si>
-    <t>ahmadi.108623@yahoo.com</t>
-  </si>
-  <si>
-    <t>aashokri@pnu.ac.ir</t>
-  </si>
-  <si>
-    <t>hosnaehzar@gmail.com</t>
-  </si>
-  <si>
-    <t>kashanian1360@gmail.com</t>
-  </si>
-  <si>
-    <t>mansouri.atena@gmail.com</t>
-  </si>
-  <si>
-    <t>abnouskh@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>RamezaniM@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>mansouri_atena@yahoo.com</t>
-  </si>
-  <si>
-    <t>DaneshNM921@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>taghdisihm@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>raufe.keshavarz1@gmail.com</t>
-  </si>
-  <si>
-    <t>h.pasha1991@gmail.com</t>
-  </si>
-  <si>
-    <t>mahnaz_kamel_a_k@yahoo.com</t>
-  </si>
-  <si>
-    <t>i.sharifi@live.com</t>
-  </si>
-  <si>
-    <t>sfarhadi1348@yahoo.com</t>
-  </si>
-  <si>
-    <t>rabi.behrooz@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>hosseinsalavati@yahoo.com</t>
-  </si>
-  <si>
-    <t>a_teimoory@yahoo.com</t>
-  </si>
-  <si>
-    <t>yazdian@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>solgi.marjan@yahoo.com</t>
-  </si>
-  <si>
-    <t>ali.alizadeh91@hotmail.com</t>
-  </si>
-  <si>
-    <t>zzolfaghari@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>a.babaluo@sut.ac.ir</t>
-  </si>
-  <si>
-    <t>essmaeiliali66@gmail.com</t>
-  </si>
-  <si>
-    <t>Mohammad_bagheri@kish.sharif.edu</t>
-  </si>
-  <si>
-    <t>zzolfaghari23@gmail.com</t>
-  </si>
-  <si>
-    <t>mmzerafat@shirazu.ac.ir</t>
-  </si>
-  <si>
-    <t>ma_momeni@sut.ac.ir</t>
-  </si>
-  <si>
-    <t>samanehrafiie1366@gmail.com</t>
-  </si>
-  <si>
-    <t>khayatireza@gmail.com</t>
-  </si>
-  <si>
-    <t>samira.moghadam20@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.erfanifam@gmail.com</t>
-  </si>
-  <si>
-    <t>g.sargazi@gmail.com</t>
-  </si>
-  <si>
-    <t>attar_jafar@yahoo.com</t>
-  </si>
-  <si>
-    <t>Farazpaye@gmail.com</t>
-  </si>
-  <si>
-    <t>z.manafi@gmail.com</t>
-  </si>
-  <si>
-    <t>mmzerafat@yahoo.com</t>
-  </si>
-  <si>
-    <t>rafieipour2000@gmail.com</t>
-  </si>
-  <si>
-    <t>ramezanirezvaneh@gmail.com</t>
-  </si>
-  <si>
-    <t>mabbasi1361@yahoo.com</t>
-  </si>
-  <si>
-    <t>rafieipour2000@gmial.com</t>
-  </si>
-  <si>
-    <t>sabbaghi@shirazu.ac.ir</t>
-  </si>
-  <si>
-    <t>m.eslami@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>biochem.kh@gmail.com</t>
-  </si>
-  <si>
-    <t>EesaAbdolrahmani@gmail.com</t>
-  </si>
-  <si>
-    <t>Allafchian@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>atapour@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>maghsoudi@nigeb.ac.ir</t>
-  </si>
-  <si>
-    <t>roozbahani.sahar@gmail.com</t>
-  </si>
-  <si>
-    <t>H_kouchakzadeh@sbu.ac.ir</t>
-  </si>
-  <si>
-    <t>l.rashidi@standard.ac.ir</t>
-  </si>
-  <si>
-    <t>arefmohamadi27@gmail.com</t>
-  </si>
-  <si>
-    <t>shoja_sa@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>s.boddohi@modare.ac.ir</t>
-  </si>
-  <si>
-    <t>mojdeh_shafiei@yahoo.com</t>
-  </si>
-  <si>
-    <t>salime.ghassemi@yahoo.com</t>
-  </si>
-  <si>
-    <t>rashidiam@gmail.com</t>
-  </si>
-  <si>
-    <t>sara.dambm@gmail.com</t>
-  </si>
-  <si>
-    <t>hfarnaz.1990@gmail.com</t>
-  </si>
-  <si>
-    <t>elnaz_jalalimoghadam@yahoo.com/shariati@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>ashrafi@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>vagh-mah@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>elnaz_jalalimoghadam@yahoo.com</t>
-  </si>
-  <si>
-    <t>sadeghzadehj@ripi.ir</t>
-  </si>
-  <si>
-    <t>drbdabir@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>hshilal@najah.edu</t>
-  </si>
-  <si>
-    <t>sadim@ripi.ir</t>
-  </si>
-  <si>
-    <t>mafi.arezoo@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahdihazrati66@gmail.com</t>
-  </si>
-  <si>
-    <t>m_mousavi1980@yahoo.com</t>
-  </si>
-  <si>
-    <t>m_zare@gut.ac.ir</t>
-  </si>
-  <si>
-    <t>shojaeevahid20@gmail.com</t>
-  </si>
-  <si>
-    <t>f.davarpanah44@yahoo.com</t>
-  </si>
-  <si>
-    <t>vazirian_m@sina.tums.ac.ir</t>
-  </si>
-  <si>
-    <t>nano.iran@yahoo.com</t>
-  </si>
-  <si>
-    <t>azkhoshfetrat@gmail.com</t>
-  </si>
-  <si>
-    <t>eshaghi@pnu.ac.ir</t>
-  </si>
-  <si>
-    <t>raisia@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>Ahmadkompany@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.v_kazemi@yahoo.com</t>
-  </si>
-  <si>
-    <t>mohamadjavadranjbarshiraz@yahoo.com</t>
-  </si>
-  <si>
-    <t>mt.mahmoudi1367@gmail,com</t>
-  </si>
-  <si>
-    <t>s.jafarzadehholagh@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>V-mahdavi@araku.ac.ir</t>
-  </si>
-  <si>
-    <t>darush_afzali@yahoo.com</t>
-  </si>
-  <si>
-    <t>r_moordini@yahoo.com</t>
-  </si>
-  <si>
-    <t>hooshyar@ch.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>zhooshyar@yahoo.com</t>
-  </si>
-  <si>
-    <t>smrozati@guilan.ac.ir</t>
-  </si>
-  <si>
-    <t>m.motamedi@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>sarabi@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>h.mohammadloo@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>H.mobedi@ippi.ac.ir</t>
-  </si>
-  <si>
-    <t>diau@mail.nctu.edu.tw</t>
-  </si>
-  <si>
-    <t>taghavinia@sharif.edu</t>
-  </si>
-  <si>
-    <t>kazemi@sbmu.ac.ir</t>
-  </si>
-  <si>
-    <t>allameha@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>maleklou_n@yahoo.com</t>
-  </si>
-  <si>
-    <t>elhamaskarizadeh@gmail.com</t>
-  </si>
-  <si>
-    <t>sasan_nrw@yahoo.de</t>
-  </si>
-  <si>
-    <t>n.nezafati@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>zafati@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>mousazadeh@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>arma4c@gmail.com</t>
-  </si>
-  <si>
-    <t>s.zarei69@yahoo.com</t>
-  </si>
-  <si>
-    <t>s_kazemi7026@yahoo.com</t>
-  </si>
-  <si>
-    <t>zahedi.safura@gmail.com</t>
-  </si>
-  <si>
-    <t>bezaatpour@uma.ac.ir</t>
-  </si>
-  <si>
-    <t>hkm.hasheminejad@gmail.com</t>
-  </si>
-  <si>
-    <t>seyedakbarhoseini6@gmail.com</t>
-  </si>
-  <si>
-    <t>shjafari@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>M.Esfandeh@ippi.ac.ir</t>
-  </si>
-  <si>
-    <t>sr_ghaffarian@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>shadab.akbarpour@gmail.com</t>
-  </si>
-  <si>
-    <t>l.jafarie@gmail.com</t>
-  </si>
-  <si>
-    <t>z_rezvani@yahoo.com</t>
-  </si>
-  <si>
-    <t>mansouria932@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>f.bagheri@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>bagesla@yahoo.com</t>
-  </si>
-  <si>
-    <t>f_kiany@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>seddighian71@gmail.com</t>
-  </si>
-  <si>
-    <t>fganji@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>zahra_t.1991@yahoo.com</t>
-  </si>
-  <si>
-    <t>farnaz.soleimani.013@gmail.com</t>
-  </si>
-  <si>
-    <t>jrashidiyani@gmail.com</t>
-  </si>
-  <si>
-    <t>kheskandari@alumni.ut.ac.ir</t>
-  </si>
-  <si>
-    <t>masoud.babaahmadi@gmail.com</t>
-  </si>
-  <si>
-    <t>s.pouresmaeil@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>masoud.bidel@gmail.com</t>
-  </si>
-  <si>
-    <t>jamalpour@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>s_pilban@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.hosseini_1992@yahoo.com</t>
-  </si>
-  <si>
-    <t>fathalizadeh.y@gmail.com</t>
-  </si>
-  <si>
-    <t>Shahab_ojani@yahoo.com</t>
-  </si>
-  <si>
-    <t>hengameh.hajipour@gmail.com</t>
-  </si>
-  <si>
-    <t>galaxy_2002m@yahoo.com</t>
-  </si>
-  <si>
-    <t>behnaz_afzalian@yahoo.com</t>
-  </si>
-  <si>
-    <t>farhad_seyfi313@yahoo.com</t>
-  </si>
-  <si>
-    <t>fsamadi6258@gmail.com</t>
-  </si>
-  <si>
-    <t>kowsarie@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>phdabdouss44@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>davood_k82@yahoo.com</t>
-  </si>
-  <si>
-    <t>h-abbasi@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>hamidshirkhanloo@gmail.com</t>
-  </si>
-  <si>
-    <t>soroor.sadegh@yahoo.com</t>
-  </si>
-  <si>
-    <t>rahmatibijar@yahoo.com</t>
-  </si>
-  <si>
-    <t>suatpat26@yahoo.co.uk</t>
-  </si>
-  <si>
-    <t>alisouldozi@gmail.com</t>
-  </si>
-  <si>
-    <t>hamedeghorbanpoor@gmail.com</t>
-  </si>
-  <si>
-    <t>rs_1025@yahoo.com</t>
-  </si>
-  <si>
-    <t>zeinab.hoseini@uut.ac.ir</t>
-  </si>
-  <si>
-    <t>iran789@yahoo.com</t>
-  </si>
-  <si>
-    <t>chemist.93@chmail.ir</t>
-  </si>
-  <si>
-    <t>hsh190@gmail.com</t>
-  </si>
-  <si>
-    <t>maryam.zaree.h@gmail.com</t>
-  </si>
-  <si>
-    <t>V.tahmoorian@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>A.Mahdavian@ippi.ac.ir</t>
-  </si>
-  <si>
-    <t>F.Khakzad@ippi.ac.ir</t>
-  </si>
-  <si>
-    <t>seyedheydari@iasbs.ac.ir</t>
-  </si>
-  <si>
-    <t>Pashtari@gmail.com</t>
-  </si>
-  <si>
-    <t>s.hashemi1369@yahoo.com</t>
-  </si>
-  <si>
-    <t>mohammadloo.hossein@gmail.com</t>
-  </si>
-  <si>
-    <t>samsoheil@ymail.com</t>
-  </si>
-  <si>
-    <t>rmt@iausr.ac.ir</t>
-  </si>
-  <si>
-    <t>ruhollahtalebi90@gmail.com</t>
-  </si>
-  <si>
-    <t>sad.mahdavi@yahoo.com</t>
-  </si>
-  <si>
-    <t>Rahiminasrabadi@gmail.com</t>
-  </si>
-  <si>
-    <t>kianpishehm@yahoo.com</t>
-  </si>
-  <si>
-    <t>hajilari.m.157@gmail.com</t>
-  </si>
-  <si>
-    <t>laghasemi@gmail.com</t>
-  </si>
-  <si>
-    <t>ma.kharaziha@gmail.com</t>
-  </si>
-  <si>
-    <t>saied@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>m.masoudirad@ce.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>zahrahosseini@shirazu.ac.ir</t>
-  </si>
-  <si>
-    <t>yasamanbagheri236@yahoo.com</t>
-  </si>
-  <si>
-    <t>n_attarankak@yahoo.com</t>
-  </si>
-  <si>
-    <t>sazgarniaa@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>ghorbani_f90@yahoo.com</t>
-  </si>
-  <si>
-    <t>gr.shaghaghi@yahoo.com</t>
-  </si>
-  <si>
-    <t>hransary1991@gmail.com</t>
-  </si>
-  <si>
-    <t>s.hashemi2202@yahoo.com</t>
-  </si>
-  <si>
-    <t>navabehnami@yahoo.com</t>
-  </si>
-  <si>
-    <t>ena78@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>asaatchi@cc.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>m.zandrahimi@uk.ac.ir</t>
-  </si>
-  <si>
-    <t>tourani@chem.iust.ac.ir</t>
-  </si>
-  <si>
-    <t>Nabiuni@khu.ac.ir</t>
-  </si>
-  <si>
-    <t>mehrnaz.fahami@gmail.com</t>
-  </si>
-  <si>
-    <t>hossin.arzani@yahoo.com</t>
-  </si>
-  <si>
-    <t>azj113@yahoo.com</t>
-  </si>
-  <si>
-    <t>ehsan_kianfar2010@yahoo.com</t>
-  </si>
-  <si>
-    <t>matin.farspnu@gmail.com</t>
-  </si>
-  <si>
-    <t>yasamanbagheri2368@yahoo.com</t>
-  </si>
-  <si>
-    <t>gheibihm941@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>hamed.behzad2@gmail.com</t>
-  </si>
-  <si>
-    <t>e_ghazalian@yahoo.com</t>
-  </si>
-  <si>
-    <t>mehdi.6002@yahoo.com</t>
-  </si>
-  <si>
-    <t>javadian_s@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>rezvanehramezani@yahoo.com</t>
-  </si>
-  <si>
-    <t>tavousi@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>rain_man_n66@yahoo.com</t>
-  </si>
-  <si>
-    <t>saharfarajpoorshimi@yahoo.com</t>
-  </si>
-  <si>
-    <t>zahmadi@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>mina.rabipour@yahoo.com</t>
-  </si>
-  <si>
-    <t>a.rahmanian@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>drkhosravani@tums.ac.ir</t>
-  </si>
-  <si>
-    <t>h.maleki67@yahoo.com</t>
-  </si>
-  <si>
-    <t>jahromi@shirazu.ac.ir</t>
-  </si>
-  <si>
-    <t>s.m.arab@yahoo.com</t>
-  </si>
-  <si>
-    <t>syedmohammadarab@yahoo.com</t>
-  </si>
-  <si>
-    <t>chehosseini@gmail.com</t>
-  </si>
-  <si>
-    <t>fa.tari64@gmail.com</t>
-  </si>
-  <si>
-    <t>Alikhanimehrjardi@pnu.ac.ir</t>
-  </si>
-  <si>
-    <t>eroudbari@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.madmoli93@gmail.com</t>
-  </si>
-  <si>
-    <t>akhalighv@gmail.com</t>
-  </si>
-  <si>
-    <t>baharehrezaei.chem@gmail.com</t>
-  </si>
-  <si>
-    <t>baharehrezaei.chem@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>gmziarani@hotmail.com</t>
-  </si>
-  <si>
-    <t>abadiei@khayam.ut.ac.ir</t>
-  </si>
-  <si>
-    <t>faride.asgari@gmail.com</t>
-  </si>
-  <si>
-    <t>grolad@gmail.com</t>
-  </si>
-  <si>
-    <t>saadati_m@yahoo.com</t>
-  </si>
-  <si>
-    <t>davudsadeghi64@yahoo.com</t>
-  </si>
-  <si>
-    <t>nazarian56@gmail.com</t>
-  </si>
-  <si>
-    <t>abbashajizade@gmail.com</t>
-  </si>
-  <si>
-    <t>febrhimi@ihu.ac.ir</t>
-  </si>
-  <si>
-    <t>L_Babazadeh@yahoo.com</t>
-  </si>
-  <si>
-    <t>Nadimi@eetd.kntu.ac.ir</t>
-  </si>
-  <si>
-    <t>moradi.omid@gmail.com</t>
-  </si>
-  <si>
-    <t>Maryam_gholizadeh@Yahoo.com</t>
-  </si>
-  <si>
-    <t>Usj_irooni@yahoo.com</t>
-  </si>
-  <si>
-    <t>Af_Abbasi@yahoo.com</t>
-  </si>
-  <si>
-    <t>A_Abbasi@yahoo.com</t>
-  </si>
-  <si>
-    <t>m.kamalian@srbiau.ac.ir</t>
-  </si>
-  <si>
-    <t>golestanipour.a@gmail.com</t>
-  </si>
-  <si>
-    <t>m_nikkhah@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>z.ataei@grad.kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>nkhalilzadeh@nrcam.org</t>
-  </si>
-  <si>
-    <t>chemilam@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahdavian_leila@yahoo.com</t>
-  </si>
-  <si>
-    <t>nsattar@sums.ac.ir</t>
-  </si>
-  <si>
-    <t>bordbar@chem.ui.ac.ir</t>
-  </si>
-  <si>
-    <t>bordbar@chem.ui.ac</t>
-  </si>
-  <si>
-    <t>foomid@yahoo.com</t>
-  </si>
-  <si>
-    <t>aminayatollahi@kmu.ac.ir</t>
-  </si>
-  <si>
-    <t>t.akhtary@yahoo.com</t>
-  </si>
-  <si>
-    <t>mehkamali@yahoo.co.uk</t>
-  </si>
-  <si>
-    <t>ah_keyhan@hotmail.com</t>
-  </si>
-  <si>
-    <t>ddsmri@yahoo.com</t>
-  </si>
-  <si>
-    <t>masood.mehrabian@yahoo.com</t>
-  </si>
-  <si>
-    <t>b.janjan@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>se_hamedi@sbu.ac.ir</t>
-  </si>
-  <si>
-    <t>sobhani1989@yahoo.com</t>
-  </si>
-  <si>
-    <t>m.ranjbar@bonabu.ac.ir</t>
-  </si>
-  <si>
-    <t>nilooyousefi@ymail.com</t>
-  </si>
-  <si>
-    <t>baharerezaei.chem@gmail.com</t>
-  </si>
-  <si>
-    <t>samatorkzaban121@gmail.com</t>
-  </si>
-  <si>
-    <t>alireza9031@gmail.com</t>
-  </si>
-  <si>
-    <t>arash.babakhanian@gmail.com</t>
-  </si>
-  <si>
-    <t>saeedeh_soori@yahoo.com</t>
-  </si>
-  <si>
-    <t>sr.anvari@ma.iut.ac.ir</t>
-  </si>
-  <si>
-    <t>Omid.bahrami24@gmail.com</t>
-  </si>
-  <si>
-    <t>M.Shabani@kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>m.behpour@kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>mt.mahmoudi1367@gmail.com</t>
-  </si>
-  <si>
-    <t>tourajizadeh@khu.ac.ir</t>
-  </si>
-  <si>
-    <t>assarmojgan@yahoo.com</t>
-  </si>
-  <si>
-    <t>kanjouri@khu.ac.ir</t>
-  </si>
-  <si>
-    <t>Fgh.7192@yahoo.com</t>
-  </si>
-  <si>
-    <t>nermine.janem@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahshidfallah@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>Leyla.shooshtari@gmail.com</t>
-  </si>
-  <si>
-    <t>icapela@ua.pt</t>
-  </si>
-  <si>
-    <t>Elisabete.costa@ua.pt</t>
-  </si>
-  <si>
-    <t>moslemi_mr@yahoo.com</t>
-  </si>
-  <si>
-    <t>a-salabat@araku.ac.ir</t>
-  </si>
-  <si>
-    <t>Shamlouei.ha@lu.ac.ir</t>
-  </si>
-  <si>
-    <t>chemreza2002@yahoo.com</t>
-  </si>
-  <si>
-    <t>shahin080@gmail.com</t>
-  </si>
-  <si>
-    <t>mforozanfar@yahoo.com</t>
-  </si>
-  <si>
-    <t>mojtabi.shafiei@yahoo.com</t>
-  </si>
-  <si>
-    <t>sozkar@metu.edu.tr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1649">
   <si>
     <t>elhamsharghi2007@yahoo.com</t>
   </si>
@@ -6661,10 +5488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204445F9-42B8-44C4-A257-AC75DA5EB6D7}">
-  <dimension ref="A1:A2041"/>
+  <dimension ref="A1:A1650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6674,12 +5501,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>2037</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>2038</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -10493,1963 +9320,1963 @@
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A765" s="7" t="s">
-        <v>762</v>
+      <c r="A765" s="8" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A766" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A767" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A768" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A769" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A770" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A771" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A772" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A773" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A774" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A775" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A776" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A777" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A778" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A779" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A780" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A781" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A782" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A783" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A784" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A785" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A786" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A787" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A788" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A789" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A790" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A791" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A792" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A793" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A794" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A795" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A796" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A797" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A798" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A799" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A800" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A801" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A802" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A803" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A804" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A805" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A806" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A807" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A808" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A809" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A810" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A811" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A812" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A813" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A814" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A815" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A816" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A817" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A818" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A819" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A820" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A821" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A822" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A823" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A824" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A825" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A826" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A827" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A828" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A829" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A830" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A831" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A832" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A833" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A834" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A835" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A836" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A837" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A838" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A839" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A840" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A841" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A842" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A843" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A844" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A845" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A846" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A847" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A848" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A849" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A850" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A851" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A852" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A853" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A854" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A855" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A856" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A857" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A858" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A859" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A860" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A860" s="7" t="s">
+    <row r="861" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A861" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A861" s="7" t="s">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A862" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A862" s="7" t="s">
+    <row r="863" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A863" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A863" s="7" t="s">
+    <row r="864" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A864" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A864" s="7" t="s">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A865" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A865" s="7" t="s">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A866" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A866" s="7" t="s">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A867" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A867" s="7" t="s">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A868" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A868" s="7" t="s">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A869" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A869" s="7" t="s">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A870" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A870" s="7" t="s">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A871" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A871" s="7" t="s">
+    <row r="872" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A872" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A872" s="7" t="s">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A873" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A873" s="7" t="s">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A874" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A874" s="7" t="s">
+    <row r="875" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A875" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A875" s="7" t="s">
+    <row r="876" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A876" s="5" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A876" s="7" t="s">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A877" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A877" s="7" t="s">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A878" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A878" s="7" t="s">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A879" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A879" s="7" t="s">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A880" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A880" s="7" t="s">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A881" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A881" s="7" t="s">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A882" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A882" s="7" t="s">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A883" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A883" s="7" t="s">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A884" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A884" s="7" t="s">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A885" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A885" s="7" t="s">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A886" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A886" s="7" t="s">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A887" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A887" s="7" t="s">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A888" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A888" s="7" t="s">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A889" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A889" s="7" t="s">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A890" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A890" s="7" t="s">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A891" s="3" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A891" s="7" t="s">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A892" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A892" s="7" t="s">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A893" s="3" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A893" s="7" t="s">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A894" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A894" s="7" t="s">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A895" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A895" s="7" t="s">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A896" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A896" s="7" t="s">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A897" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A897" s="7" t="s">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A898" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A898" s="7" t="s">
+    <row r="899" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A899" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A899" s="7" t="s">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A900" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A900" s="7" t="s">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A901" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A901" s="7" t="s">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A902" s="3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A902" s="7" t="s">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A903" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A903" s="7" t="s">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A904" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A904" s="7" t="s">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A905" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A905" s="7" t="s">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A906" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A906" s="7" t="s">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A907" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A907" s="7" t="s">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A908" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A908" s="7" t="s">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A909" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A909" s="7" t="s">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A910" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A910" s="7" t="s">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A911" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A911" s="7" t="s">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A912" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A912" s="7" t="s">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A913" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A913" s="7" t="s">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A914" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A914" s="7" t="s">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A915" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A915" s="7" t="s">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A916" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A916" s="7" t="s">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A917" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A917" s="7" t="s">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A918" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A918" s="7" t="s">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A919" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A919" s="7" t="s">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A920" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A920" s="7" t="s">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A921" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A921" s="7" t="s">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A922" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A922" s="7" t="s">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A923" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A923" s="7" t="s">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A924" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A924" s="7" t="s">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A925" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A925" s="7" t="s">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A926" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A926" s="7" t="s">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A927" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A927" s="7" t="s">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A928" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A928" s="7" t="s">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A929" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A929" s="7" t="s">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A930" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A930" s="7" t="s">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A931" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A931" s="7" t="s">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A932" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A932" s="7" t="s">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A933" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A933" s="7" t="s">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A934" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A934" s="7" t="s">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A935" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A935" s="7" t="s">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A936" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A936" s="7" t="s">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A937" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A937" s="7" t="s">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A938" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A938" s="7" t="s">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A939" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A939" s="7" t="s">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A940" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A940" s="7" t="s">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A941" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A941" s="7" t="s">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A942" s="3" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A942" s="7" t="s">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A943" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A943" s="7" t="s">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A944" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A944" s="7" t="s">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A945" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A945" s="7" t="s">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A946" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A946" s="7" t="s">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A947" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A947" s="7" t="s">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A948" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A948" s="7" t="s">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A949" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A949" s="7" t="s">
+    <row r="950" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A950" s="4" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A950" s="7" t="s">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A951" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A951" s="7" t="s">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A952" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A952" s="7" t="s">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A953" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A953" s="7" t="s">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A954" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A954" s="7" t="s">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A955" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A955" s="7" t="s">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A956" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A956" s="7" t="s">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A957" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A957" s="7" t="s">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A958" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A958" s="7" t="s">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A959" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A959" s="7" t="s">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A960" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A960" s="7" t="s">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A961" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A961" s="7" t="s">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A962" s="3" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A962" s="7" t="s">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A963" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A963" s="7" t="s">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A964" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A964" s="7" t="s">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A965" s="3" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A965" s="7" t="s">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A966" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A966" s="7" t="s">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A967" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A967" s="7" t="s">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A968" s="3" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A968" s="7" t="s">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A969" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A969" s="7" t="s">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A970" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A970" s="7" t="s">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A971" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A971" s="7" t="s">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A972" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A972" s="7" t="s">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A973" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A973" s="7" t="s">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A974" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A974" s="7" t="s">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A975" s="3" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A975" s="7" t="s">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A976" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A976" s="7" t="s">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A977" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A977" s="7" t="s">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A978" s="3" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A978" s="7" t="s">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A979" s="3" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A979" s="7" t="s">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A980" s="3" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A980" s="7" t="s">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A981" s="3" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A981" s="7" t="s">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A982" s="3" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A982" s="7" t="s">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A983" s="3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A983" s="7" t="s">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A984" s="3" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A984" s="7" t="s">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A985" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A985" s="7" t="s">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A986" s="3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A986" s="7" t="s">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A987" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A987" s="7" t="s">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A988" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A988" s="7" t="s">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A989" s="3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A989" s="7" t="s">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A990" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A990" s="7" t="s">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A991" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A991" s="7" t="s">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A992" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A992" s="7" t="s">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A993" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A993" s="7" t="s">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A994" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A994" s="7" t="s">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A995" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A995" s="7" t="s">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A996" s="3" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A996" s="7" t="s">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A997" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A997" s="7" t="s">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A998" s="3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A998" s="7" t="s">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A999" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A999" s="7" t="s">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1000" s="7" t="s">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1001" s="7" t="s">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1002" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1002" s="7" t="s">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1003" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1003" s="7" t="s">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1004" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1004" s="7" t="s">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1005" s="7" t="s">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1006" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1006" s="7" t="s">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1007" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1007" s="7" t="s">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1008" s="7" t="s">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1009" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1009" s="7" t="s">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1010" s="7" t="s">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1011" s="7" t="s">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1012" s="7" t="s">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1013" s="7" t="s">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1014" s="7" t="s">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1015" s="7" t="s">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1016" s="7" t="s">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1017" s="7" t="s">
+    <row r="1018" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1018" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1018" s="7" t="s">
+    <row r="1019" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1019" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1019" s="7" t="s">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1020" s="7" t="s">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1021" s="7" t="s">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="3" t="s">
         <v>1018</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1022" s="7" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1023" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1024" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1025" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1026" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1027" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1028" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1029" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1030" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1031" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1032" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1033" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1034" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1035" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1036" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1037" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1038" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1039" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1040" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1041" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1042" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1043" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1044" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1045" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1046" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1047" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1048" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1049" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1050" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1051" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1052" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1053" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1054" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1055" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1056" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1057" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1058" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1059" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1060" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1061" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1062" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1063" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1064" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1065" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1066" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1067" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1068" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1069" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1070" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1071" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1072" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1073" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1074" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1075" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1076" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1077" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1078" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1079" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1080" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1081" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1082" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1083" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1084" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1085" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1086" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1087" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1088" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1089" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1090" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1091" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1092" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1093" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1094" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1095" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1096" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1097" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1098" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1099" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1100" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1101" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1102" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1103" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1104" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1105" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1106" s="7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1107" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1108" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1109" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1110" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1111" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1112" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1113" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1114" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1115" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1116" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1117" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1118" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1119" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1120" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1121" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1122" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1123" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1124" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1125" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1126" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1127" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1128" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1129" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1130" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1131" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1132" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1133" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1134" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1135" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1136" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1137" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1138" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1139" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1140" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1141" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1142" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1143" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1144" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1145" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1146" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1147" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1148" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1149" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1150" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1151" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1152" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1153" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1154" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1155" s="7" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1156" s="7" t="s">
         <v>1152</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1156" s="8" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
@@ -12922,818 +11749,818 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1251" s="1" t="s">
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1251" s="7" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1252" s="2" t="s">
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1252" s="7" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1253" s="3" t="s">
+      <c r="A1253" s="7" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1254" s="2" t="s">
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1254" s="7" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1255" s="2" t="s">
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1255" s="7" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1256" s="3" t="s">
+      <c r="A1256" s="7" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1257" s="3" t="s">
+      <c r="A1257" s="7" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1258" s="3" t="s">
+      <c r="A1258" s="7" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1259" s="3" t="s">
+      <c r="A1259" s="7" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1260" s="3" t="s">
+      <c r="A1260" s="7" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1261" s="3" t="s">
+      <c r="A1261" s="7" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1262" s="3" t="s">
+      <c r="A1262" s="7" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1263" s="2" t="s">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1263" s="7" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1264" s="3" t="s">
+      <c r="A1264" s="7" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1265" s="3" t="s">
+      <c r="A1265" s="7" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1266" s="4" t="s">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1266" s="7" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1267" s="5" t="s">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1267" s="7" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1268" s="3" t="s">
+      <c r="A1268" s="7" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1269" s="3" t="s">
+      <c r="A1269" s="7" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1270" s="3" t="s">
+      <c r="A1270" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1271" s="3" t="s">
+      <c r="A1271" s="7" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1272" s="3" t="s">
+      <c r="A1272" s="7" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1273" s="3" t="s">
+      <c r="A1273" s="7" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1274" s="3" t="s">
+      <c r="A1274" s="7" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1275" s="3" t="s">
+      <c r="A1275" s="7" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1276" s="3" t="s">
+      <c r="A1276" s="7" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1277" s="3" t="s">
+      <c r="A1277" s="7" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1278" s="3" t="s">
+      <c r="A1278" s="7" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1279" s="3" t="s">
+      <c r="A1279" s="7" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1280" s="3" t="s">
+      <c r="A1280" s="7" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1281" s="3" t="s">
+      <c r="A1281" s="7" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1282" s="3" t="s">
+      <c r="A1282" s="7" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1283" s="3" t="s">
+      <c r="A1283" s="7" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1284" s="3" t="s">
+      <c r="A1284" s="7" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1285" s="3" t="s">
+      <c r="A1285" s="7" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1286" s="3" t="s">
+      <c r="A1286" s="7" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1287" s="3" t="s">
+      <c r="A1287" s="7" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1288" s="3" t="s">
+      <c r="A1288" s="7" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1289" s="3" t="s">
+      <c r="A1289" s="7" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1290" s="2" t="s">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1290" s="7" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1291" s="3" t="s">
+      <c r="A1291" s="7" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1292" s="3" t="s">
+      <c r="A1292" s="7" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1293" s="3" t="s">
+      <c r="A1293" s="7" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1294" s="3" t="s">
+      <c r="A1294" s="7" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1295" s="3" t="s">
+      <c r="A1295" s="7" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1296" s="3" t="s">
+      <c r="A1296" s="7" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1297" s="3" t="s">
+      <c r="A1297" s="7" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1298" s="3" t="s">
+      <c r="A1298" s="7" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1299" s="3" t="s">
+      <c r="A1299" s="7" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1300" s="3" t="s">
+      <c r="A1300" s="7" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1301" s="3" t="s">
+      <c r="A1301" s="7" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1302" s="3" t="s">
+      <c r="A1302" s="7" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1303" s="3" t="s">
+      <c r="A1303" s="7" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1304" s="3" t="s">
+      <c r="A1304" s="7" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1305" s="3" t="s">
+      <c r="A1305" s="7" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1306" s="3" t="s">
+      <c r="A1306" s="7" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1307" s="3" t="s">
+      <c r="A1307" s="7" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1308" s="3" t="s">
+      <c r="A1308" s="7" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1309" s="3" t="s">
+      <c r="A1309" s="7" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1310" s="3" t="s">
+      <c r="A1310" s="7" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1311" s="3" t="s">
+      <c r="A1311" s="7" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1312" s="3" t="s">
+      <c r="A1312" s="7" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1313" s="3" t="s">
+      <c r="A1313" s="7" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1314" s="3" t="s">
+      <c r="A1314" s="7" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1315" s="3" t="s">
+      <c r="A1315" s="7" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1316" s="3" t="s">
+      <c r="A1316" s="7" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1317" s="3" t="s">
+      <c r="A1317" s="7" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1318" s="3" t="s">
+      <c r="A1318" s="7" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1319" s="3" t="s">
+      <c r="A1319" s="7" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1320" s="3" t="s">
+      <c r="A1320" s="7" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1321" s="3" t="s">
+      <c r="A1321" s="7" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1322" s="3" t="s">
+      <c r="A1322" s="7" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1323" s="3" t="s">
+      <c r="A1323" s="7" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1324" s="3" t="s">
+      <c r="A1324" s="7" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1325" s="3" t="s">
+      <c r="A1325" s="7" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1326" s="3" t="s">
+      <c r="A1326" s="7" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1327" s="3" t="s">
+      <c r="A1327" s="7" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1328" s="3" t="s">
+      <c r="A1328" s="7" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1329" s="3" t="s">
+      <c r="A1329" s="7" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1330" s="3" t="s">
+      <c r="A1330" s="7" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1331" s="3" t="s">
+      <c r="A1331" s="7" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1332" s="3" t="s">
+      <c r="A1332" s="7" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1333" s="3" t="s">
+      <c r="A1333" s="7" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1334" s="3" t="s">
+      <c r="A1334" s="7" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1335" s="3" t="s">
+      <c r="A1335" s="7" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1336" s="3" t="s">
+      <c r="A1336" s="7" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1337" s="3" t="s">
+      <c r="A1337" s="7" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1338" s="3" t="s">
+      <c r="A1338" s="7" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1339" s="3" t="s">
+      <c r="A1339" s="7" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1340" s="3" t="s">
+      <c r="A1340" s="7" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1341" s="4" t="s">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1341" s="7" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1342" s="3" t="s">
+      <c r="A1342" s="7" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1343" s="3" t="s">
+      <c r="A1343" s="7" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1344" s="3" t="s">
+      <c r="A1344" s="7" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1345" s="3" t="s">
+      <c r="A1345" s="7" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1346" s="3" t="s">
+      <c r="A1346" s="7" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1347" s="3" t="s">
+      <c r="A1347" s="7" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1348" s="3" t="s">
+      <c r="A1348" s="7" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1349" s="3" t="s">
+      <c r="A1349" s="7" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1350" s="3" t="s">
+      <c r="A1350" s="7" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1351" s="3" t="s">
+      <c r="A1351" s="7" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1352" s="3" t="s">
+      <c r="A1352" s="7" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1353" s="3" t="s">
+      <c r="A1353" s="7" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1354" s="3" t="s">
+      <c r="A1354" s="7" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1355" s="3" t="s">
+      <c r="A1355" s="7" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1356" s="3" t="s">
+      <c r="A1356" s="7" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1357" s="3" t="s">
+      <c r="A1357" s="7" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1358" s="3" t="s">
+      <c r="A1358" s="7" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1359" s="3" t="s">
+      <c r="A1359" s="7" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1360" s="3" t="s">
+      <c r="A1360" s="7" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1361" s="3" t="s">
+      <c r="A1361" s="7" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1362" s="3" t="s">
+      <c r="A1362" s="7" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1363" s="3" t="s">
+      <c r="A1363" s="7" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1364" s="3" t="s">
+      <c r="A1364" s="7" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1365" s="3" t="s">
+      <c r="A1365" s="7" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1366" s="3" t="s">
+      <c r="A1366" s="7" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1367" s="3" t="s">
+      <c r="A1367" s="7" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1368" s="3" t="s">
+      <c r="A1368" s="7" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1369" s="3" t="s">
+      <c r="A1369" s="7" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1370" s="3" t="s">
+      <c r="A1370" s="7" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1371" s="3" t="s">
+      <c r="A1371" s="7" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1372" s="3" t="s">
+      <c r="A1372" s="7" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1373" s="3" t="s">
+      <c r="A1373" s="7" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1374" s="3" t="s">
+      <c r="A1374" s="7" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1375" s="3" t="s">
+      <c r="A1375" s="7" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1376" s="3" t="s">
+      <c r="A1376" s="7" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1377" s="3" t="s">
+      <c r="A1377" s="7" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1378" s="3" t="s">
+      <c r="A1378" s="7" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1379" s="3" t="s">
+      <c r="A1379" s="7" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1380" s="3" t="s">
+      <c r="A1380" s="7" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1381" s="3" t="s">
+      <c r="A1381" s="7" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1382" s="3" t="s">
+      <c r="A1382" s="7" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1383" s="3" t="s">
+      <c r="A1383" s="7" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1384" s="3" t="s">
+      <c r="A1384" s="7" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1385" s="3" t="s">
+      <c r="A1385" s="7" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1386" s="3" t="s">
+      <c r="A1386" s="7" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1387" s="3" t="s">
+      <c r="A1387" s="7" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1388" s="3" t="s">
+      <c r="A1388" s="7" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1389" s="3" t="s">
+      <c r="A1389" s="7" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1390" s="3" t="s">
+      <c r="A1390" s="7" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1391" s="3" t="s">
+      <c r="A1391" s="7" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1392" s="3" t="s">
+      <c r="A1392" s="7" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1393" s="3" t="s">
+      <c r="A1393" s="7" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1394" s="3" t="s">
+      <c r="A1394" s="7" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1395" s="3" t="s">
+      <c r="A1395" s="7" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1396" s="3" t="s">
+      <c r="A1396" s="7" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1397" s="3" t="s">
+      <c r="A1397" s="7" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1398" s="3" t="s">
+      <c r="A1398" s="7" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1399" s="3" t="s">
+      <c r="A1399" s="7" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1400" s="3" t="s">
+      <c r="A1400" s="7" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1401" s="3" t="s">
+      <c r="A1401" s="7" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1402" s="3" t="s">
+      <c r="A1402" s="7" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1403" s="3" t="s">
+      <c r="A1403" s="7" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1404" s="3" t="s">
+      <c r="A1404" s="7" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1405" s="3" t="s">
+      <c r="A1405" s="7" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1406" s="3" t="s">
+      <c r="A1406" s="7" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1407" s="3" t="s">
+      <c r="A1407" s="7" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1408" s="3" t="s">
+      <c r="A1408" s="7" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1409" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1409" s="2" t="s">
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1409" s="7" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1410" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1410" s="2" t="s">
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1410" s="7" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1411" s="3" t="s">
+      <c r="A1411" s="7" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1412" s="3" t="s">
+      <c r="A1412" s="7" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1413" s="3" t="s">
+      <c r="A1413" s="7" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -13833,7 +12660,7 @@
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1433" s="7" t="s">
+      <c r="A1433" s="9" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -14377,143 +13204,143 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1542" s="7" t="s">
+    <row r="1542" spans="1:1" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="A1542" s="10" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1543" s="7" t="s">
+      <c r="A1543" s="11" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1544" s="7" t="s">
+      <c r="A1544" s="11" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1545" s="7" t="s">
+      <c r="A1545" s="11" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1546" s="7" t="s">
+      <c r="A1546" s="11" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1547" s="7" t="s">
+      <c r="A1547" s="11" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1548" s="7" t="s">
+      <c r="A1548" s="11" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1549" s="7" t="s">
+      <c r="A1549" s="11" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1550" s="7" t="s">
+      <c r="A1550" s="12" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1551" s="7" t="s">
+      <c r="A1551" s="12" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1552" s="7" t="s">
+    <row r="1552" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1552" s="13" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1553" s="7" t="s">
+      <c r="A1553" s="12" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1554" s="7" t="s">
+    <row r="1554" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1554" s="13" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1555" s="7" t="s">
+      <c r="A1555" s="12" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="1556" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1556" s="7" t="s">
+      <c r="A1556" s="12" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1557" s="7" t="s">
+      <c r="A1557" s="14" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="1558" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1558" s="7" t="s">
+      <c r="A1558" s="14" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1559" s="7" t="s">
+      <c r="A1559" s="14" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1560" s="7" t="s">
+      <c r="A1560" s="14" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1561" s="7" t="s">
+      <c r="A1561" s="14" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1562" s="7" t="s">
+      <c r="A1562" s="14" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1563" s="7" t="s">
+      <c r="A1563" s="14" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="1564" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1564" s="7" t="s">
+      <c r="A1564" s="12" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="1565" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1565" s="7" t="s">
+      <c r="A1565" s="14" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="1566" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1566" s="7" t="s">
+      <c r="A1566" s="14" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1567" s="7" t="s">
+      <c r="A1567" s="14" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1568" s="7" t="s">
+      <c r="A1568" s="14" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1569" s="7" t="s">
+      <c r="A1569" s="14" t="s">
         <v>1565</v>
       </c>
     </row>
@@ -14523,2614 +13350,659 @@
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1571" s="7" t="s">
+      <c r="A1571" s="14" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="1572" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1572" s="7" t="s">
+      <c r="A1572" s="14" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1573" s="7" t="s">
+      <c r="A1573" s="14" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="1574" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1574" s="7" t="s">
+      <c r="A1574" s="14" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1575" s="7" t="s">
+      <c r="A1575" s="8" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="1576" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1576" s="7" t="s">
+      <c r="A1576" s="8" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1577" s="7" t="s">
+      <c r="A1577" s="8" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1578" s="7" t="s">
+      <c r="A1578" s="8" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1579" s="7" t="s">
+      <c r="A1579" s="8" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1580" s="7" t="s">
+      <c r="A1580" s="8" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1581" s="7" t="s">
+      <c r="A1581" s="8" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1582" s="7" t="s">
+      <c r="A1582" s="8" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1583" s="7" t="s">
+      <c r="A1583" s="8" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1584" s="7" t="s">
+      <c r="A1584" s="8" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1585" s="7" t="s">
+      <c r="A1585" s="8" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1586" s="7" t="s">
+      <c r="A1586" s="8" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1587" s="7" t="s">
+      <c r="A1587" s="8" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1588" s="7" t="s">
+      <c r="A1588" s="8" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1589" s="8" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1589" s="7" t="s">
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1590" s="8" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1590" s="7" t="s">
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1591" s="8" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1591" s="7" t="s">
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1592" s="8" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1592" s="7" t="s">
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1593" s="8" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1593" s="7" t="s">
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1594" s="8" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1594" s="7" t="s">
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1595" s="8" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1595" s="7" t="s">
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1596" s="8" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1596" s="7" t="s">
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1597" s="8" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1597" s="7" t="s">
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1598" s="6" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1598" s="7" t="s">
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1599" s="6" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1599" s="7" t="s">
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1600" s="6" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1600" s="7" t="s">
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1601" s="6" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1601" s="7" t="s">
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1602" s="6" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1602" s="7" t="s">
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1603" s="6" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1603" s="7" t="s">
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1604" s="6" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1604" s="7" t="s">
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1605" s="6" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1605" s="7" t="s">
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1606" s="6" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1606" s="7" t="s">
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1607" s="6" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="1607" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1607" s="7" t="s">
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1608" s="6" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="1608" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1608" s="7" t="s">
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1609" s="6" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="1609" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1609" s="7" t="s">
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1610" s="6" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="1610" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1610" s="7" t="s">
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1611" s="6" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="1611" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1611" s="7" t="s">
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1612" s="6" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="1612" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1612" s="7" t="s">
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1613" s="6" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="1613" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1613" s="7" t="s">
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1614" s="6" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="1614" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1614" s="7" t="s">
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1615" s="6" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="1615" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1615" s="7" t="s">
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1616" s="6" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="1616" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1616" s="7" t="s">
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1617" s="6" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="1617" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1617" s="7" t="s">
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1618" s="6" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="1618" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1618" s="7" t="s">
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1619" s="6" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="1619" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1619" s="7" t="s">
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1620" s="6" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="1620" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1620" s="7" t="s">
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1621" s="6" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="1621" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1621" s="7" t="s">
+    <row r="1622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1622" s="6" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="1622" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1622" s="7" t="s">
+    <row r="1623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1623" s="6" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="1623" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1623" s="7" t="s">
+    <row r="1624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1624" s="6" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="1624" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1624" s="7" t="s">
+    <row r="1625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1625" s="6" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="1625" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1625" s="7" t="s">
+    <row r="1626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1626" s="6" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="1626" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1626" s="7" t="s">
+    <row r="1627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1627" s="6" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="1627" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1627" s="7" t="s">
+    <row r="1628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1628" s="6" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="1628" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1628" s="7" t="s">
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1629" s="6" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="1629" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1629" s="7" t="s">
+    <row r="1630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1630" s="6" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="1630" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1630" s="7" t="s">
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1631" s="6" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="1631" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1631" s="7" t="s">
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1632" s="6" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="1632" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1632" s="7" t="s">
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1633" s="6" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1633" s="7" t="s">
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1634" s="6" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="1634" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1634" s="7" t="s">
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1635" s="6" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="1635" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1635" s="7" t="s">
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1636" s="6" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="1636" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1636" s="7" t="s">
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1637" s="6" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1637" s="7" t="s">
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1638" s="6" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="1638" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1638" s="7" t="s">
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1639" s="6" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1639" s="7" t="s">
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1640" s="6" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1640" s="7" t="s">
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1641" s="6" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="1641" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1641" s="7" t="s">
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1642" s="6" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1642" s="7" t="s">
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1643" s="6" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1643" s="7" t="s">
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1644" s="6" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1644" s="7" t="s">
+    <row r="1645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1645" s="6" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1645" s="7" t="s">
+    <row r="1646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1646" s="6" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="1646" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1646" s="7" t="s">
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1647" s="6" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="1647" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1647" s="7" t="s">
+    <row r="1648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1648" s="6" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="1648" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1648" s="7" t="s">
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1649" s="6" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1649" s="7" t="s">
-        <v>1645</v>
-      </c>
-    </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1650" s="7" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1651" s="7" t="s">
+      <c r="A1650" s="8" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1652" s="7" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1653" s="7" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1654" s="7" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1655" s="7" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1656" s="7" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1657" s="7" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1658" s="7" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1659" s="7" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1660" s="7" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1661" s="7" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1662" s="7" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1663" s="7" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1664" s="7" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1665" s="7" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1666" s="7" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1667" s="7" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1668" s="7" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1669" s="7" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1670" s="7" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1671" s="7" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1672" s="7" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1673" s="7" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1674" s="7" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1675" s="7" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1676" s="7" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1677" s="7" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1678" s="7" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1679" s="7" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1680" s="7" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1681" s="7" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1682" s="7" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1683" s="7" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1684" s="7" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1685" s="7" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1686" s="7" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1687" s="7" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1688" s="7" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1689" s="7" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1690" s="7" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1691" s="7" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1692" s="7" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1693" s="7" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1694" s="7" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1695" s="7" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1696" s="7" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1697" s="7" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1698" s="7" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1699" s="7" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1700" s="7" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1701" s="7" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1702" s="7" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1703" s="7" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1704" s="7" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1705" s="7" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1706" s="7" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1707" s="7" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1708" s="7" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1709" s="7" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1710" s="7" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1711" s="7" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1712" s="7" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1713" s="7" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1714" s="7" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1715" s="7" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1716" s="7" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1717" s="7" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1718" s="7" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1719" s="7" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1720" s="7" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1721" s="7" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1722" s="7" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1723" s="7" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1724" s="7" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1725" s="7" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1726" s="7" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1727" s="7" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1728" s="7" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1729" s="7" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1730" s="7" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1731" s="7" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1732" s="7" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1733" s="7" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1734" s="7" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1735" s="7" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1736" s="7" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1737" s="7" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1738" s="7" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1739" s="7" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1740" s="7" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1741" s="7" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1742" s="7" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1743" s="7" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1744" s="7" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1745" s="7" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1746" s="7" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1747" s="7" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1748" s="7" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1749" s="7" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1750" s="7" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1751" s="7" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1752" s="7" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1753" s="7" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1754" s="7" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1755" s="7" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1756" s="7" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1757" s="7" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1758" s="7" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1759" s="7" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1760" s="7" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1761" s="7" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1762" s="7" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1763" s="7" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1764" s="7" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1765" s="7" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1766" s="7" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1767" s="7" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1768" s="7" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1769" s="7" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1770" s="7" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1771" s="7" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1772" s="7" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1773" s="7" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1774" s="7" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1775" s="7" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1776" s="7" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1777" s="7" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1778" s="7" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1779" s="7" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1780" s="7" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1781" s="7" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1782" s="7" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1783" s="7" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1784" s="7" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1785" s="7" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1786" s="7" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1787" s="7" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1788" s="7" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1789" s="7" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1790" s="7" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1791" s="7" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1792" s="7" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1793" s="7" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1794" s="7" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1795" s="7" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1796" s="7" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1797" s="7" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1798" s="7" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1799" s="7" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1800" s="7" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1801" s="7" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1802" s="7" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1803" s="7" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1804" s="7" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1805" s="7" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1806" s="7" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1807" s="7" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1808" s="7" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1809" s="7" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1810" s="7" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1811" s="7" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1812" s="7" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1813" s="7" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1814" s="7" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1815" s="7" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1816" s="7" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1817" s="7" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1818" s="7" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1819" s="7" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1820" s="7" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1821" s="7" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1822" s="7" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1823" s="7" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1824" s="9" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1825" s="7" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1826" s="7" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1827" s="7" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1828" s="7" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1829" s="7" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1830" s="7" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1831" s="7" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1832" s="7" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1833" s="7" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1834" s="7" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1835" s="7" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1836" s="7" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1837" s="7" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1838" s="7" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1839" s="7" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1840" s="7" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1841" s="7" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1842" s="7" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1843" s="7" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1844" s="7" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1845" s="7" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1846" s="7" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1847" s="7" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1848" s="7" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1849" s="7" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1850" s="7" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1851" s="7" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1852" s="7" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1853" s="7" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1854" s="7" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1855" s="7" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1856" s="7" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1857" s="7" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1858" s="7" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1859" s="7" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1860" s="7" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1861" s="7" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1862" s="7" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1863" s="7" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1864" s="7" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1865" s="7" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1866" s="7" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1867" s="7" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1868" s="7" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1869" s="7" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1870" s="7" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1871" s="7" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1872" s="7" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1873" s="7" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1874" s="7" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1875" s="7" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1876" s="7" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1877" s="7" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1878" s="7" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1879" s="7" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1880" s="7" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1881" s="7" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1882" s="7" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1883" s="7" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1884" s="7" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1885" s="7" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1886" s="7" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1887" s="7" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1888" s="7" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1889" s="7" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1890" s="7" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1891" s="7" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1892" s="7" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1893" s="7" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1894" s="7" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1895" s="7" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1896" s="7" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1897" s="7" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1898" s="7" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1899" s="7" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1900" s="7" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1901" s="7" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1902" s="7" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1903" s="7" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1904" s="7" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1905" s="7" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1906" s="7" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1907" s="7" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1908" s="7" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1909" s="7" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1910" s="7" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1911" s="7" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1912" s="7" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1913" s="7" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1914" s="7" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1915" s="7" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1916" s="7" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1917" s="7" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1918" s="7" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1919" s="7" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1920" s="7" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1921" s="7" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1922" s="7" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1923" s="7" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1924" s="7" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1925" s="7" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1926" s="7" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1927" s="7" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1928" s="7" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1929" s="7" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1930" s="7" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1931" s="7" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1932" s="7" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:1" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A1933" s="10" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1934" s="11" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1935" s="11" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1936" s="11" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1937" s="11" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1938" s="11" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1939" s="11" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1940" s="11" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1941" s="12" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1942" s="12" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1943" s="13" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1944" s="12" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1945" s="13" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1946" s="12" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1947" s="12" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1948" s="14" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1949" s="14" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1950" s="14" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1951" s="14" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1952" s="14" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1953" s="14" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1954" s="14" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1955" s="12" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1956" s="14" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1957" s="14" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1958" s="14" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1959" s="14" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1960" s="14" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1961" s="7" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1962" s="14" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1963" s="14" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1964" s="14" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1965" s="14" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1966" s="8" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1967" s="8" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1968" s="8" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1969" s="8" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1970" s="8" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1971" s="8" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1972" s="8" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1973" s="8" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1974" s="8" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1975" s="8" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1976" s="8" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1977" s="8" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1978" s="8" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1979" s="8" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1980" s="8" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1981" s="8" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1982" s="8" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1983" s="8" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1984" s="8" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1985" s="8" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1986" s="8" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1987" s="8" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1988" s="8" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1989" s="6" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1990" s="6" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1991" s="6" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1992" s="6" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1993" s="6" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1994" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1995" s="6" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1996" s="6" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1997" s="6" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1998" s="6" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1999" s="6" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2000" s="6" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2001" s="6" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2002" s="6" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2003" s="6" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2004" s="6" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2005" s="6" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2006" s="6" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2007" s="6" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2008" s="6" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2009" s="6" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2010" s="6" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2011" s="6" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2012" s="6" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2013" s="6" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2014" s="6" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2015" s="6" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2016" s="6" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2017" s="6" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2018" s="6" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2019" s="6" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2020" s="6" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2021" s="6" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2022" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2022" s="6" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2023" s="6" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2024" s="6" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2025" s="6" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2026" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2026" s="6" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2027" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2027" s="6" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2028" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2028" s="6" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2029" s="6" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2030" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2030" s="6" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2031" s="6" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="2032" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2032" s="6" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2033" s="6" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2034" s="6" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2035" s="6" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2036" s="6" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2037" s="6" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2038" s="6" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2039" s="6" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2040" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2041" s="8" t="s">
-        <v>2038</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1251" r:id="rId1" xr:uid="{D8E5BDE2-D531-49D3-AEC0-A185D3B27F16}"/>
-    <hyperlink ref="A1252" r:id="rId2" display="a.abdollahi3360@gmail.com_x000a_" xr:uid="{7DEE4240-6795-4428-8224-85F598E2B4BB}"/>
-    <hyperlink ref="A1253" r:id="rId3" xr:uid="{56ED87D2-B187-477F-952F-BE9D53305720}"/>
-    <hyperlink ref="A1254" r:id="rId4" display="panjali@sbmu.ac.ir_x000a_" xr:uid="{60EB2953-F9C4-4193-BF77-0793EF1F2EC8}"/>
-    <hyperlink ref="A1255" r:id="rId5" xr:uid="{78CEE083-7C37-4F14-BD82-1F450E0B3034}"/>
-    <hyperlink ref="A1256" r:id="rId6" xr:uid="{FA388CD4-066C-40FD-8ECF-A8471DF1B758}"/>
-    <hyperlink ref="A1257" r:id="rId7" xr:uid="{A8837DF7-FF18-4ED7-A9FF-32EB08F6D667}"/>
-    <hyperlink ref="A1258" r:id="rId8" xr:uid="{4BDCB9EE-35B9-46D6-94A5-4E034BB7BE74}"/>
-    <hyperlink ref="A1259" r:id="rId9" xr:uid="{315AEBC0-0EDC-4A2E-9146-28EE126D8CDF}"/>
-    <hyperlink ref="A1260" r:id="rId10" xr:uid="{BA93CC22-58C6-47EB-A097-DA5CC8A50FDE}"/>
-    <hyperlink ref="A1261" r:id="rId11" xr:uid="{7D2D637C-CC40-4434-AEA3-9F51B52B38A3}"/>
-    <hyperlink ref="A1262" r:id="rId12" xr:uid="{71F32898-06DA-464D-8BF0-51B92819F5D5}"/>
-    <hyperlink ref="A1263" r:id="rId13" xr:uid="{9994B2EF-8643-4446-8575-721041A87D0A}"/>
-    <hyperlink ref="A1264" r:id="rId14" xr:uid="{5B53B810-62E7-48F7-988D-45DFB8706A9D}"/>
-    <hyperlink ref="A1265" r:id="rId15" xr:uid="{6F598862-AC6D-41D4-AC70-F3F5AE6C4656}"/>
-    <hyperlink ref="A1266" r:id="rId16" xr:uid="{102355A9-CE31-49EF-AA36-530AE30B18EC}"/>
-    <hyperlink ref="A1267" r:id="rId17" xr:uid="{94FB3861-C44F-41C6-9FB7-3EA0754AFDF4}"/>
-    <hyperlink ref="A1268" r:id="rId18" xr:uid="{163F125F-9636-4EFA-BF9E-ECE1FDD4A0B9}"/>
-    <hyperlink ref="A1269" r:id="rId19" xr:uid="{450D1802-42D3-4E33-A2C7-2A90AAA14C17}"/>
-    <hyperlink ref="A1270" r:id="rId20" xr:uid="{02CC27B0-DFA0-4933-AEED-291E7774ED1A}"/>
-    <hyperlink ref="A1271" r:id="rId21" xr:uid="{6D26BF96-618F-487C-A4D9-63F6E075E7A8}"/>
-    <hyperlink ref="A1272" r:id="rId22" xr:uid="{EFF4361D-F8C1-44F8-A67F-9D814631DAA6}"/>
-    <hyperlink ref="A1273" r:id="rId23" xr:uid="{37D1B61F-A37F-4D67-ADB4-A6C603B272D9}"/>
-    <hyperlink ref="A1274" r:id="rId24" xr:uid="{C434AF28-35C6-49C3-B932-4686CD820C2C}"/>
-    <hyperlink ref="A1275" r:id="rId25" xr:uid="{B97462BD-F387-4E6F-8351-DDDF581D8351}"/>
-    <hyperlink ref="A1276" r:id="rId26" xr:uid="{E24A5596-8122-4FA0-A6B0-2EB11B718E56}"/>
-    <hyperlink ref="A1277" r:id="rId27" xr:uid="{B0FD70D2-3532-47DB-9C6F-A7957161E3AF}"/>
-    <hyperlink ref="A1278" r:id="rId28" xr:uid="{5096B490-1B73-4802-99CC-DA155A01C585}"/>
-    <hyperlink ref="A1279" r:id="rId29" xr:uid="{719A3D37-D067-46C4-B843-AA59E7A5F100}"/>
-    <hyperlink ref="A1280" r:id="rId30" xr:uid="{1276F2A6-AC17-48CB-A8E7-2C25C12F9AC5}"/>
-    <hyperlink ref="A1281" r:id="rId31" xr:uid="{F5566E7F-2360-4E18-9A67-4A4D518F0FCB}"/>
-    <hyperlink ref="A1282" r:id="rId32" xr:uid="{D64BC5A9-9F8F-4A7E-9E5D-250229C0C1B0}"/>
-    <hyperlink ref="A1283" r:id="rId33" xr:uid="{DC947958-6F9C-43E3-9924-663392C36067}"/>
-    <hyperlink ref="A1284" r:id="rId34" xr:uid="{D53EFEA2-4ACB-4A94-89E5-471B2F3082CC}"/>
-    <hyperlink ref="A1285" r:id="rId35" xr:uid="{925511EE-583B-4A73-B725-682FA0EF0BF0}"/>
-    <hyperlink ref="A1286" r:id="rId36" xr:uid="{899CFB3C-11DA-4285-9426-67FDB5934FD9}"/>
-    <hyperlink ref="A1287" r:id="rId37" xr:uid="{ECD5E857-E77E-41F6-B3C9-F7F6AEC212A5}"/>
-    <hyperlink ref="A1288" r:id="rId38" xr:uid="{D974ECD4-17BA-4F86-AACB-C051A3F21256}"/>
-    <hyperlink ref="A1289" r:id="rId39" xr:uid="{EAC3CB2C-2CF6-45E0-8CAC-7DD4D8181BDD}"/>
-    <hyperlink ref="A1290" r:id="rId40" xr:uid="{CC4FE793-C7A9-4BF2-969C-AE474D11EA5C}"/>
-    <hyperlink ref="A1291" r:id="rId41" xr:uid="{F993F14D-8337-4FDB-8093-815BDCEB7EFB}"/>
-    <hyperlink ref="A1292" r:id="rId42" xr:uid="{2C065DF5-31F6-4953-B20B-F57D2069C12C}"/>
-    <hyperlink ref="A1293" r:id="rId43" xr:uid="{BF316E08-4A76-4573-BE2B-51CAC671F7FE}"/>
-    <hyperlink ref="A1294" r:id="rId44" xr:uid="{1CB8BB41-B562-4F8E-BD53-A8C186D55CF8}"/>
-    <hyperlink ref="A1295" r:id="rId45" xr:uid="{0F0BC195-B129-4860-B154-14F28EA0808A}"/>
-    <hyperlink ref="A1296" r:id="rId46" xr:uid="{703B5142-4338-4745-833B-5AF7A37970BD}"/>
-    <hyperlink ref="A1297" r:id="rId47" xr:uid="{B4395424-3584-45A1-815D-990BD4703290}"/>
-    <hyperlink ref="A1298" r:id="rId48" xr:uid="{89328179-D8BC-4E98-B6B2-9BF53A9BED94}"/>
-    <hyperlink ref="A1299" r:id="rId49" xr:uid="{AE1B8BFA-4C8E-456C-A776-868BCE89E593}"/>
-    <hyperlink ref="A1300" r:id="rId50" xr:uid="{210ED07B-DAA2-4922-915D-338581518B4E}"/>
-    <hyperlink ref="A1301" r:id="rId51" xr:uid="{DFC4467B-68B1-4A9A-817C-028569ECD6C3}"/>
-    <hyperlink ref="A1302" r:id="rId52" xr:uid="{3B22BFBF-165C-4A2C-81A9-74DDD38FD960}"/>
-    <hyperlink ref="A1303" r:id="rId53" xr:uid="{DB8D226B-FD26-46FD-AA07-1D74C7A0606B}"/>
-    <hyperlink ref="A1304" r:id="rId54" xr:uid="{937C6D7E-E68C-48E9-9AB0-C535EF3DC516}"/>
-    <hyperlink ref="A1305" r:id="rId55" xr:uid="{BDAF9BA8-DEC5-4DEB-B0E8-491390BA883D}"/>
-    <hyperlink ref="A1306" r:id="rId56" xr:uid="{B86E264E-FE7C-4913-A9D4-AD2C796EC07D}"/>
-    <hyperlink ref="A1307" r:id="rId57" xr:uid="{83A47E3A-0FAB-44CF-ABFA-D10AD91B5524}"/>
-    <hyperlink ref="A1308" r:id="rId58" xr:uid="{39E8CC52-A346-40FE-8036-F3B1198AB609}"/>
-    <hyperlink ref="A1309" r:id="rId59" xr:uid="{7D939FB6-2F90-4BA7-8695-87E9EB2EFA6A}"/>
-    <hyperlink ref="A1310" r:id="rId60" xr:uid="{3DB0123D-5474-4815-9E19-90156BFC8B91}"/>
-    <hyperlink ref="A1311" r:id="rId61" xr:uid="{ACEBB592-CDCC-4E46-9F25-B7711D471964}"/>
-    <hyperlink ref="A1312" r:id="rId62" xr:uid="{C73D3A29-807D-48D9-AB2D-C0275DDCB142}"/>
-    <hyperlink ref="A1313" r:id="rId63" xr:uid="{44AE86D2-F001-4A21-B730-EAE436CE2FAC}"/>
-    <hyperlink ref="A1314" r:id="rId64" xr:uid="{95BBA83C-4C79-4D36-8EE5-A181AC622CF6}"/>
-    <hyperlink ref="A1315" r:id="rId65" xr:uid="{25E7A983-BA2B-4A8B-8720-48039A164479}"/>
-    <hyperlink ref="A1316" r:id="rId66" xr:uid="{1621BBF1-DC94-4DC6-BFBD-947D15BF245B}"/>
-    <hyperlink ref="A1317" r:id="rId67" xr:uid="{C31AC3A6-8EBC-4168-8EEF-9C2A69F7992D}"/>
-    <hyperlink ref="A1318" r:id="rId68" xr:uid="{1BA68BD4-FFE5-40B4-B642-30213BADCC3F}"/>
-    <hyperlink ref="A1319" r:id="rId69" xr:uid="{C620A5ED-D0CF-4361-A555-047B3C05D5B6}"/>
-    <hyperlink ref="A1320" r:id="rId70" xr:uid="{04BA5624-67F4-4213-890A-25F9CC511E29}"/>
-    <hyperlink ref="A1321" r:id="rId71" xr:uid="{6554A7D2-E11A-43ED-9B4B-FD74C8032A26}"/>
-    <hyperlink ref="A1322" r:id="rId72" xr:uid="{43198718-8984-4E38-A733-AFAB8634A372}"/>
-    <hyperlink ref="A1323" r:id="rId73" xr:uid="{6DBF862F-DBD7-4E02-A3C8-FA5D76A83CD6}"/>
-    <hyperlink ref="A1324" r:id="rId74" xr:uid="{0C37327B-6B83-4088-914B-6E41787A707D}"/>
-    <hyperlink ref="A1325" r:id="rId75" xr:uid="{28ACFA9A-E7F4-49BC-A870-342BB71F87A4}"/>
-    <hyperlink ref="A1326" r:id="rId76" xr:uid="{A185B735-B194-40D4-A098-A046D6D59E05}"/>
-    <hyperlink ref="A1327" r:id="rId77" xr:uid="{00AFD740-1929-46BB-BDD1-FD0109879BFB}"/>
-    <hyperlink ref="A1328" r:id="rId78" xr:uid="{98A108B6-BF66-4BF4-ACC8-3D7EBAAB0F7D}"/>
-    <hyperlink ref="A1329" r:id="rId79" display="nadri_s@zums.ac.ir  " xr:uid="{9F83C108-A7B4-4D0B-B129-D00E8E001BBF}"/>
-    <hyperlink ref="A1330" r:id="rId80" xr:uid="{D02FECE9-4914-4CFB-8F9C-FCEFD96AC814}"/>
-    <hyperlink ref="A1331" r:id="rId81" xr:uid="{82B29F41-0845-4126-ADA7-94985FF813AC}"/>
-    <hyperlink ref="A1332" r:id="rId82" xr:uid="{58049502-D350-4999-BDFC-54B1C80FE7C1}"/>
-    <hyperlink ref="A1333" r:id="rId83" xr:uid="{92942971-370B-4025-98BB-67BB60EEFC11}"/>
-    <hyperlink ref="A1334" r:id="rId84" xr:uid="{32265B7B-EF8D-4D98-B612-EA0E1D407123}"/>
-    <hyperlink ref="A1335" r:id="rId85" xr:uid="{054E9D19-60BD-489C-9A9A-43908F8E49EC}"/>
-    <hyperlink ref="A1336" r:id="rId86" xr:uid="{664FB28F-784D-4E3F-ACB9-A74A11C04E78}"/>
-    <hyperlink ref="A1337" r:id="rId87" xr:uid="{59476CE4-7832-41C2-A091-404CBD7844CD}"/>
-    <hyperlink ref="A1338" r:id="rId88" xr:uid="{C89A4D6D-6A54-4AAE-B1FA-D13A19DF3824}"/>
-    <hyperlink ref="A1339" r:id="rId89" xr:uid="{32B9C080-5690-4A16-91DA-5AADAD9E6249}"/>
-    <hyperlink ref="A1340" r:id="rId90" xr:uid="{D978A2CF-68A3-455D-8B3C-BC7F6E8F5EAA}"/>
-    <hyperlink ref="A1341" r:id="rId91" xr:uid="{90678AEF-E03C-44B9-AD45-27EBFE105CD0}"/>
-    <hyperlink ref="A1342" r:id="rId92" xr:uid="{95EB8F30-4C9E-4FF9-8656-AEDC650E0435}"/>
-    <hyperlink ref="A1343" r:id="rId93" xr:uid="{66CBA257-459B-4276-9EA0-F6A4C469057D}"/>
-    <hyperlink ref="A1344" r:id="rId94" xr:uid="{019BB3B1-D9F4-41C1-BB00-320F1F76F65F}"/>
-    <hyperlink ref="A1345" r:id="rId95" xr:uid="{8214465D-0D33-4765-955D-B2274A9DF4CE}"/>
-    <hyperlink ref="A1346" r:id="rId96" xr:uid="{C4A3FA77-D9CF-4CAD-BBB6-1F1980742F25}"/>
-    <hyperlink ref="A1347" r:id="rId97" xr:uid="{FF59407F-6829-4C32-9B15-0BA62BB6AF51}"/>
-    <hyperlink ref="A1348" r:id="rId98" xr:uid="{68A23C69-DF70-4216-ADD1-7D3846CBB678}"/>
-    <hyperlink ref="A1349" r:id="rId99" xr:uid="{14F181A4-FDB2-4234-9B08-AA32DA89D6B0}"/>
-    <hyperlink ref="A1350" r:id="rId100" xr:uid="{EDC80657-FFE4-46B3-BE80-AD9A1EFFB4B4}"/>
-    <hyperlink ref="A1351" r:id="rId101" xr:uid="{24B688CA-CFC8-43BD-81A1-A5AA05C72A25}"/>
-    <hyperlink ref="A1352" r:id="rId102" xr:uid="{4462ABD1-2FCC-4F80-83E3-1187DFD492F4}"/>
-    <hyperlink ref="A1353" r:id="rId103" xr:uid="{C3A63646-BE7B-485E-8AA5-D20AB4169DFB}"/>
-    <hyperlink ref="A1354" r:id="rId104" xr:uid="{2A5C5D1B-01E1-4E55-959B-86852B81A0B6}"/>
-    <hyperlink ref="A1355" r:id="rId105" xr:uid="{DF869774-D716-4C9D-A04B-B34D776CB7DE}"/>
-    <hyperlink ref="A1356" r:id="rId106" xr:uid="{AAC7D201-94F8-45FA-B159-907F4A86C5F3}"/>
-    <hyperlink ref="A1357" r:id="rId107" xr:uid="{E7A72C02-AAB3-422F-AEA3-0E7DFABEF094}"/>
-    <hyperlink ref="A1358" r:id="rId108" display="dalghin68@yahoo.com" xr:uid="{AC6A03A9-FD33-423E-A5F3-245213B01D3A}"/>
-    <hyperlink ref="A1359" r:id="rId109" xr:uid="{82176CD4-DB3D-4076-A172-FE678F005F73}"/>
-    <hyperlink ref="A1360" r:id="rId110" xr:uid="{915F6BE8-75C5-49D2-B222-B48DA2362297}"/>
-    <hyperlink ref="A1361" r:id="rId111" xr:uid="{AED28940-72FB-47A7-8461-869E24ACE58D}"/>
-    <hyperlink ref="A1362" r:id="rId112" xr:uid="{B7782086-6411-452A-A1A4-4A273EF3264B}"/>
-    <hyperlink ref="A1363" r:id="rId113" xr:uid="{E3238D9A-3324-4F15-9E7D-8470919DCBFC}"/>
-    <hyperlink ref="A1364" r:id="rId114" xr:uid="{DD59FACC-8F8F-49F6-8747-98F18F68527B}"/>
-    <hyperlink ref="A1365" r:id="rId115" xr:uid="{05900F0B-5FA4-4BF5-9367-BDA18AA958DE}"/>
-    <hyperlink ref="A1366" r:id="rId116" xr:uid="{2FA8F11D-2EEC-473E-9E70-8AAB0659B6E3}"/>
-    <hyperlink ref="A1367" r:id="rId117" xr:uid="{A1553066-CCF0-4A3A-BF93-86FC35690ECD}"/>
-    <hyperlink ref="A1368" r:id="rId118" xr:uid="{0D196D4F-1FA7-438B-8338-F923007C08F5}"/>
-    <hyperlink ref="A1369" r:id="rId119" xr:uid="{FACB7F3D-C512-4A5F-AA6F-061B5F26F61A}"/>
-    <hyperlink ref="A1370" r:id="rId120" xr:uid="{341660B4-0CD6-4682-8D84-808829A7A3ED}"/>
-    <hyperlink ref="A1371" r:id="rId121" xr:uid="{32F4CF45-9A0D-482B-807C-4A4EA76E5A88}"/>
-    <hyperlink ref="A1372" r:id="rId122" xr:uid="{1801A917-4DE2-4266-9525-1AE949A1E5E5}"/>
-    <hyperlink ref="A1373" r:id="rId123" xr:uid="{52E6438B-FC32-46C5-B7E3-D27DF61CFCBB}"/>
-    <hyperlink ref="A1374" r:id="rId124" xr:uid="{435961F5-2040-47C4-BBFE-C6FC4DA7E0E6}"/>
-    <hyperlink ref="A1375" r:id="rId125" xr:uid="{9FD6E7AA-C0D2-4C65-8862-B96419BC53B3}"/>
-    <hyperlink ref="A1376" r:id="rId126" xr:uid="{D877D98E-3D43-46F5-9A0B-26D89395EFD6}"/>
-    <hyperlink ref="A1377" r:id="rId127" xr:uid="{E7E3EA8C-245E-4560-960A-9695801551EE}"/>
-    <hyperlink ref="A1378" r:id="rId128" xr:uid="{1BD6CE31-1F75-44B9-BA57-E9C411EA9206}"/>
-    <hyperlink ref="A1379" r:id="rId129" xr:uid="{DD08F788-874F-4A14-AC37-D587D73F4EF9}"/>
-    <hyperlink ref="A1380" r:id="rId130" xr:uid="{FE5F2648-8A41-4DAF-B463-E38D9232655A}"/>
-    <hyperlink ref="A1381" r:id="rId131" xr:uid="{A022FF20-63CD-475E-BDEC-48C2860015E8}"/>
-    <hyperlink ref="A1382" r:id="rId132" xr:uid="{A94FD184-94EF-41F4-93D4-4B0B15AB5F9A}"/>
-    <hyperlink ref="A1383" r:id="rId133" xr:uid="{E9240F33-691D-4B5F-A3E2-DE97386A62E1}"/>
-    <hyperlink ref="A1384" r:id="rId134" xr:uid="{81F3491C-C9DF-455E-B9F9-42D714B734F4}"/>
-    <hyperlink ref="A1385" r:id="rId135" xr:uid="{EC741294-7E8E-46DE-99EE-32FB115470AE}"/>
-    <hyperlink ref="A1386" r:id="rId136" xr:uid="{F35BBEA2-2FF8-4F2F-9211-EDCAE6C8146B}"/>
-    <hyperlink ref="A1387" r:id="rId137" xr:uid="{1725FC26-EE9C-4238-AC0A-0AD6EBD96A01}"/>
-    <hyperlink ref="A1388" r:id="rId138" xr:uid="{4D2BB732-D71F-490D-8D6B-2170CBDA857D}"/>
-    <hyperlink ref="A1389" r:id="rId139" xr:uid="{CE9314BF-BB09-42CA-A0A1-D060115C7319}"/>
-    <hyperlink ref="A1390" r:id="rId140" xr:uid="{B804D0D6-EEE0-40FF-AA73-A6FA9944F184}"/>
-    <hyperlink ref="A1391" r:id="rId141" xr:uid="{5AE9BDA9-83A5-40F1-A299-9EA7595B0BD3}"/>
-    <hyperlink ref="A1392" r:id="rId142" xr:uid="{B9D05B7D-4C02-48A2-8D9D-760030E6DB79}"/>
-    <hyperlink ref="A1393" r:id="rId143" xr:uid="{0A293059-F9C0-484B-B5A6-7A2B12BFAE69}"/>
-    <hyperlink ref="A1394" r:id="rId144" xr:uid="{0B00E371-CB51-4F1B-BB7B-0A75A8C92086}"/>
-    <hyperlink ref="A1395" r:id="rId145" xr:uid="{515D4454-25F6-465C-901B-7604B1F8B5C8}"/>
-    <hyperlink ref="A1396" r:id="rId146" xr:uid="{1AA92820-6923-4C91-BF5E-438895234322}"/>
-    <hyperlink ref="A1397" r:id="rId147" xr:uid="{A7F93362-636F-40FE-B094-77E024FC1A0E}"/>
-    <hyperlink ref="A1398" r:id="rId148" xr:uid="{7029D463-E64F-4DED-B25D-9195CF8ABA22}"/>
-    <hyperlink ref="A1399" r:id="rId149" xr:uid="{5F0410C4-129E-4FB8-B18E-E755F93DC536}"/>
-    <hyperlink ref="A1400" r:id="rId150" xr:uid="{F790B2D9-E7C2-4416-9001-67201969FDA1}"/>
-    <hyperlink ref="A1401" r:id="rId151" xr:uid="{0D74A262-06CA-40ED-8757-17B295DBDD96}"/>
-    <hyperlink ref="A1402" r:id="rId152" xr:uid="{FD55CDC8-7F75-480A-8729-93BE3B876EF1}"/>
-    <hyperlink ref="A1403" r:id="rId153" xr:uid="{BB4FEE8B-4F3E-4D93-AD2B-4C945C1FEFC5}"/>
-    <hyperlink ref="A1404" r:id="rId154" xr:uid="{2A9B9B16-2EFB-4AB5-B219-5E0B4931A602}"/>
-    <hyperlink ref="A1405" r:id="rId155" xr:uid="{157D1B7C-3B0E-48FB-AA46-AEF1287F177C}"/>
-    <hyperlink ref="A1406" r:id="rId156" xr:uid="{F1EB4F74-C484-4879-A203-02B2E5A31854}"/>
-    <hyperlink ref="A1407" r:id="rId157" xr:uid="{F6BAB08B-7FB0-488A-BDA1-4432AA309938}"/>
-    <hyperlink ref="A1408" r:id="rId158" xr:uid="{D7281387-67B3-4503-BEFF-19D8605174CA}"/>
-    <hyperlink ref="A1409" r:id="rId159" xr:uid="{88EF02B8-9341-4882-B097-7E870874E756}"/>
-    <hyperlink ref="A1410" r:id="rId160" xr:uid="{0E53DA7B-B971-4A21-8191-B757193CAA63}"/>
-    <hyperlink ref="A1411" r:id="rId161" xr:uid="{94FAF243-CBC1-414B-B95E-FA55BB1C58CA}"/>
-    <hyperlink ref="A1412" r:id="rId162" xr:uid="{D3A2CE8F-F142-42FC-AD25-11424971B716}"/>
-    <hyperlink ref="A1413" r:id="rId163" xr:uid="{94C91573-54BB-4DA3-9A67-4E0B6114F873}"/>
-    <hyperlink ref="A1933" r:id="rId164" display="http://sph.tums.ac.ir/" xr:uid="{3D4168AA-DDB6-4905-A524-816C4805EA6B}"/>
-    <hyperlink ref="A1948" r:id="rId165" xr:uid="{00EE04C8-A6C6-452C-AFEF-8F367D3CD333}"/>
-    <hyperlink ref="A1949" r:id="rId166" xr:uid="{33725344-787A-4300-B725-DC18FA2509B1}"/>
-    <hyperlink ref="A1950" r:id="rId167" xr:uid="{1122A989-FE0F-413F-8081-BC0C28F9E70C}"/>
-    <hyperlink ref="A1951" r:id="rId168" xr:uid="{044CA121-3064-4B82-BECC-0E30DAE46CF0}"/>
-    <hyperlink ref="A1952" r:id="rId169" xr:uid="{95A99DB2-34B7-4D06-9EAE-DCE595092377}"/>
-    <hyperlink ref="A1953" r:id="rId170" xr:uid="{F8EEAE71-CCAD-4259-99BB-5BC85F23B4C2}"/>
-    <hyperlink ref="A1954" r:id="rId171" display="mailto:rezaeizadeh@tums.ac.ir" xr:uid="{637D7D0C-7BFD-4034-AB07-15873F3AD06B}"/>
-    <hyperlink ref="A1956" r:id="rId172" xr:uid="{1B0B9AFA-DFAA-4C24-BD46-D061D4D8FBFF}"/>
-    <hyperlink ref="A1957" r:id="rId173" xr:uid="{E5685AF4-660A-417C-B227-CCF98A4A4D73}"/>
-    <hyperlink ref="A1958" r:id="rId174" xr:uid="{2DCC835F-0A30-4878-A8D3-76895528B9E9}"/>
-    <hyperlink ref="A1959" r:id="rId175" display="mailto:sina.marashi@gmail.com" xr:uid="{4A972128-57BE-4C02-8A08-6CE0CAC8DC05}"/>
-    <hyperlink ref="A1960" r:id="rId176" xr:uid="{4D7F4295-1A4B-46C6-A07C-94BF5A0E8482}"/>
-    <hyperlink ref="A1962" r:id="rId177" xr:uid="{CC3A65CB-75E2-43B7-BD82-67C5D2321DE8}"/>
-    <hyperlink ref="A1963" r:id="rId178" xr:uid="{CE8D31F9-21E4-4603-8322-E9BF9E502531}"/>
-    <hyperlink ref="A1964" r:id="rId179" xr:uid="{9EB92218-7F96-4D98-82C5-35BCF8026212}"/>
-    <hyperlink ref="A1965" r:id="rId180" xr:uid="{005627B1-346C-472E-8859-E939CAF295E4}"/>
-    <hyperlink ref="A1966" r:id="rId181" xr:uid="{45B5F462-A1D9-4300-B2ED-98D5F10824B6}"/>
-    <hyperlink ref="A1967" r:id="rId182" xr:uid="{7EF175F4-C70F-4FEA-82E9-741F6D8A4365}"/>
-    <hyperlink ref="A1968" r:id="rId183" xr:uid="{E903A1C2-0A18-40F6-B823-4A23BD97F679}"/>
-    <hyperlink ref="A1969" r:id="rId184" xr:uid="{5992459D-D657-487B-94F2-5D208416F424}"/>
-    <hyperlink ref="A1970" r:id="rId185" xr:uid="{35D7F4E2-F541-4D28-BCC7-9430A058101A}"/>
-    <hyperlink ref="A1971" r:id="rId186" xr:uid="{D8CAB375-CDB5-4779-A448-48C53B0A0EAD}"/>
-    <hyperlink ref="A1972" r:id="rId187" xr:uid="{6B94353C-3963-47DF-90FB-EC16AB08BE98}"/>
-    <hyperlink ref="A1973" r:id="rId188" xr:uid="{3B95098B-A294-48B6-9B08-F8D31A74B130}"/>
-    <hyperlink ref="A1974" r:id="rId189" xr:uid="{3FAD5F88-2E5B-4BB6-9553-A1DB52FAD040}"/>
-    <hyperlink ref="A1975" r:id="rId190" xr:uid="{FDA403CD-DA39-4140-B70C-ABC10A595221}"/>
-    <hyperlink ref="A1976" r:id="rId191" xr:uid="{C9B6FAE1-075C-4B41-BD21-9AE247B2877C}"/>
-    <hyperlink ref="A1977" r:id="rId192" xr:uid="{CEC6ACF1-4BE1-471E-AA03-F3C76C25B8EF}"/>
-    <hyperlink ref="A1978" r:id="rId193" xr:uid="{82273192-A0A3-4ED8-9041-A772DBC6563E}"/>
-    <hyperlink ref="A1979" r:id="rId194" xr:uid="{F92440DA-70B4-41C5-966C-5B041299F00C}"/>
-    <hyperlink ref="A1980" r:id="rId195" xr:uid="{AB516E97-62C2-4AC2-A35D-3B8DF1803352}"/>
-    <hyperlink ref="A1981" r:id="rId196" xr:uid="{24B1AC24-FB37-4270-B781-1DF0D659FC87}"/>
-    <hyperlink ref="A1982" r:id="rId197" xr:uid="{8264521C-F733-4C81-B05F-F8944D9633E1}"/>
-    <hyperlink ref="A1983" r:id="rId198" xr:uid="{990B9AAF-D90C-4E1A-9DB6-43A67FD0104D}"/>
-    <hyperlink ref="A1989" r:id="rId199" display="mailto:mahya.rahmani@gmail.com" xr:uid="{3205E694-56C2-4096-983C-905840DFAE23}"/>
-    <hyperlink ref="A1990" r:id="rId200" display="mailto:nazeriali2007@yahoo.com" xr:uid="{CEF5CD3F-F610-400F-8048-B3990F025B3E}"/>
-    <hyperlink ref="A1991" r:id="rId201" display="mailto:m-nikbakht@razi.tums.ac.ir" xr:uid="{FA4E8121-AC7B-4302-9F1B-A056EA343417}"/>
-    <hyperlink ref="A1992" r:id="rId202" display="mailto:a.valizadeh_medicalnano@yahoo,com" xr:uid="{65162598-D89D-4463-8256-22A0255DA976}"/>
-    <hyperlink ref="A1993" r:id="rId203" display="mailto:asghari_mnt@yahoo.com" xr:uid="{81F07F8F-1694-45BC-BAFB-0A34E3228CAD}"/>
-    <hyperlink ref="A1994" r:id="rId204" display="mailto:biophysicsiasbs@yahoo.com" xr:uid="{9F3D4CAD-3A45-421E-9AAF-AB5D90160699}"/>
-    <hyperlink ref="A1995" r:id="rId205" display="mailto:hasanmaleki95@yahoo.com" xr:uid="{8DC23226-1A61-45F3-8381-A171ED7DB306}"/>
-    <hyperlink ref="A1996" r:id="rId206" display="mailto:najmehketabchi@yahoo.com" xr:uid="{153CA2DA-2C78-4F19-B6EF-8F7072260691}"/>
-    <hyperlink ref="A1997" r:id="rId207" display="mailto:mortezakamali1979@gmail.com" xr:uid="{37881458-BBCD-447D-9B27-AEA473849C67}"/>
-    <hyperlink ref="A1998" r:id="rId208" display="mailto:marya.sharif90@yahoo.com" xr:uid="{86F4CBF7-7B72-4313-8836-5C10FD86CE72}"/>
-    <hyperlink ref="A1999" r:id="rId209" display="mailto:bahrani.s6412@yahoo.com" xr:uid="{92C25970-8236-4908-9DC3-363795F0D683}"/>
-    <hyperlink ref="A2000" r:id="rId210" display="mailto:naserineda1989@gmail.com" xr:uid="{01473793-8055-49DB-8AAB-FA249A8FBE3C}"/>
-    <hyperlink ref="A2001" r:id="rId211" display="mailto:mosafarkhanis@gmail.com" xr:uid="{2DCBA322-12CE-43D7-9BDB-7B6B27A894C5}"/>
-    <hyperlink ref="A2002" r:id="rId212" display="mailto:elnazshaabani91@gmail.com" xr:uid="{EB35E4B6-7E1A-487C-A227-295242517B27}"/>
-    <hyperlink ref="A2003" r:id="rId213" display="mailto:hasanpourakram@gmail.com" xr:uid="{9BA7B431-3196-417A-80E2-1966E8DD2251}"/>
-    <hyperlink ref="A2004" r:id="rId214" display="mailto:gharatape_ar@yahoo.com" xr:uid="{B7C94467-AAAE-41E0-BB3A-87DB9D1AB966}"/>
-    <hyperlink ref="A2005" r:id="rId215" display="mailto:azarnajafi.tsh@gmail.com" xr:uid="{292CC52C-1F09-4BE2-BF79-99AAE0D82228}"/>
-    <hyperlink ref="A2006" r:id="rId216" display="mailto:beheshtkhoo.nano@gmail.com" xr:uid="{3F972A5B-D29A-42FD-8FF2-A74CC94B2533}"/>
-    <hyperlink ref="A2007" r:id="rId217" display="mailto:mmalekpour@razi.tums.ac.ir" xr:uid="{1879CB5B-A60C-40E9-BD73-A7F4D0268A0D}"/>
-    <hyperlink ref="A2008" r:id="rId218" display="mailto:amanzadi@yahoo.com" xr:uid="{64CAE73D-6D91-41F6-BE38-EEE8D9849219}"/>
-    <hyperlink ref="A2009" r:id="rId219" display="mailto:aminjadidi1993@gmail.com" xr:uid="{E176E1B3-24D8-4F94-BDF4-E122C228F7A5}"/>
-    <hyperlink ref="A2010" r:id="rId220" display="mailto:mmonfaredd@gmail.com" xr:uid="{39295873-B9CE-4081-AE28-D152CAB8D80D}"/>
-    <hyperlink ref="A2011" r:id="rId221" display="mailto:doostan.mahtab@gmail.com" xr:uid="{662DBC40-A99B-4838-85E8-80095D9D104B}"/>
-    <hyperlink ref="A2012" r:id="rId222" display="mailto:hasani.njf@gmail.com" xr:uid="{9C7ED6B9-B333-46FE-A5F4-BD7CD5234F0A}"/>
-    <hyperlink ref="A2013" r:id="rId223" display="mailto:ali-dehghan70@yahoo.com" xr:uid="{EC993113-EDDB-432F-B7CC-6E1A98337E56}"/>
-    <hyperlink ref="A2014" r:id="rId224" display="mailto:khorsand_fa@yahoo.com" xr:uid="{D878E0D7-C889-4DC9-B79B-41BEBF6A20B8}"/>
-    <hyperlink ref="A2015" r:id="rId225" display="mailto:amingholizadeh71@gmail.com" xr:uid="{B5973EB7-EB99-415A-90AC-9381C64A6643}"/>
-    <hyperlink ref="A2016" r:id="rId226" display="mailto:maryam-khodadadi@hotmail.com" xr:uid="{26A784EB-4963-4CC1-AACA-57E6C6BA2B74}"/>
-    <hyperlink ref="A2017" r:id="rId227" display="mailto:dar.rahban777@gmail.com" xr:uid="{F8FDB738-4886-485C-BFEC-DD1AB5F290EE}"/>
-    <hyperlink ref="A2018" r:id="rId228" display="mailto:ezio1441@yahoo.com" xr:uid="{74CAA2DF-BE05-422E-9BAE-45424BA2A2CF}"/>
-    <hyperlink ref="A2019" r:id="rId229" display="mailto:hana.gm125@gmail.com" xr:uid="{98E3B1CB-842B-4F1F-8BA0-E0E425D88703}"/>
-    <hyperlink ref="A2020" r:id="rId230" display="mailto:alinut4147@gmail.com" xr:uid="{32B3C0A0-22F3-4429-A742-7127E7A6D1EE}"/>
-    <hyperlink ref="A2021" r:id="rId231" display="mailto:elnazalmasi95@yahoo.com" xr:uid="{49CD0E4D-E799-4BCF-ABAE-280DC4CFBAF0}"/>
-    <hyperlink ref="A2022" r:id="rId232" display="mailto:gavanji.k@gmail.com" xr:uid="{C46DBD8D-A380-4ADC-90EB-B5E479DF31EF}"/>
-    <hyperlink ref="A2023" r:id="rId233" display="mailto:sarahzokaasadi@gmail.com" xr:uid="{8D3D01DC-6DAB-4266-915D-40A8F12F326A}"/>
-    <hyperlink ref="A2024" r:id="rId234" display="mailto:hannaneh_6929@yahoo.com" xr:uid="{7C4868AB-1A04-479E-B19B-2AC87DB578B4}"/>
-    <hyperlink ref="A2025" r:id="rId235" display="mailto:fa.fayazbakhsh@gmail.com" xr:uid="{92DE85B4-7960-4EA6-B668-6F08E2639710}"/>
-    <hyperlink ref="A2026" r:id="rId236" display="mailto:pooyaatshin1994@yahoo.com" xr:uid="{360C03AE-4EED-4AE9-8139-5425274768E7}"/>
-    <hyperlink ref="A2027" r:id="rId237" display="mailto:mohamad_musavi73@yahoo.com" xr:uid="{A41DB1D7-8038-4A4C-8442-DC15B7BF6381}"/>
-    <hyperlink ref="A2028" r:id="rId238" display="mailto:misaghft1995@gmail.com" xr:uid="{8FABBFC9-4BD5-4804-9D2F-227D82A099FC}"/>
-    <hyperlink ref="A2029" r:id="rId239" display="mailto:f.bagheri.3223@gmail.com" xr:uid="{99A696B3-3C11-448B-A3A5-3EB1E4B71681}"/>
-    <hyperlink ref="A2030" r:id="rId240" display="mailto:sun.mansoori@gmail.com" xr:uid="{AF1E3088-6CE5-4C77-8947-17504F08B632}"/>
-    <hyperlink ref="A2031" r:id="rId241" display="mailto:hdialabadi@yahoo.com" xr:uid="{C6440C56-959D-469E-9E70-D6ED92D85340}"/>
-    <hyperlink ref="A2032" r:id="rId242" display="mailto:mohammad.akbar935@gmail.com" xr:uid="{D19F699B-F06F-4B07-B159-FEBC18D7BD61}"/>
-    <hyperlink ref="A2033" r:id="rId243" display="mailto:sina.seif@gmail.com" xr:uid="{EB4BE757-FA08-486B-A058-8EEC5127D949}"/>
-    <hyperlink ref="A2034" r:id="rId244" display="mailto:noroozmaryam@gmail.com" xr:uid="{E4EDAFEE-C922-43A0-A52F-77443221C2AF}"/>
-    <hyperlink ref="A2035" r:id="rId245" display="mailto:anise.zamrou@gmail.com" xr:uid="{93F0F4FF-88ED-4CE7-89B6-9F1706B03DE1}"/>
-    <hyperlink ref="A2036" r:id="rId246" display="mailto:fatemehmonzavi@yahoo.com" xr:uid="{AAA807E0-0396-4CFD-9C99-2FFC35ACA4D7}"/>
-    <hyperlink ref="A2037" r:id="rId247" display="mailto:om.mojarad@gmail.com" xr:uid="{6C04B349-13C5-471A-BA1C-CBA408F1C7F2}"/>
-    <hyperlink ref="A2038" r:id="rId248" display="mailto:f.sasani08@gmail.com" xr:uid="{C8B91706-BD71-4CFE-9DB8-E7D63C244CAC}"/>
-    <hyperlink ref="A2039" r:id="rId249" display="mailto:mgaravand90@gmail.com" xr:uid="{FD6E2E05-DB1F-49D5-85F9-9D3E1CEA0E51}"/>
-    <hyperlink ref="A2040" r:id="rId250" display="mailto:fesmaeili2002@yahoo.com" xr:uid="{2A31932B-6D08-4C88-9A8E-7961CD57DF57}"/>
-    <hyperlink ref="A2041" r:id="rId251" xr:uid="{C4766EC1-47AE-462E-9A46-622EE3353EFC}"/>
-    <hyperlink ref="A1156" r:id="rId252" xr:uid="{C036081E-D038-438E-9E60-7DDE1DDEB827}"/>
+    <hyperlink ref="A860" r:id="rId1" xr:uid="{D8E5BDE2-D531-49D3-AEC0-A185D3B27F16}"/>
+    <hyperlink ref="A861" r:id="rId2" display="a.abdollahi3360@gmail.com_x000a_" xr:uid="{7DEE4240-6795-4428-8224-85F598E2B4BB}"/>
+    <hyperlink ref="A862" r:id="rId3" xr:uid="{56ED87D2-B187-477F-952F-BE9D53305720}"/>
+    <hyperlink ref="A863" r:id="rId4" display="panjali@sbmu.ac.ir_x000a_" xr:uid="{60EB2953-F9C4-4193-BF77-0793EF1F2EC8}"/>
+    <hyperlink ref="A864" r:id="rId5" xr:uid="{78CEE083-7C37-4F14-BD82-1F450E0B3034}"/>
+    <hyperlink ref="A865" r:id="rId6" xr:uid="{FA388CD4-066C-40FD-8ECF-A8471DF1B758}"/>
+    <hyperlink ref="A866" r:id="rId7" xr:uid="{A8837DF7-FF18-4ED7-A9FF-32EB08F6D667}"/>
+    <hyperlink ref="A867" r:id="rId8" xr:uid="{4BDCB9EE-35B9-46D6-94A5-4E034BB7BE74}"/>
+    <hyperlink ref="A868" r:id="rId9" xr:uid="{315AEBC0-0EDC-4A2E-9146-28EE126D8CDF}"/>
+    <hyperlink ref="A869" r:id="rId10" xr:uid="{BA93CC22-58C6-47EB-A097-DA5CC8A50FDE}"/>
+    <hyperlink ref="A870" r:id="rId11" xr:uid="{7D2D637C-CC40-4434-AEA3-9F51B52B38A3}"/>
+    <hyperlink ref="A871" r:id="rId12" xr:uid="{71F32898-06DA-464D-8BF0-51B92819F5D5}"/>
+    <hyperlink ref="A872" r:id="rId13" xr:uid="{9994B2EF-8643-4446-8575-721041A87D0A}"/>
+    <hyperlink ref="A873" r:id="rId14" xr:uid="{5B53B810-62E7-48F7-988D-45DFB8706A9D}"/>
+    <hyperlink ref="A874" r:id="rId15" xr:uid="{6F598862-AC6D-41D4-AC70-F3F5AE6C4656}"/>
+    <hyperlink ref="A875" r:id="rId16" xr:uid="{102355A9-CE31-49EF-AA36-530AE30B18EC}"/>
+    <hyperlink ref="A876" r:id="rId17" xr:uid="{94FB3861-C44F-41C6-9FB7-3EA0754AFDF4}"/>
+    <hyperlink ref="A877" r:id="rId18" xr:uid="{163F125F-9636-4EFA-BF9E-ECE1FDD4A0B9}"/>
+    <hyperlink ref="A878" r:id="rId19" xr:uid="{450D1802-42D3-4E33-A2C7-2A90AAA14C17}"/>
+    <hyperlink ref="A879" r:id="rId20" xr:uid="{02CC27B0-DFA0-4933-AEED-291E7774ED1A}"/>
+    <hyperlink ref="A880" r:id="rId21" xr:uid="{6D26BF96-618F-487C-A4D9-63F6E075E7A8}"/>
+    <hyperlink ref="A881" r:id="rId22" xr:uid="{EFF4361D-F8C1-44F8-A67F-9D814631DAA6}"/>
+    <hyperlink ref="A882" r:id="rId23" xr:uid="{37D1B61F-A37F-4D67-ADB4-A6C603B272D9}"/>
+    <hyperlink ref="A883" r:id="rId24" xr:uid="{C434AF28-35C6-49C3-B932-4686CD820C2C}"/>
+    <hyperlink ref="A884" r:id="rId25" xr:uid="{B97462BD-F387-4E6F-8351-DDDF581D8351}"/>
+    <hyperlink ref="A885" r:id="rId26" xr:uid="{E24A5596-8122-4FA0-A6B0-2EB11B718E56}"/>
+    <hyperlink ref="A886" r:id="rId27" xr:uid="{B0FD70D2-3532-47DB-9C6F-A7957161E3AF}"/>
+    <hyperlink ref="A887" r:id="rId28" xr:uid="{5096B490-1B73-4802-99CC-DA155A01C585}"/>
+    <hyperlink ref="A888" r:id="rId29" xr:uid="{719A3D37-D067-46C4-B843-AA59E7A5F100}"/>
+    <hyperlink ref="A889" r:id="rId30" xr:uid="{1276F2A6-AC17-48CB-A8E7-2C25C12F9AC5}"/>
+    <hyperlink ref="A890" r:id="rId31" xr:uid="{F5566E7F-2360-4E18-9A67-4A4D518F0FCB}"/>
+    <hyperlink ref="A891" r:id="rId32" xr:uid="{D64BC5A9-9F8F-4A7E-9E5D-250229C0C1B0}"/>
+    <hyperlink ref="A892" r:id="rId33" xr:uid="{DC947958-6F9C-43E3-9924-663392C36067}"/>
+    <hyperlink ref="A893" r:id="rId34" xr:uid="{D53EFEA2-4ACB-4A94-89E5-471B2F3082CC}"/>
+    <hyperlink ref="A894" r:id="rId35" xr:uid="{925511EE-583B-4A73-B725-682FA0EF0BF0}"/>
+    <hyperlink ref="A895" r:id="rId36" xr:uid="{899CFB3C-11DA-4285-9426-67FDB5934FD9}"/>
+    <hyperlink ref="A896" r:id="rId37" xr:uid="{ECD5E857-E77E-41F6-B3C9-F7F6AEC212A5}"/>
+    <hyperlink ref="A897" r:id="rId38" xr:uid="{D974ECD4-17BA-4F86-AACB-C051A3F21256}"/>
+    <hyperlink ref="A898" r:id="rId39" xr:uid="{EAC3CB2C-2CF6-45E0-8CAC-7DD4D8181BDD}"/>
+    <hyperlink ref="A899" r:id="rId40" xr:uid="{CC4FE793-C7A9-4BF2-969C-AE474D11EA5C}"/>
+    <hyperlink ref="A900" r:id="rId41" xr:uid="{F993F14D-8337-4FDB-8093-815BDCEB7EFB}"/>
+    <hyperlink ref="A901" r:id="rId42" xr:uid="{2C065DF5-31F6-4953-B20B-F57D2069C12C}"/>
+    <hyperlink ref="A902" r:id="rId43" xr:uid="{BF316E08-4A76-4573-BE2B-51CAC671F7FE}"/>
+    <hyperlink ref="A903" r:id="rId44" xr:uid="{1CB8BB41-B562-4F8E-BD53-A8C186D55CF8}"/>
+    <hyperlink ref="A904" r:id="rId45" xr:uid="{0F0BC195-B129-4860-B154-14F28EA0808A}"/>
+    <hyperlink ref="A905" r:id="rId46" xr:uid="{703B5142-4338-4745-833B-5AF7A37970BD}"/>
+    <hyperlink ref="A906" r:id="rId47" xr:uid="{B4395424-3584-45A1-815D-990BD4703290}"/>
+    <hyperlink ref="A907" r:id="rId48" xr:uid="{89328179-D8BC-4E98-B6B2-9BF53A9BED94}"/>
+    <hyperlink ref="A908" r:id="rId49" xr:uid="{AE1B8BFA-4C8E-456C-A776-868BCE89E593}"/>
+    <hyperlink ref="A909" r:id="rId50" xr:uid="{210ED07B-DAA2-4922-915D-338581518B4E}"/>
+    <hyperlink ref="A910" r:id="rId51" xr:uid="{DFC4467B-68B1-4A9A-817C-028569ECD6C3}"/>
+    <hyperlink ref="A911" r:id="rId52" xr:uid="{3B22BFBF-165C-4A2C-81A9-74DDD38FD960}"/>
+    <hyperlink ref="A912" r:id="rId53" xr:uid="{DB8D226B-FD26-46FD-AA07-1D74C7A0606B}"/>
+    <hyperlink ref="A913" r:id="rId54" xr:uid="{937C6D7E-E68C-48E9-9AB0-C535EF3DC516}"/>
+    <hyperlink ref="A914" r:id="rId55" xr:uid="{BDAF9BA8-DEC5-4DEB-B0E8-491390BA883D}"/>
+    <hyperlink ref="A915" r:id="rId56" xr:uid="{B86E264E-FE7C-4913-A9D4-AD2C796EC07D}"/>
+    <hyperlink ref="A916" r:id="rId57" xr:uid="{83A47E3A-0FAB-44CF-ABFA-D10AD91B5524}"/>
+    <hyperlink ref="A917" r:id="rId58" xr:uid="{39E8CC52-A346-40FE-8036-F3B1198AB609}"/>
+    <hyperlink ref="A918" r:id="rId59" xr:uid="{7D939FB6-2F90-4BA7-8695-87E9EB2EFA6A}"/>
+    <hyperlink ref="A919" r:id="rId60" xr:uid="{3DB0123D-5474-4815-9E19-90156BFC8B91}"/>
+    <hyperlink ref="A920" r:id="rId61" xr:uid="{ACEBB592-CDCC-4E46-9F25-B7711D471964}"/>
+    <hyperlink ref="A921" r:id="rId62" xr:uid="{C73D3A29-807D-48D9-AB2D-C0275DDCB142}"/>
+    <hyperlink ref="A922" r:id="rId63" xr:uid="{44AE86D2-F001-4A21-B730-EAE436CE2FAC}"/>
+    <hyperlink ref="A923" r:id="rId64" xr:uid="{95BBA83C-4C79-4D36-8EE5-A181AC622CF6}"/>
+    <hyperlink ref="A924" r:id="rId65" xr:uid="{25E7A983-BA2B-4A8B-8720-48039A164479}"/>
+    <hyperlink ref="A925" r:id="rId66" xr:uid="{1621BBF1-DC94-4DC6-BFBD-947D15BF245B}"/>
+    <hyperlink ref="A926" r:id="rId67" xr:uid="{C31AC3A6-8EBC-4168-8EEF-9C2A69F7992D}"/>
+    <hyperlink ref="A927" r:id="rId68" xr:uid="{1BA68BD4-FFE5-40B4-B642-30213BADCC3F}"/>
+    <hyperlink ref="A928" r:id="rId69" xr:uid="{C620A5ED-D0CF-4361-A555-047B3C05D5B6}"/>
+    <hyperlink ref="A929" r:id="rId70" xr:uid="{04BA5624-67F4-4213-890A-25F9CC511E29}"/>
+    <hyperlink ref="A930" r:id="rId71" xr:uid="{6554A7D2-E11A-43ED-9B4B-FD74C8032A26}"/>
+    <hyperlink ref="A931" r:id="rId72" xr:uid="{43198718-8984-4E38-A733-AFAB8634A372}"/>
+    <hyperlink ref="A932" r:id="rId73" xr:uid="{6DBF862F-DBD7-4E02-A3C8-FA5D76A83CD6}"/>
+    <hyperlink ref="A933" r:id="rId74" xr:uid="{0C37327B-6B83-4088-914B-6E41787A707D}"/>
+    <hyperlink ref="A934" r:id="rId75" xr:uid="{28ACFA9A-E7F4-49BC-A870-342BB71F87A4}"/>
+    <hyperlink ref="A935" r:id="rId76" xr:uid="{A185B735-B194-40D4-A098-A046D6D59E05}"/>
+    <hyperlink ref="A936" r:id="rId77" xr:uid="{00AFD740-1929-46BB-BDD1-FD0109879BFB}"/>
+    <hyperlink ref="A937" r:id="rId78" xr:uid="{98A108B6-BF66-4BF4-ACC8-3D7EBAAB0F7D}"/>
+    <hyperlink ref="A938" r:id="rId79" display="nadri_s@zums.ac.ir  " xr:uid="{9F83C108-A7B4-4D0B-B129-D00E8E001BBF}"/>
+    <hyperlink ref="A939" r:id="rId80" xr:uid="{D02FECE9-4914-4CFB-8F9C-FCEFD96AC814}"/>
+    <hyperlink ref="A940" r:id="rId81" xr:uid="{82B29F41-0845-4126-ADA7-94985FF813AC}"/>
+    <hyperlink ref="A941" r:id="rId82" xr:uid="{58049502-D350-4999-BDFC-54B1C80FE7C1}"/>
+    <hyperlink ref="A942" r:id="rId83" xr:uid="{92942971-370B-4025-98BB-67BB60EEFC11}"/>
+    <hyperlink ref="A943" r:id="rId84" xr:uid="{32265B7B-EF8D-4D98-B612-EA0E1D407123}"/>
+    <hyperlink ref="A944" r:id="rId85" xr:uid="{054E9D19-60BD-489C-9A9A-43908F8E49EC}"/>
+    <hyperlink ref="A945" r:id="rId86" xr:uid="{664FB28F-784D-4E3F-ACB9-A74A11C04E78}"/>
+    <hyperlink ref="A946" r:id="rId87" xr:uid="{59476CE4-7832-41C2-A091-404CBD7844CD}"/>
+    <hyperlink ref="A947" r:id="rId88" xr:uid="{C89A4D6D-6A54-4AAE-B1FA-D13A19DF3824}"/>
+    <hyperlink ref="A948" r:id="rId89" xr:uid="{32B9C080-5690-4A16-91DA-5AADAD9E6249}"/>
+    <hyperlink ref="A949" r:id="rId90" xr:uid="{D978A2CF-68A3-455D-8B3C-BC7F6E8F5EAA}"/>
+    <hyperlink ref="A950" r:id="rId91" xr:uid="{90678AEF-E03C-44B9-AD45-27EBFE105CD0}"/>
+    <hyperlink ref="A951" r:id="rId92" xr:uid="{95EB8F30-4C9E-4FF9-8656-AEDC650E0435}"/>
+    <hyperlink ref="A952" r:id="rId93" xr:uid="{66CBA257-459B-4276-9EA0-F6A4C469057D}"/>
+    <hyperlink ref="A953" r:id="rId94" xr:uid="{019BB3B1-D9F4-41C1-BB00-320F1F76F65F}"/>
+    <hyperlink ref="A954" r:id="rId95" xr:uid="{8214465D-0D33-4765-955D-B2274A9DF4CE}"/>
+    <hyperlink ref="A955" r:id="rId96" xr:uid="{C4A3FA77-D9CF-4CAD-BBB6-1F1980742F25}"/>
+    <hyperlink ref="A956" r:id="rId97" xr:uid="{FF59407F-6829-4C32-9B15-0BA62BB6AF51}"/>
+    <hyperlink ref="A957" r:id="rId98" xr:uid="{68A23C69-DF70-4216-ADD1-7D3846CBB678}"/>
+    <hyperlink ref="A958" r:id="rId99" xr:uid="{14F181A4-FDB2-4234-9B08-AA32DA89D6B0}"/>
+    <hyperlink ref="A959" r:id="rId100" xr:uid="{EDC80657-FFE4-46B3-BE80-AD9A1EFFB4B4}"/>
+    <hyperlink ref="A960" r:id="rId101" xr:uid="{24B688CA-CFC8-43BD-81A1-A5AA05C72A25}"/>
+    <hyperlink ref="A961" r:id="rId102" xr:uid="{4462ABD1-2FCC-4F80-83E3-1187DFD492F4}"/>
+    <hyperlink ref="A962" r:id="rId103" xr:uid="{C3A63646-BE7B-485E-8AA5-D20AB4169DFB}"/>
+    <hyperlink ref="A963" r:id="rId104" xr:uid="{2A5C5D1B-01E1-4E55-959B-86852B81A0B6}"/>
+    <hyperlink ref="A964" r:id="rId105" xr:uid="{DF869774-D716-4C9D-A04B-B34D776CB7DE}"/>
+    <hyperlink ref="A965" r:id="rId106" xr:uid="{AAC7D201-94F8-45FA-B159-907F4A86C5F3}"/>
+    <hyperlink ref="A966" r:id="rId107" xr:uid="{E7A72C02-AAB3-422F-AEA3-0E7DFABEF094}"/>
+    <hyperlink ref="A967" r:id="rId108" display="dalghin68@yahoo.com" xr:uid="{AC6A03A9-FD33-423E-A5F3-245213B01D3A}"/>
+    <hyperlink ref="A968" r:id="rId109" xr:uid="{82176CD4-DB3D-4076-A172-FE678F005F73}"/>
+    <hyperlink ref="A969" r:id="rId110" xr:uid="{915F6BE8-75C5-49D2-B222-B48DA2362297}"/>
+    <hyperlink ref="A970" r:id="rId111" xr:uid="{AED28940-72FB-47A7-8461-869E24ACE58D}"/>
+    <hyperlink ref="A971" r:id="rId112" xr:uid="{B7782086-6411-452A-A1A4-4A273EF3264B}"/>
+    <hyperlink ref="A972" r:id="rId113" xr:uid="{E3238D9A-3324-4F15-9E7D-8470919DCBFC}"/>
+    <hyperlink ref="A973" r:id="rId114" xr:uid="{DD59FACC-8F8F-49F6-8747-98F18F68527B}"/>
+    <hyperlink ref="A974" r:id="rId115" xr:uid="{05900F0B-5FA4-4BF5-9367-BDA18AA958DE}"/>
+    <hyperlink ref="A975" r:id="rId116" xr:uid="{2FA8F11D-2EEC-473E-9E70-8AAB0659B6E3}"/>
+    <hyperlink ref="A976" r:id="rId117" xr:uid="{A1553066-CCF0-4A3A-BF93-86FC35690ECD}"/>
+    <hyperlink ref="A977" r:id="rId118" xr:uid="{0D196D4F-1FA7-438B-8338-F923007C08F5}"/>
+    <hyperlink ref="A978" r:id="rId119" xr:uid="{FACB7F3D-C512-4A5F-AA6F-061B5F26F61A}"/>
+    <hyperlink ref="A979" r:id="rId120" xr:uid="{341660B4-0CD6-4682-8D84-808829A7A3ED}"/>
+    <hyperlink ref="A980" r:id="rId121" xr:uid="{32F4CF45-9A0D-482B-807C-4A4EA76E5A88}"/>
+    <hyperlink ref="A981" r:id="rId122" xr:uid="{1801A917-4DE2-4266-9525-1AE949A1E5E5}"/>
+    <hyperlink ref="A982" r:id="rId123" xr:uid="{52E6438B-FC32-46C5-B7E3-D27DF61CFCBB}"/>
+    <hyperlink ref="A983" r:id="rId124" xr:uid="{435961F5-2040-47C4-BBFE-C6FC4DA7E0E6}"/>
+    <hyperlink ref="A984" r:id="rId125" xr:uid="{9FD6E7AA-C0D2-4C65-8862-B96419BC53B3}"/>
+    <hyperlink ref="A985" r:id="rId126" xr:uid="{D877D98E-3D43-46F5-9A0B-26D89395EFD6}"/>
+    <hyperlink ref="A986" r:id="rId127" xr:uid="{E7E3EA8C-245E-4560-960A-9695801551EE}"/>
+    <hyperlink ref="A987" r:id="rId128" xr:uid="{1BD6CE31-1F75-44B9-BA57-E9C411EA9206}"/>
+    <hyperlink ref="A988" r:id="rId129" xr:uid="{DD08F788-874F-4A14-AC37-D587D73F4EF9}"/>
+    <hyperlink ref="A989" r:id="rId130" xr:uid="{FE5F2648-8A41-4DAF-B463-E38D9232655A}"/>
+    <hyperlink ref="A990" r:id="rId131" xr:uid="{A022FF20-63CD-475E-BDEC-48C2860015E8}"/>
+    <hyperlink ref="A991" r:id="rId132" xr:uid="{A94FD184-94EF-41F4-93D4-4B0B15AB5F9A}"/>
+    <hyperlink ref="A992" r:id="rId133" xr:uid="{E9240F33-691D-4B5F-A3E2-DE97386A62E1}"/>
+    <hyperlink ref="A993" r:id="rId134" xr:uid="{81F3491C-C9DF-455E-B9F9-42D714B734F4}"/>
+    <hyperlink ref="A994" r:id="rId135" xr:uid="{EC741294-7E8E-46DE-99EE-32FB115470AE}"/>
+    <hyperlink ref="A995" r:id="rId136" xr:uid="{F35BBEA2-2FF8-4F2F-9211-EDCAE6C8146B}"/>
+    <hyperlink ref="A996" r:id="rId137" xr:uid="{1725FC26-EE9C-4238-AC0A-0AD6EBD96A01}"/>
+    <hyperlink ref="A997" r:id="rId138" xr:uid="{4D2BB732-D71F-490D-8D6B-2170CBDA857D}"/>
+    <hyperlink ref="A998" r:id="rId139" xr:uid="{CE9314BF-BB09-42CA-A0A1-D060115C7319}"/>
+    <hyperlink ref="A999" r:id="rId140" xr:uid="{B804D0D6-EEE0-40FF-AA73-A6FA9944F184}"/>
+    <hyperlink ref="A1000" r:id="rId141" xr:uid="{5AE9BDA9-83A5-40F1-A299-9EA7595B0BD3}"/>
+    <hyperlink ref="A1001" r:id="rId142" xr:uid="{B9D05B7D-4C02-48A2-8D9D-760030E6DB79}"/>
+    <hyperlink ref="A1002" r:id="rId143" xr:uid="{0A293059-F9C0-484B-B5A6-7A2B12BFAE69}"/>
+    <hyperlink ref="A1003" r:id="rId144" xr:uid="{0B00E371-CB51-4F1B-BB7B-0A75A8C92086}"/>
+    <hyperlink ref="A1004" r:id="rId145" xr:uid="{515D4454-25F6-465C-901B-7604B1F8B5C8}"/>
+    <hyperlink ref="A1005" r:id="rId146" xr:uid="{1AA92820-6923-4C91-BF5E-438895234322}"/>
+    <hyperlink ref="A1006" r:id="rId147" xr:uid="{A7F93362-636F-40FE-B094-77E024FC1A0E}"/>
+    <hyperlink ref="A1007" r:id="rId148" xr:uid="{7029D463-E64F-4DED-B25D-9195CF8ABA22}"/>
+    <hyperlink ref="A1008" r:id="rId149" xr:uid="{5F0410C4-129E-4FB8-B18E-E755F93DC536}"/>
+    <hyperlink ref="A1009" r:id="rId150" xr:uid="{F790B2D9-E7C2-4416-9001-67201969FDA1}"/>
+    <hyperlink ref="A1010" r:id="rId151" xr:uid="{0D74A262-06CA-40ED-8757-17B295DBDD96}"/>
+    <hyperlink ref="A1011" r:id="rId152" xr:uid="{FD55CDC8-7F75-480A-8729-93BE3B876EF1}"/>
+    <hyperlink ref="A1012" r:id="rId153" xr:uid="{BB4FEE8B-4F3E-4D93-AD2B-4C945C1FEFC5}"/>
+    <hyperlink ref="A1013" r:id="rId154" xr:uid="{2A9B9B16-2EFB-4AB5-B219-5E0B4931A602}"/>
+    <hyperlink ref="A1014" r:id="rId155" xr:uid="{157D1B7C-3B0E-48FB-AA46-AEF1287F177C}"/>
+    <hyperlink ref="A1015" r:id="rId156" xr:uid="{F1EB4F74-C484-4879-A203-02B2E5A31854}"/>
+    <hyperlink ref="A1016" r:id="rId157" xr:uid="{F6BAB08B-7FB0-488A-BDA1-4432AA309938}"/>
+    <hyperlink ref="A1017" r:id="rId158" xr:uid="{D7281387-67B3-4503-BEFF-19D8605174CA}"/>
+    <hyperlink ref="A1018" r:id="rId159" xr:uid="{88EF02B8-9341-4882-B097-7E870874E756}"/>
+    <hyperlink ref="A1019" r:id="rId160" xr:uid="{0E53DA7B-B971-4A21-8191-B757193CAA63}"/>
+    <hyperlink ref="A1020" r:id="rId161" xr:uid="{94FAF243-CBC1-414B-B95E-FA55BB1C58CA}"/>
+    <hyperlink ref="A1021" r:id="rId162" xr:uid="{D3A2CE8F-F142-42FC-AD25-11424971B716}"/>
+    <hyperlink ref="A1022" r:id="rId163" xr:uid="{94C91573-54BB-4DA3-9A67-4E0B6114F873}"/>
+    <hyperlink ref="A1542" r:id="rId164" display="http://sph.tums.ac.ir/" xr:uid="{3D4168AA-DDB6-4905-A524-816C4805EA6B}"/>
+    <hyperlink ref="A1557" r:id="rId165" xr:uid="{00EE04C8-A6C6-452C-AFEF-8F367D3CD333}"/>
+    <hyperlink ref="A1558" r:id="rId166" xr:uid="{33725344-787A-4300-B725-DC18FA2509B1}"/>
+    <hyperlink ref="A1559" r:id="rId167" xr:uid="{1122A989-FE0F-413F-8081-BC0C28F9E70C}"/>
+    <hyperlink ref="A1560" r:id="rId168" xr:uid="{044CA121-3064-4B82-BECC-0E30DAE46CF0}"/>
+    <hyperlink ref="A1561" r:id="rId169" xr:uid="{95A99DB2-34B7-4D06-9EAE-DCE595092377}"/>
+    <hyperlink ref="A1562" r:id="rId170" xr:uid="{F8EEAE71-CCAD-4259-99BB-5BC85F23B4C2}"/>
+    <hyperlink ref="A1563" r:id="rId171" display="mailto:rezaeizadeh@tums.ac.ir" xr:uid="{637D7D0C-7BFD-4034-AB07-15873F3AD06B}"/>
+    <hyperlink ref="A1565" r:id="rId172" xr:uid="{1B0B9AFA-DFAA-4C24-BD46-D061D4D8FBFF}"/>
+    <hyperlink ref="A1566" r:id="rId173" xr:uid="{E5685AF4-660A-417C-B227-CCF98A4A4D73}"/>
+    <hyperlink ref="A1567" r:id="rId174" xr:uid="{2DCC835F-0A30-4878-A8D3-76895528B9E9}"/>
+    <hyperlink ref="A1568" r:id="rId175" display="mailto:sina.marashi@gmail.com" xr:uid="{4A972128-57BE-4C02-8A08-6CE0CAC8DC05}"/>
+    <hyperlink ref="A1569" r:id="rId176" xr:uid="{4D7F4295-1A4B-46C6-A07C-94BF5A0E8482}"/>
+    <hyperlink ref="A1571" r:id="rId177" xr:uid="{CC3A65CB-75E2-43B7-BD82-67C5D2321DE8}"/>
+    <hyperlink ref="A1572" r:id="rId178" xr:uid="{CE8D31F9-21E4-4603-8322-E9BF9E502531}"/>
+    <hyperlink ref="A1573" r:id="rId179" xr:uid="{9EB92218-7F96-4D98-82C5-35BCF8026212}"/>
+    <hyperlink ref="A1574" r:id="rId180" xr:uid="{005627B1-346C-472E-8859-E939CAF295E4}"/>
+    <hyperlink ref="A1575" r:id="rId181" xr:uid="{45B5F462-A1D9-4300-B2ED-98D5F10824B6}"/>
+    <hyperlink ref="A1576" r:id="rId182" xr:uid="{7EF175F4-C70F-4FEA-82E9-741F6D8A4365}"/>
+    <hyperlink ref="A1577" r:id="rId183" xr:uid="{E903A1C2-0A18-40F6-B823-4A23BD97F679}"/>
+    <hyperlink ref="A1578" r:id="rId184" xr:uid="{5992459D-D657-487B-94F2-5D208416F424}"/>
+    <hyperlink ref="A1579" r:id="rId185" xr:uid="{35D7F4E2-F541-4D28-BCC7-9430A058101A}"/>
+    <hyperlink ref="A1580" r:id="rId186" xr:uid="{D8CAB375-CDB5-4779-A448-48C53B0A0EAD}"/>
+    <hyperlink ref="A1581" r:id="rId187" xr:uid="{6B94353C-3963-47DF-90FB-EC16AB08BE98}"/>
+    <hyperlink ref="A1582" r:id="rId188" xr:uid="{3B95098B-A294-48B6-9B08-F8D31A74B130}"/>
+    <hyperlink ref="A1583" r:id="rId189" xr:uid="{3FAD5F88-2E5B-4BB6-9553-A1DB52FAD040}"/>
+    <hyperlink ref="A1584" r:id="rId190" xr:uid="{FDA403CD-DA39-4140-B70C-ABC10A595221}"/>
+    <hyperlink ref="A1585" r:id="rId191" xr:uid="{C9B6FAE1-075C-4B41-BD21-9AE247B2877C}"/>
+    <hyperlink ref="A1586" r:id="rId192" xr:uid="{CEC6ACF1-4BE1-471E-AA03-F3C76C25B8EF}"/>
+    <hyperlink ref="A1587" r:id="rId193" xr:uid="{82273192-A0A3-4ED8-9041-A772DBC6563E}"/>
+    <hyperlink ref="A1588" r:id="rId194" xr:uid="{F92440DA-70B4-41C5-966C-5B041299F00C}"/>
+    <hyperlink ref="A1589" r:id="rId195" xr:uid="{AB516E97-62C2-4AC2-A35D-3B8DF1803352}"/>
+    <hyperlink ref="A1590" r:id="rId196" xr:uid="{24B1AC24-FB37-4270-B781-1DF0D659FC87}"/>
+    <hyperlink ref="A1591" r:id="rId197" xr:uid="{8264521C-F733-4C81-B05F-F8944D9633E1}"/>
+    <hyperlink ref="A1592" r:id="rId198" xr:uid="{990B9AAF-D90C-4E1A-9DB6-43A67FD0104D}"/>
+    <hyperlink ref="A1598" r:id="rId199" display="mailto:mahya.rahmani@gmail.com" xr:uid="{3205E694-56C2-4096-983C-905840DFAE23}"/>
+    <hyperlink ref="A1599" r:id="rId200" display="mailto:nazeriali2007@yahoo.com" xr:uid="{CEF5CD3F-F610-400F-8048-B3990F025B3E}"/>
+    <hyperlink ref="A1600" r:id="rId201" display="mailto:m-nikbakht@razi.tums.ac.ir" xr:uid="{FA4E8121-AC7B-4302-9F1B-A056EA343417}"/>
+    <hyperlink ref="A1601" r:id="rId202" display="mailto:a.valizadeh_medicalnano@yahoo,com" xr:uid="{65162598-D89D-4463-8256-22A0255DA976}"/>
+    <hyperlink ref="A1602" r:id="rId203" display="mailto:asghari_mnt@yahoo.com" xr:uid="{81F07F8F-1694-45BC-BAFB-0A34E3228CAD}"/>
+    <hyperlink ref="A1603" r:id="rId204" display="mailto:biophysicsiasbs@yahoo.com" xr:uid="{9F3D4CAD-3A45-421E-9AAF-AB5D90160699}"/>
+    <hyperlink ref="A1604" r:id="rId205" display="mailto:hasanmaleki95@yahoo.com" xr:uid="{8DC23226-1A61-45F3-8381-A171ED7DB306}"/>
+    <hyperlink ref="A1605" r:id="rId206" display="mailto:najmehketabchi@yahoo.com" xr:uid="{153CA2DA-2C78-4F19-B6EF-8F7072260691}"/>
+    <hyperlink ref="A1606" r:id="rId207" display="mailto:mortezakamali1979@gmail.com" xr:uid="{37881458-BBCD-447D-9B27-AEA473849C67}"/>
+    <hyperlink ref="A1607" r:id="rId208" display="mailto:marya.sharif90@yahoo.com" xr:uid="{86F4CBF7-7B72-4313-8836-5C10FD86CE72}"/>
+    <hyperlink ref="A1608" r:id="rId209" display="mailto:bahrani.s6412@yahoo.com" xr:uid="{92C25970-8236-4908-9DC3-363795F0D683}"/>
+    <hyperlink ref="A1609" r:id="rId210" display="mailto:naserineda1989@gmail.com" xr:uid="{01473793-8055-49DB-8AAB-FA249A8FBE3C}"/>
+    <hyperlink ref="A1610" r:id="rId211" display="mailto:mosafarkhanis@gmail.com" xr:uid="{2DCBA322-12CE-43D7-9BDB-7B6B27A894C5}"/>
+    <hyperlink ref="A1611" r:id="rId212" display="mailto:elnazshaabani91@gmail.com" xr:uid="{EB35E4B6-7E1A-487C-A227-295242517B27}"/>
+    <hyperlink ref="A1612" r:id="rId213" display="mailto:hasanpourakram@gmail.com" xr:uid="{9BA7B431-3196-417A-80E2-1966E8DD2251}"/>
+    <hyperlink ref="A1613" r:id="rId214" display="mailto:gharatape_ar@yahoo.com" xr:uid="{B7C94467-AAAE-41E0-BB3A-87DB9D1AB966}"/>
+    <hyperlink ref="A1614" r:id="rId215" display="mailto:azarnajafi.tsh@gmail.com" xr:uid="{292CC52C-1F09-4BE2-BF79-99AAE0D82228}"/>
+    <hyperlink ref="A1615" r:id="rId216" display="mailto:beheshtkhoo.nano@gmail.com" xr:uid="{3F972A5B-D29A-42FD-8FF2-A74CC94B2533}"/>
+    <hyperlink ref="A1616" r:id="rId217" display="mailto:mmalekpour@razi.tums.ac.ir" xr:uid="{1879CB5B-A60C-40E9-BD73-A7F4D0268A0D}"/>
+    <hyperlink ref="A1617" r:id="rId218" display="mailto:amanzadi@yahoo.com" xr:uid="{64CAE73D-6D91-41F6-BE38-EEE8D9849219}"/>
+    <hyperlink ref="A1618" r:id="rId219" display="mailto:aminjadidi1993@gmail.com" xr:uid="{E176E1B3-24D8-4F94-BDF4-E122C228F7A5}"/>
+    <hyperlink ref="A1619" r:id="rId220" display="mailto:mmonfaredd@gmail.com" xr:uid="{39295873-B9CE-4081-AE28-D152CAB8D80D}"/>
+    <hyperlink ref="A1620" r:id="rId221" display="mailto:doostan.mahtab@gmail.com" xr:uid="{662DBC40-A99B-4838-85E8-80095D9D104B}"/>
+    <hyperlink ref="A1621" r:id="rId222" display="mailto:hasani.njf@gmail.com" xr:uid="{9C7ED6B9-B333-46FE-A5F4-BD7CD5234F0A}"/>
+    <hyperlink ref="A1622" r:id="rId223" display="mailto:ali-dehghan70@yahoo.com" xr:uid="{EC993113-EDDB-432F-B7CC-6E1A98337E56}"/>
+    <hyperlink ref="A1623" r:id="rId224" display="mailto:khorsand_fa@yahoo.com" xr:uid="{D878E0D7-C889-4DC9-B79B-41BEBF6A20B8}"/>
+    <hyperlink ref="A1624" r:id="rId225" display="mailto:amingholizadeh71@gmail.com" xr:uid="{B5973EB7-EB99-415A-90AC-9381C64A6643}"/>
+    <hyperlink ref="A1625" r:id="rId226" display="mailto:maryam-khodadadi@hotmail.com" xr:uid="{26A784EB-4963-4CC1-AACA-57E6C6BA2B74}"/>
+    <hyperlink ref="A1626" r:id="rId227" display="mailto:dar.rahban777@gmail.com" xr:uid="{F8FDB738-4886-485C-BFEC-DD1AB5F290EE}"/>
+    <hyperlink ref="A1627" r:id="rId228" display="mailto:ezio1441@yahoo.com" xr:uid="{74CAA2DF-BE05-422E-9BAE-45424BA2A2CF}"/>
+    <hyperlink ref="A1628" r:id="rId229" display="mailto:hana.gm125@gmail.com" xr:uid="{98E3B1CB-842B-4F1F-8BA0-E0E425D88703}"/>
+    <hyperlink ref="A1629" r:id="rId230" display="mailto:alinut4147@gmail.com" xr:uid="{32B3C0A0-22F3-4429-A742-7127E7A6D1EE}"/>
+    <hyperlink ref="A1630" r:id="rId231" display="mailto:elnazalmasi95@yahoo.com" xr:uid="{49CD0E4D-E799-4BCF-ABAE-280DC4CFBAF0}"/>
+    <hyperlink ref="A1631" r:id="rId232" display="mailto:gavanji.k@gmail.com" xr:uid="{C46DBD8D-A380-4ADC-90EB-B5E479DF31EF}"/>
+    <hyperlink ref="A1632" r:id="rId233" display="mailto:sarahzokaasadi@gmail.com" xr:uid="{8D3D01DC-6DAB-4266-915D-40A8F12F326A}"/>
+    <hyperlink ref="A1633" r:id="rId234" display="mailto:hannaneh_6929@yahoo.com" xr:uid="{7C4868AB-1A04-479E-B19B-2AC87DB578B4}"/>
+    <hyperlink ref="A1634" r:id="rId235" display="mailto:fa.fayazbakhsh@gmail.com" xr:uid="{92DE85B4-7960-4EA6-B668-6F08E2639710}"/>
+    <hyperlink ref="A1635" r:id="rId236" display="mailto:pooyaatshin1994@yahoo.com" xr:uid="{360C03AE-4EED-4AE9-8139-5425274768E7}"/>
+    <hyperlink ref="A1636" r:id="rId237" display="mailto:mohamad_musavi73@yahoo.com" xr:uid="{A41DB1D7-8038-4A4C-8442-DC15B7BF6381}"/>
+    <hyperlink ref="A1637" r:id="rId238" display="mailto:misaghft1995@gmail.com" xr:uid="{8FABBFC9-4BD5-4804-9D2F-227D82A099FC}"/>
+    <hyperlink ref="A1638" r:id="rId239" display="mailto:f.bagheri.3223@gmail.com" xr:uid="{99A696B3-3C11-448B-A3A5-3EB1E4B71681}"/>
+    <hyperlink ref="A1639" r:id="rId240" display="mailto:sun.mansoori@gmail.com" xr:uid="{AF1E3088-6CE5-4C77-8947-17504F08B632}"/>
+    <hyperlink ref="A1640" r:id="rId241" display="mailto:hdialabadi@yahoo.com" xr:uid="{C6440C56-959D-469E-9E70-D6ED92D85340}"/>
+    <hyperlink ref="A1641" r:id="rId242" display="mailto:mohammad.akbar935@gmail.com" xr:uid="{D19F699B-F06F-4B07-B159-FEBC18D7BD61}"/>
+    <hyperlink ref="A1642" r:id="rId243" display="mailto:sina.seif@gmail.com" xr:uid="{EB4BE757-FA08-486B-A058-8EEC5127D949}"/>
+    <hyperlink ref="A1643" r:id="rId244" display="mailto:noroozmaryam@gmail.com" xr:uid="{E4EDAFEE-C922-43A0-A52F-77443221C2AF}"/>
+    <hyperlink ref="A1644" r:id="rId245" display="mailto:anise.zamrou@gmail.com" xr:uid="{93F0F4FF-88ED-4CE7-89B6-9F1706B03DE1}"/>
+    <hyperlink ref="A1645" r:id="rId246" display="mailto:fatemehmonzavi@yahoo.com" xr:uid="{AAA807E0-0396-4CFD-9C99-2FFC35ACA4D7}"/>
+    <hyperlink ref="A1646" r:id="rId247" display="mailto:om.mojarad@gmail.com" xr:uid="{6C04B349-13C5-471A-BA1C-CBA408F1C7F2}"/>
+    <hyperlink ref="A1647" r:id="rId248" display="mailto:f.sasani08@gmail.com" xr:uid="{C8B91706-BD71-4CFE-9DB8-E7D63C244CAC}"/>
+    <hyperlink ref="A1648" r:id="rId249" display="mailto:mgaravand90@gmail.com" xr:uid="{FD6E2E05-DB1F-49D5-85F9-9D3E1CEA0E51}"/>
+    <hyperlink ref="A1649" r:id="rId250" display="mailto:fesmaeili2002@yahoo.com" xr:uid="{2A31932B-6D08-4C88-9A8E-7961CD57DF57}"/>
+    <hyperlink ref="A1650" r:id="rId251" xr:uid="{C4766EC1-47AE-462E-9A46-622EE3353EFC}"/>
+    <hyperlink ref="A765" r:id="rId252" xr:uid="{C036081E-D038-438E-9E60-7DDE1DDEB827}"/>
     <hyperlink ref="A2" r:id="rId253" xr:uid="{3BA7E4E7-AE30-4B8B-B356-D13AB904828B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihranw\Desktop\Tools\Email Sender\Group-MailSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9335D16-B814-4E3C-AED4-5A949A9565CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578445C-E4A0-48C7-81E3-5457CD74F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{BC0D1A69-BB01-41F3-8244-CA01FFABFD31}"/>
   </bookViews>
@@ -25,751 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1040">
-  <si>
-    <t>Zari_Hooshyar@yahoo.com</t>
-  </si>
-  <si>
-    <t>fzmovahedi@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ghasri_mr@yahoo.com</t>
-  </si>
-  <si>
-    <t>sima.Habibi@gmail.com</t>
-  </si>
-  <si>
-    <t>shahsavari.fa@gmail.com</t>
-  </si>
-  <si>
-    <t>zhooshyar@gmail.com</t>
-  </si>
-  <si>
-    <t>Ramin.Golestanian@physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>aomri@laurentian.ca</t>
-  </si>
-  <si>
-    <t>vmrsa@pbf.hr</t>
-  </si>
-  <si>
-    <t>namazi@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>tohidi.ma@gmail.com</t>
-  </si>
-  <si>
-    <t>zeinali@shirazu.ac.ir</t>
-  </si>
-  <si>
-    <t>so.khodadad@yahoo.com</t>
-  </si>
-  <si>
-    <t>bsajad@alzahra.ac.ir</t>
-  </si>
-  <si>
-    <t>asgari@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>ghafary@iust.ac.ir</t>
-  </si>
-  <si>
-    <t>m11_zabihi@yahoo.com</t>
-  </si>
-  <si>
-    <t>sadeghimoosa@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.behnia@sci.uut.ac.ir</t>
-  </si>
-  <si>
-    <t>bab.ravan@gmail.com</t>
-  </si>
-  <si>
-    <t>Hesooom68@gmail.com</t>
-  </si>
-  <si>
-    <t>Ehsanzaheditex@gmail.com</t>
-  </si>
-  <si>
-    <t>nooralishahi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>Bazyari.amin@gmail.com</t>
-  </si>
-  <si>
-    <t>rnikbakht17224@gmail.com</t>
-  </si>
-  <si>
-    <t>marzieh.hosseini86@gmail.com</t>
-  </si>
-  <si>
-    <t>khfaghihi@gmail.com</t>
-  </si>
-  <si>
-    <t>khonakdar@gmail.com</t>
-  </si>
-  <si>
-    <t>shabanian.m44@gmail.com</t>
-  </si>
-  <si>
-    <t>a.zirakjou@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>maghadamgahi@yahoo.com</t>
-  </si>
-  <si>
-    <t>kh.rashedi69@yahoo.com</t>
-  </si>
-  <si>
-    <t>kayanizd@yahoo.com</t>
-  </si>
-  <si>
-    <t>f-nazari@acecr.ac.ir/rmt@iausr.ac.ir</t>
-  </si>
-  <si>
-    <t>mohsenmehdipur@semnan.ac.ir</t>
-  </si>
-  <si>
-    <t>Nfallah2001@yahoo.com</t>
-  </si>
-  <si>
-    <t>ahmadi.hamidreza@gmail.com</t>
-  </si>
-  <si>
-    <t>mohsenmehdipour@yahoo.com</t>
-  </si>
-  <si>
-    <t>narjeskeramati@semnan.ac.ir</t>
-  </si>
-  <si>
-    <t>m.sabzi@maragheh.ac.ir</t>
-  </si>
-  <si>
-    <t>ntaheri@uchicago.edu</t>
-  </si>
-  <si>
-    <t>yulin.deng@ipst.gatech.edu</t>
-  </si>
-  <si>
-    <t>nikfarjam@iasbs.ac.ir</t>
-  </si>
-  <si>
-    <t>mhajibeygi@gmail.com</t>
-  </si>
-  <si>
-    <t>m.goodarzi@arakut.ac.ir</t>
-  </si>
-  <si>
-    <t>kambiz.hedayati@gmail.com</t>
-  </si>
-  <si>
-    <t>maryam.heidarshenas@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>mahditavakol@ymail.com</t>
-  </si>
-  <si>
-    <t>a_montazeri@kntu.ac.ir</t>
-  </si>
-  <si>
-    <t>firoozbakhsh@sharif.ir</t>
-  </si>
-  <si>
-    <t>ashamloo@gmail.com</t>
-  </si>
-  <si>
-    <t>ghiyasiyan@yahoo.com</t>
-  </si>
-  <si>
-    <t>morteza.salehi@gmail.com</t>
-  </si>
-  <si>
-    <t>rmkhani@znu.ac.ir</t>
-  </si>
-  <si>
-    <t>hamzehpour@kntu.ac.ir</t>
-  </si>
-  <si>
-    <t>razieh.beiranvand@gmail.com</t>
-  </si>
-  <si>
-    <t>mhch.st89@gmail.com</t>
-  </si>
-  <si>
-    <t>chem6418@gmail.com</t>
-  </si>
-  <si>
-    <t>s.khosravi@grad.kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>salavati@kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>amshamloo@gmail.com</t>
-  </si>
-  <si>
-    <t>ngoodarzi11@gmail.com</t>
-  </si>
-  <si>
-    <t>grezanejad@ymail.com</t>
-  </si>
-  <si>
-    <t>kord_mohsen@yahoo.com</t>
-  </si>
-  <si>
-    <t>zhooshayr@gmail.com</t>
-  </si>
-  <si>
-    <t>a.shariati@put.ac.ir</t>
-  </si>
-  <si>
-    <t>a.khalilzadeh@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>behzadmehrafrooz@gmail.com</t>
-  </si>
-  <si>
-    <t>davodi.mehdi@gmail.com</t>
-  </si>
-  <si>
-    <t>mhyphd1@gmail.com</t>
-  </si>
-  <si>
-    <t>hossein.jeddi@znu.ac.ir</t>
-  </si>
-  <si>
-    <t>m.t.hosseinnejad@gmail.com</t>
-  </si>
-  <si>
-    <t>ghobadbehzadi@yahoo.com</t>
-  </si>
-  <si>
-    <t>mjtorkamany@yahoo.com</t>
-  </si>
-  <si>
-    <t>maghadamgahi@gmail.com</t>
-  </si>
-  <si>
-    <t>mohsenmehdipour@semnan.ac.ir</t>
-  </si>
-  <si>
-    <t>ms.sadeghi67@yahoo.com</t>
-  </si>
-  <si>
-    <t>a.khosravi@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>khatib@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>saghabeygi@yahoo.com</t>
-  </si>
-  <si>
-    <t>z010pirayeshfar@yahoo.com</t>
-  </si>
-  <si>
-    <t>izadin@ripi.ir</t>
-  </si>
-  <si>
-    <t>alireza_azhdari@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mahyar.Madadi@curtin.edu.au</t>
-  </si>
-  <si>
-    <t>hbayani@kntu.ac.ir</t>
-  </si>
-  <si>
-    <t>gorjimohammadreza@gmail.com</t>
-  </si>
-  <si>
-    <t>N.Binaei@gmail.com</t>
-  </si>
-  <si>
-    <t>E.Tanhaee.ns.technics@gmail.com</t>
-  </si>
-  <si>
-    <t>a.beigichimeh@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahpare2@yahoo.com</t>
-  </si>
-  <si>
-    <t>shahali.alireza.92@gmail.com</t>
-  </si>
-  <si>
-    <t>hatami1388@yahoo.com</t>
-  </si>
-  <si>
-    <t>parisa.mzm@gmail.com</t>
-  </si>
-  <si>
-    <t>f_abrinaey@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahnazsh68@yahoo.com</t>
-  </si>
-  <si>
-    <t>mohammadghoreishi74@yahoo.com</t>
-  </si>
-  <si>
-    <t>navvab1983@gmail.com</t>
-  </si>
-  <si>
-    <t>Zahra.ajeloo@iasbs.ac.ir</t>
-  </si>
-  <si>
-    <t>p.sufi@iasbs.ac.ir</t>
-  </si>
-  <si>
-    <t>salamriazi0061@gmail.com</t>
-  </si>
-  <si>
-    <t>ftnazari@yahoo.com</t>
-  </si>
-  <si>
-    <t>Rahil.abolghasemi@gmail.com</t>
-  </si>
-  <si>
-    <t>AMIRHB@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>mbarmouz@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>maghahari@icrc.ac.ir</t>
-  </si>
-  <si>
-    <t>m.z.jalilian@gmail.com</t>
-  </si>
-  <si>
-    <t>sobhansharafkhani@gmail.com</t>
-  </si>
-  <si>
-    <t>drgharagozlou@gmail.com</t>
-  </si>
-  <si>
-    <t>milani@umz.ac.ir</t>
-  </si>
-  <si>
-    <t>farzanenouri70@grad.kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>najafzadeh.neda@gmail.com</t>
-  </si>
-  <si>
-    <t>y.akhtari@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>mehranjavanbakht@gmail.com</t>
-  </si>
-  <si>
-    <t>pourjavid@gmail.com</t>
-  </si>
-  <si>
-    <t>haddad.reza2009@yahoo.com</t>
-  </si>
-  <si>
-    <t>sedighe.emadi@gmail.com</t>
-  </si>
-  <si>
-    <t>sotoodehsedaghat@yahoo.com</t>
-  </si>
-  <si>
-    <t>shsohrabisani@gmail.com</t>
-  </si>
-  <si>
-    <t>farzanenoori70@grad.kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>hadavibentolhoda@yahoo.com</t>
-  </si>
-  <si>
-    <t>M.i.taleblou@gmail.com</t>
-  </si>
-  <si>
-    <t>valiollahi.hasan@gmail.com</t>
-  </si>
-  <si>
-    <t>maadi.mohammad@gmail.com</t>
-  </si>
-  <si>
-    <t>mohammad.yahyavi@fen.bilkent.edu.tr</t>
-  </si>
-  <si>
-    <t>f.sarreshtedari@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>h.ghbpr@gmail.com</t>
-  </si>
-  <si>
-    <t>mnurbas@gmail.com</t>
-  </si>
-  <si>
-    <t>mehdi.biology@gmail.com</t>
-  </si>
-  <si>
-    <t>mahsa.razazi@gmail.com</t>
-  </si>
-  <si>
-    <t>asabzroo@yahoo.com</t>
-  </si>
-  <si>
-    <t>foroozan69_t@yahoo.com</t>
-  </si>
-  <si>
-    <t>r.panahinia@sci.uut.ac.ir</t>
-  </si>
-  <si>
-    <t>farzane8912@yahoo.com</t>
-  </si>
-  <si>
-    <t>mousavi_m@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>mehrir@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>shirzad.che@gmail.com</t>
-  </si>
-  <si>
-    <t>Ehsanzahedi_tex@yahoo.com</t>
-  </si>
-  <si>
-    <t>hajareshaghi@yahoo.com</t>
-  </si>
-  <si>
-    <t>g-nabiyouni@araku.ac.ir</t>
-  </si>
-  <si>
-    <t>kiyani.mari@yahoo.com</t>
-  </si>
-  <si>
-    <t>rmzn@kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>almac@kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>z.honarvar@yahoo.com</t>
-  </si>
-  <si>
-    <t>rezagha@ogu.edu.tr</t>
-  </si>
-  <si>
-    <t>reihaneh.ramezani@gmail.com</t>
-  </si>
-  <si>
-    <t>mehdinano88@gmail.com</t>
-  </si>
-  <si>
-    <t>dashtiankheibar@gmail.com</t>
-  </si>
-  <si>
-    <t>m_ghaedi@yu.ac.ir</t>
-  </si>
-  <si>
-    <t>elhammousavi3@gmail.com</t>
-  </si>
-  <si>
-    <t>miladkazemnejad@yahoo.com</t>
-  </si>
-  <si>
-    <t>sattari.somaye20@gmail.com</t>
-  </si>
-  <si>
-    <t>sattari.somayeh20@gmail.com</t>
-  </si>
-  <si>
-    <t>far.reihani@gmail.com</t>
-  </si>
-  <si>
-    <t>f.saadati@semnan.ac.ir</t>
-  </si>
-  <si>
-    <t>f.saadati@yahoo.com</t>
-  </si>
-  <si>
-    <t>khjahanbani@gmail.com</t>
-  </si>
-  <si>
-    <t>khazraei@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>zadeh@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>z_hadian@sbmu.ac.ir</t>
-  </si>
-  <si>
-    <t>he_mehraban@yahoo.com</t>
-  </si>
-  <si>
-    <t>manteghi@modare.ac.ir</t>
-  </si>
-  <si>
-    <t>a.mohammadi.che@gmail.com</t>
-  </si>
-  <si>
-    <t>azam.mayabadi@gmail.com</t>
-  </si>
-  <si>
-    <t>m.goodari123@gmail.com</t>
-  </si>
-  <si>
-    <t>somayeh.kazempoor64@gmail.com</t>
-  </si>
-  <si>
-    <t>d.elhamifar@yu.ac.ir</t>
-  </si>
-  <si>
-    <t>binazirvaziri@gmail.com</t>
-  </si>
-  <si>
-    <t>sharmapankaj47@yahoo.com</t>
-  </si>
-  <si>
-    <t>f_aryanasab@yahoo.com</t>
-  </si>
-  <si>
-    <t>hamide.radnia@gmail.com</t>
-  </si>
-  <si>
-    <t>solid.nanophysics@gmail.com</t>
-  </si>
-  <si>
-    <t>gh.karimi@eng.ikiu.ac.ir</t>
-  </si>
-  <si>
-    <t>solid.nanophysic@gmail.com</t>
-  </si>
-  <si>
-    <t>asolaimany@eng.ui.ac.ir</t>
-  </si>
-  <si>
-    <t>akaram@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>bagherzadehmr@ripi.ir</t>
-  </si>
-  <si>
-    <t>m_r_vaezi@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>s.pourhashem@merc.ac.ir</t>
-  </si>
-  <si>
-    <t>svt@sdu.dk</t>
-  </si>
-  <si>
-    <t>avazpour@yu.ac.ir</t>
-  </si>
-  <si>
-    <t>mirali.m62@gmail.com</t>
-  </si>
-  <si>
-    <t>rashidiam@ripi.ir</t>
-  </si>
-  <si>
-    <t>bakhtiari@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>m-taheri@araku.ac.ir</t>
-  </si>
-  <si>
-    <t>mn.nazemizadeh@gmail.com</t>
-  </si>
-  <si>
-    <t>mojdeh_safari64@yahoo.com</t>
-  </si>
-  <si>
-    <t>ali_deh@yahoo.com</t>
-  </si>
-  <si>
-    <t>kotoleyesepid@gmail.com</t>
-  </si>
-  <si>
-    <t>schandra_00@yahoo.com</t>
-  </si>
-  <si>
-    <t>mostafakarimkoshteh@gmail.com</t>
-  </si>
-  <si>
-    <t>nanoxime@gmail.com</t>
-  </si>
-  <si>
-    <t>karimkoshteh@gmail.com</t>
-  </si>
-  <si>
-    <t>h.crystal.sh@gmail.com</t>
-  </si>
-  <si>
-    <t>Pooya1989gh@gmail.com</t>
-  </si>
-  <si>
-    <t>m.moradi@kashanu.ac.ir</t>
-  </si>
-  <si>
-    <t>leilaeskandari111@gmail.com</t>
-  </si>
-  <si>
-    <t>s.abbasizadeh87@gmail.com</t>
-  </si>
-  <si>
-    <t>f.mahdi71@gmail.com</t>
-  </si>
-  <si>
-    <t>kafashi.sahar@yahoo.com</t>
-  </si>
-  <si>
-    <t>salmani.somaieh@gmail.com</t>
-  </si>
-  <si>
-    <t>faridmovy@gmail.com</t>
-  </si>
-  <si>
-    <t>shahedi@uma.ac.ir</t>
-  </si>
-  <si>
-    <t>sanamsalimi@ymail.com</t>
-  </si>
-  <si>
-    <t>ay01rezaei@gmail.com</t>
-  </si>
-  <si>
-    <t>Elz.hashemi@gmail.com</t>
-  </si>
-  <si>
-    <t>hamedsalimkhani25@yahoo.com</t>
-  </si>
-  <si>
-    <t>mort.f2000@gmail.com</t>
-  </si>
-  <si>
-    <t>masumalihosseini@gmail.com</t>
-  </si>
-  <si>
-    <t>alamdarisanaz@gmail.com</t>
-  </si>
-  <si>
-    <t>Z.Sheikholeslami@ippi.ac.ir</t>
-  </si>
-  <si>
-    <t>dstnhrmz@gmail.com</t>
-  </si>
-  <si>
-    <t>raminkhs1362@gmail.com</t>
-  </si>
-  <si>
-    <t>mahmoodi@icrc.ac.ir</t>
-  </si>
-  <si>
-    <t>Hajati@mail.yu.ac.ir</t>
-  </si>
-  <si>
-    <t>ah.mohamad4699@yahoo.com</t>
-  </si>
-  <si>
-    <t>hadi.hosseini@modares.ac.ir</t>
-  </si>
-  <si>
-    <t>zareyi.h@mail.kntu.ac.ir</t>
-  </si>
-  <si>
-    <t>hh_lavasani@yahoo.com</t>
-  </si>
-  <si>
-    <t>mozhdeh_haddadi_777@yahoo.com</t>
-  </si>
-  <si>
-    <t>m_a_sharif@iust.ac.ir</t>
-  </si>
-  <si>
-    <t>iranmana@yahoo.com</t>
-  </si>
-  <si>
-    <t>hediye.ebrahimpour@yahoo.com</t>
-  </si>
-  <si>
-    <t>reza_sheikhy@yahoo.com</t>
-  </si>
-  <si>
-    <t>hhashemi@tabrizu.ac.ir</t>
-  </si>
-  <si>
-    <t>marzyeh.rezaie@gmail.com</t>
-  </si>
-  <si>
-    <t>taebi.saeed@gmail.com</t>
-  </si>
-  <si>
-    <t>mohd.danishali102@gmail.com</t>
-  </si>
-  <si>
-    <t>samanifar63@gmail.com</t>
-  </si>
-  <si>
-    <t>mohammadpour@sharif.edu</t>
-  </si>
-  <si>
-    <t>AlavizadehH@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>leilanaji@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>z.teymouri@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>sh.kazemifard@aut.ac.ir</t>
-  </si>
-  <si>
-    <t>monireh.biotech.2020@gmail.com</t>
-  </si>
-  <si>
-    <t>kiankh@yahoo.com</t>
-  </si>
-  <si>
-    <t>sh.1.bahadorani@gmail.com</t>
-  </si>
-  <si>
-    <t>aminfighter@mailfa.com</t>
-  </si>
-  <si>
-    <t>Niloofar.h.79@gmail.com</t>
-  </si>
-  <si>
-    <t>mohajer@khu.ac.ir</t>
-  </si>
-  <si>
-    <t>Majlesara@khu.ac.ir</t>
-  </si>
-  <si>
-    <t>gheybif@mums.ac.ir</t>
-  </si>
-  <si>
-    <t>niusha.n.bagheri@gmail.com</t>
-  </si>
-  <si>
-    <t>mohseni_ma@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.soraya.mosavy@gmail.com</t>
-  </si>
-  <si>
-    <t>nd.ghazyani@gmail.com</t>
-  </si>
-  <si>
-    <t>srymsvy@yahoo.com</t>
-  </si>
-  <si>
-    <t>arananetwork@gmail.com</t>
-  </si>
-  <si>
-    <t>moreka1374@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="791">
   <si>
     <t xml:space="preserve">a.abdollahi3360@gmail.com a.abdollahi1360@gmail.com
 </t>
@@ -3149,16 +2405,13 @@
   </si>
   <si>
     <t>mihranw@gmail.com</t>
-  </si>
-  <si>
-    <t>1380.9.15@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3173,13 +2426,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3293,28 +2539,25 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3329,7 +2572,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3338,10 +2584,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3661,3665 +2904,3665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204445F9-42B8-44C4-A257-AC75DA5EB6D7}">
-  <dimension ref="A1:A1041"/>
+  <dimension ref="A1:A792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.81640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>1037</v>
+      <c r="A1" s="6" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="8" t="s">
-        <v>1039</v>
+      <c r="A156" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
-        <v>153</v>
+      <c r="A157" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="7" t="s">
-        <v>154</v>
+      <c r="A158" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
+      <c r="A159" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+    <row r="160" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
     </row>
+    <row r="161" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
-        <v>158</v>
+      <c r="A162" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
-        <v>159</v>
+      <c r="A163" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
-        <v>160</v>
+      <c r="A164" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
-        <v>161</v>
+      <c r="A165" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
-        <v>162</v>
+      <c r="A166" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
-        <v>163</v>
+      <c r="A167" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
-        <v>164</v>
+      <c r="A168" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
-        <v>165</v>
+      <c r="A169" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
-        <v>166</v>
+      <c r="A170" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="7" t="s">
-        <v>167</v>
+      <c r="A171" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="7" t="s">
-        <v>168</v>
+      <c r="A172" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
-        <v>169</v>
+      <c r="A173" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="7" t="s">
-        <v>170</v>
+      <c r="A174" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
-        <v>171</v>
+      <c r="A175" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="7" t="s">
-        <v>172</v>
+      <c r="A176" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="7" t="s">
-        <v>173</v>
+      <c r="A177" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
-        <v>174</v>
+      <c r="A178" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="7" t="s">
-        <v>175</v>
+      <c r="A179" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="7" t="s">
-        <v>176</v>
+      <c r="A180" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="7" t="s">
-        <v>177</v>
+      <c r="A181" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="7" t="s">
-        <v>178</v>
+      <c r="A182" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
-        <v>179</v>
+      <c r="A183" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
-        <v>180</v>
+      <c r="A184" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
-        <v>181</v>
+      <c r="A185" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
-        <v>182</v>
+      <c r="A186" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="7" t="s">
-        <v>183</v>
+      <c r="A187" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="7" t="s">
-        <v>184</v>
+      <c r="A188" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="7" t="s">
-        <v>185</v>
+      <c r="A189" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="7" t="s">
-        <v>186</v>
+      <c r="A190" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
-        <v>187</v>
+      <c r="A191" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="7" t="s">
-        <v>188</v>
+      <c r="A192" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="7" t="s">
-        <v>189</v>
+      <c r="A193" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
-        <v>190</v>
+      <c r="A194" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="7" t="s">
-        <v>191</v>
+      <c r="A195" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="7" t="s">
-        <v>192</v>
+      <c r="A196" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="7" t="s">
-        <v>193</v>
+      <c r="A197" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="7" t="s">
-        <v>194</v>
+      <c r="A198" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="7" t="s">
-        <v>195</v>
+      <c r="A199" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="7" t="s">
-        <v>196</v>
+      <c r="A200" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="7" t="s">
-        <v>197</v>
+      <c r="A201" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="7" t="s">
-        <v>198</v>
+      <c r="A202" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="7" t="s">
-        <v>199</v>
+      <c r="A203" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="7" t="s">
-        <v>200</v>
+      <c r="A204" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="7" t="s">
-        <v>201</v>
+      <c r="A205" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="7" t="s">
-        <v>202</v>
+      <c r="A206" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="7" t="s">
-        <v>203</v>
+      <c r="A207" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="7" t="s">
-        <v>204</v>
+      <c r="A208" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="7" t="s">
-        <v>205</v>
+      <c r="A209" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="7" t="s">
-        <v>206</v>
+      <c r="A210" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="7" t="s">
-        <v>207</v>
+      <c r="A211" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="7" t="s">
-        <v>208</v>
+      <c r="A212" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="7" t="s">
-        <v>209</v>
+      <c r="A213" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="7" t="s">
-        <v>210</v>
+      <c r="A214" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="7" t="s">
-        <v>211</v>
+      <c r="A215" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="7" t="s">
-        <v>212</v>
+      <c r="A216" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="7" t="s">
-        <v>213</v>
+      <c r="A217" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="7" t="s">
-        <v>214</v>
+      <c r="A218" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="7" t="s">
-        <v>215</v>
+      <c r="A219" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="7" t="s">
-        <v>216</v>
+      <c r="A220" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="7" t="s">
-        <v>217</v>
+      <c r="A221" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="7" t="s">
-        <v>218</v>
+      <c r="A222" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="7" t="s">
-        <v>219</v>
+      <c r="A223" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="7" t="s">
-        <v>220</v>
+      <c r="A224" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="7" t="s">
-        <v>221</v>
+      <c r="A225" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="7" t="s">
-        <v>222</v>
+      <c r="A226" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="7" t="s">
-        <v>223</v>
+      <c r="A227" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="7" t="s">
-        <v>224</v>
+      <c r="A228" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="7" t="s">
-        <v>225</v>
+      <c r="A229" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="7" t="s">
-        <v>226</v>
+      <c r="A230" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="7" t="s">
-        <v>227</v>
+      <c r="A231" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="7" t="s">
-        <v>228</v>
+      <c r="A232" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="7" t="s">
-        <v>229</v>
+      <c r="A233" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="7" t="s">
-        <v>230</v>
+      <c r="A234" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="7" t="s">
-        <v>231</v>
+      <c r="A235" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="7" t="s">
-        <v>232</v>
+      <c r="A236" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="7" t="s">
-        <v>233</v>
+      <c r="A237" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="7" t="s">
-        <v>234</v>
+      <c r="A238" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="7" t="s">
-        <v>235</v>
+      <c r="A239" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="7" t="s">
-        <v>236</v>
+      <c r="A240" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="7" t="s">
-        <v>237</v>
+      <c r="A241" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="7" t="s">
-        <v>238</v>
+      <c r="A242" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="7" t="s">
-        <v>239</v>
+      <c r="A243" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="7" t="s">
-        <v>240</v>
+      <c r="A244" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="7" t="s">
-        <v>241</v>
+      <c r="A245" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="7" t="s">
-        <v>242</v>
+      <c r="A246" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="7" t="s">
-        <v>243</v>
+      <c r="A247" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="7" t="s">
-        <v>244</v>
+      <c r="A248" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="7" t="s">
-        <v>245</v>
+      <c r="A249" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
+      <c r="A250" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="2" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="6" t="s">
         <v>248</v>
       </c>
     </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A254" s="2" t="s">
+      <c r="A253" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="2" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="6" t="s">
         <v>251</v>
       </c>
     </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="3" t="s">
-        <v>252</v>
+      <c r="A256" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="3" t="s">
-        <v>253</v>
+      <c r="A257" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="3" t="s">
-        <v>254</v>
+      <c r="A258" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" s="3" t="s">
-        <v>255</v>
+      <c r="A259" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="3" t="s">
-        <v>256</v>
+      <c r="A260" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="3" t="s">
-        <v>257</v>
+      <c r="A261" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A263" s="2" t="s">
+      <c r="A262" s="6" t="s">
         <v>259</v>
       </c>
     </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" s="3" t="s">
-        <v>260</v>
+      <c r="A264" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="4" t="s">
+      <c r="A265" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="5" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="6" t="s">
         <v>263</v>
       </c>
     </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="3" t="s">
-        <v>264</v>
+      <c r="A268" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" s="3" t="s">
-        <v>265</v>
+      <c r="A269" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" s="3" t="s">
-        <v>266</v>
+      <c r="A270" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" s="3" t="s">
-        <v>267</v>
+      <c r="A271" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" s="3" t="s">
-        <v>268</v>
+      <c r="A272" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="3" t="s">
-        <v>269</v>
+      <c r="A273" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" s="3" t="s">
-        <v>270</v>
+      <c r="A274" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="3" t="s">
-        <v>271</v>
+      <c r="A275" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" s="3" t="s">
-        <v>272</v>
+      <c r="A276" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="3" t="s">
-        <v>273</v>
+      <c r="A277" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" s="3" t="s">
-        <v>274</v>
+      <c r="A278" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" s="3" t="s">
-        <v>275</v>
+      <c r="A279" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" s="3" t="s">
-        <v>276</v>
+      <c r="A280" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="3" t="s">
-        <v>277</v>
+      <c r="A281" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" s="3" t="s">
-        <v>278</v>
+      <c r="A282" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" s="3" t="s">
-        <v>279</v>
+      <c r="A283" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" s="3" t="s">
-        <v>280</v>
+      <c r="A284" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" s="3" t="s">
-        <v>281</v>
+      <c r="A285" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" s="3" t="s">
-        <v>282</v>
+      <c r="A286" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" s="3" t="s">
-        <v>283</v>
+      <c r="A287" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" s="3" t="s">
-        <v>284</v>
+      <c r="A288" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A290" s="2" t="s">
+      <c r="A289" s="6" t="s">
         <v>286</v>
       </c>
     </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" s="3" t="s">
-        <v>287</v>
+      <c r="A291" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" s="3" t="s">
-        <v>288</v>
+      <c r="A292" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" s="3" t="s">
-        <v>289</v>
+      <c r="A293" s="6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" s="3" t="s">
-        <v>290</v>
+      <c r="A294" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" s="3" t="s">
-        <v>291</v>
+      <c r="A295" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" s="3" t="s">
-        <v>292</v>
+      <c r="A296" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" s="3" t="s">
-        <v>293</v>
+      <c r="A297" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" s="3" t="s">
-        <v>294</v>
+      <c r="A298" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" s="3" t="s">
-        <v>295</v>
+      <c r="A299" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" s="3" t="s">
-        <v>296</v>
+      <c r="A300" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" s="3" t="s">
-        <v>297</v>
+      <c r="A301" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" s="3" t="s">
-        <v>298</v>
+      <c r="A302" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" s="3" t="s">
-        <v>299</v>
+      <c r="A303" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" s="3" t="s">
-        <v>300</v>
+      <c r="A304" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" s="3" t="s">
-        <v>301</v>
+      <c r="A305" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" s="3" t="s">
-        <v>302</v>
+      <c r="A306" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" s="3" t="s">
-        <v>303</v>
+      <c r="A307" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" s="3" t="s">
-        <v>304</v>
+      <c r="A308" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" s="3" t="s">
-        <v>305</v>
+      <c r="A309" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" s="3" t="s">
-        <v>306</v>
+      <c r="A310" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311" s="3" t="s">
-        <v>307</v>
+      <c r="A311" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312" s="3" t="s">
-        <v>308</v>
+      <c r="A312" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313" s="3" t="s">
-        <v>309</v>
+      <c r="A313" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314" s="3" t="s">
-        <v>310</v>
+      <c r="A314" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A315" s="3" t="s">
-        <v>311</v>
+      <c r="A315" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A316" s="3" t="s">
-        <v>312</v>
+      <c r="A316" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A317" s="3" t="s">
-        <v>313</v>
+      <c r="A317" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A318" s="3" t="s">
-        <v>314</v>
+      <c r="A318" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A319" s="3" t="s">
-        <v>315</v>
+      <c r="A319" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A320" s="3" t="s">
-        <v>316</v>
+      <c r="A320" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A321" s="3" t="s">
-        <v>317</v>
+      <c r="A321" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A322" s="3" t="s">
-        <v>318</v>
+      <c r="A322" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A323" s="3" t="s">
-        <v>319</v>
+      <c r="A323" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A324" s="3" t="s">
-        <v>320</v>
+      <c r="A324" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A325" s="3" t="s">
-        <v>321</v>
+      <c r="A325" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A326" s="3" t="s">
-        <v>322</v>
+      <c r="A326" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A327" s="3" t="s">
-        <v>323</v>
+      <c r="A327" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A328" s="3" t="s">
-        <v>324</v>
+      <c r="A328" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A329" s="3" t="s">
-        <v>325</v>
+      <c r="A329" s="6" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A330" s="3" t="s">
-        <v>326</v>
+      <c r="A330" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A331" s="3" t="s">
-        <v>327</v>
+      <c r="A331" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A332" s="3" t="s">
-        <v>328</v>
+      <c r="A332" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A333" s="3" t="s">
-        <v>329</v>
+      <c r="A333" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A334" s="3" t="s">
-        <v>330</v>
+      <c r="A334" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A335" s="3" t="s">
-        <v>331</v>
+      <c r="A335" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A336" s="3" t="s">
-        <v>332</v>
+      <c r="A336" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A337" s="3" t="s">
-        <v>333</v>
+      <c r="A337" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A338" s="3" t="s">
-        <v>334</v>
+      <c r="A338" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A339" s="3" t="s">
-        <v>335</v>
+      <c r="A339" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A340" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A341" s="4" t="s">
+      <c r="A340" s="6" t="s">
         <v>337</v>
       </c>
     </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A342" s="3" t="s">
-        <v>338</v>
+      <c r="A342" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A343" s="3" t="s">
-        <v>339</v>
+      <c r="A343" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A344" s="3" t="s">
-        <v>340</v>
+      <c r="A344" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A345" s="3" t="s">
-        <v>341</v>
+      <c r="A345" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A346" s="3" t="s">
-        <v>342</v>
+      <c r="A346" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A347" s="3" t="s">
-        <v>343</v>
+      <c r="A347" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A348" s="3" t="s">
-        <v>344</v>
+      <c r="A348" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A349" s="3" t="s">
-        <v>345</v>
+      <c r="A349" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A350" s="3" t="s">
-        <v>346</v>
+      <c r="A350" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A351" s="3" t="s">
-        <v>347</v>
+      <c r="A351" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A352" s="3" t="s">
-        <v>348</v>
+      <c r="A352" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A353" s="3" t="s">
-        <v>349</v>
+      <c r="A353" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A354" s="3" t="s">
-        <v>350</v>
+      <c r="A354" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A355" s="3" t="s">
-        <v>351</v>
+      <c r="A355" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A356" s="3" t="s">
-        <v>352</v>
+      <c r="A356" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A357" s="3" t="s">
-        <v>353</v>
+      <c r="A357" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A358" s="3" t="s">
-        <v>354</v>
+      <c r="A358" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A359" s="3" t="s">
-        <v>355</v>
+      <c r="A359" s="6" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A360" s="3" t="s">
-        <v>356</v>
+      <c r="A360" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A361" s="3" t="s">
-        <v>357</v>
+      <c r="A361" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A362" s="3" t="s">
-        <v>358</v>
+      <c r="A362" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A363" s="3" t="s">
-        <v>359</v>
+      <c r="A363" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A364" s="3" t="s">
-        <v>360</v>
+      <c r="A364" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A365" s="3" t="s">
-        <v>361</v>
+      <c r="A365" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A366" s="3" t="s">
-        <v>362</v>
+      <c r="A366" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A367" s="3" t="s">
-        <v>363</v>
+      <c r="A367" s="6" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A368" s="3" t="s">
-        <v>364</v>
+      <c r="A368" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A369" s="3" t="s">
-        <v>365</v>
+      <c r="A369" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A370" s="3" t="s">
-        <v>366</v>
+      <c r="A370" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A371" s="3" t="s">
-        <v>367</v>
+      <c r="A371" s="6" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A372" s="3" t="s">
-        <v>368</v>
+      <c r="A372" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A373" s="3" t="s">
-        <v>369</v>
+      <c r="A373" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A374" s="3" t="s">
-        <v>370</v>
+      <c r="A374" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A375" s="3" t="s">
-        <v>371</v>
+      <c r="A375" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A376" s="3" t="s">
-        <v>372</v>
+      <c r="A376" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A377" s="3" t="s">
-        <v>373</v>
+      <c r="A377" s="6" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A378" s="3" t="s">
-        <v>374</v>
+      <c r="A378" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A379" s="3" t="s">
-        <v>375</v>
+      <c r="A379" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A380" s="3" t="s">
-        <v>376</v>
+      <c r="A380" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A381" s="3" t="s">
-        <v>377</v>
+      <c r="A381" s="6" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A382" s="3" t="s">
-        <v>378</v>
+      <c r="A382" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A383" s="3" t="s">
-        <v>379</v>
+      <c r="A383" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A384" s="3" t="s">
-        <v>380</v>
+      <c r="A384" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A385" s="3" t="s">
-        <v>381</v>
+      <c r="A385" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A386" s="3" t="s">
-        <v>382</v>
+      <c r="A386" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A387" s="3" t="s">
-        <v>383</v>
+      <c r="A387" s="6" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A388" s="3" t="s">
-        <v>384</v>
+      <c r="A388" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A389" s="3" t="s">
-        <v>385</v>
+      <c r="A389" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A390" s="3" t="s">
-        <v>386</v>
+      <c r="A390" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A391" s="3" t="s">
-        <v>387</v>
+      <c r="A391" s="6" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A392" s="3" t="s">
-        <v>388</v>
+      <c r="A392" s="6" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A393" s="3" t="s">
-        <v>389</v>
+      <c r="A393" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A394" s="3" t="s">
-        <v>390</v>
+      <c r="A394" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A395" s="3" t="s">
-        <v>391</v>
+      <c r="A395" s="6" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A396" s="3" t="s">
-        <v>392</v>
+      <c r="A396" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A397" s="3" t="s">
-        <v>393</v>
+      <c r="A397" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A398" s="3" t="s">
-        <v>394</v>
+      <c r="A398" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A399" s="3" t="s">
-        <v>395</v>
+      <c r="A399" s="6" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A400" s="3" t="s">
-        <v>396</v>
+      <c r="A400" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A401" s="3" t="s">
-        <v>397</v>
+      <c r="A401" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A402" s="3" t="s">
-        <v>398</v>
+      <c r="A402" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A403" s="3" t="s">
-        <v>399</v>
+      <c r="A403" s="6" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A404" s="3" t="s">
-        <v>400</v>
+      <c r="A404" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A405" s="3" t="s">
-        <v>401</v>
+      <c r="A405" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A406" s="3" t="s">
-        <v>402</v>
+      <c r="A406" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A407" s="3" t="s">
-        <v>403</v>
+      <c r="A407" s="6" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A408" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A409" s="2" t="s">
+      <c r="A408" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A410" s="2" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" s="6" t="s">
         <v>406</v>
       </c>
     </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A411" s="3" t="s">
-        <v>407</v>
+      <c r="A411" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A412" s="3" t="s">
-        <v>408</v>
+      <c r="A412" s="6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A413" s="3" t="s">
-        <v>409</v>
+      <c r="A413" s="6" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A414" s="7" t="s">
-        <v>410</v>
+      <c r="A414" s="6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A415" s="7" t="s">
-        <v>411</v>
+      <c r="A415" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A416" s="7" t="s">
-        <v>412</v>
+      <c r="A416" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A417" s="7" t="s">
-        <v>413</v>
+      <c r="A417" s="6" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A418" s="7" t="s">
-        <v>414</v>
+      <c r="A418" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A419" s="7" t="s">
-        <v>415</v>
+      <c r="A419" s="6" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A420" s="7" t="s">
-        <v>416</v>
+      <c r="A420" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A421" s="7" t="s">
-        <v>417</v>
+      <c r="A421" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A422" s="7" t="s">
-        <v>418</v>
+      <c r="A422" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A423" s="7" t="s">
-        <v>419</v>
+      <c r="A423" s="6" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A424" s="7" t="s">
-        <v>420</v>
+      <c r="A424" s="6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A425" s="7" t="s">
-        <v>421</v>
+      <c r="A425" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A426" s="7" t="s">
-        <v>422</v>
+      <c r="A426" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A427" s="7" t="s">
-        <v>423</v>
+      <c r="A427" s="6" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A428" s="7" t="s">
-        <v>424</v>
+      <c r="A428" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A429" s="7" t="s">
-        <v>425</v>
+      <c r="A429" s="6" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A430" s="7" t="s">
-        <v>426</v>
+      <c r="A430" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A431" s="7" t="s">
-        <v>427</v>
+      <c r="A431" s="6" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A432" s="7" t="s">
-        <v>428</v>
+      <c r="A432" s="6" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A433" s="7" t="s">
-        <v>429</v>
+      <c r="A433" s="6" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A434" s="7" t="s">
-        <v>430</v>
+      <c r="A434" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A435" s="7" t="s">
-        <v>431</v>
+      <c r="A435" s="6" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A436" s="7" t="s">
-        <v>432</v>
+      <c r="A436" s="6" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A437" s="7" t="s">
-        <v>433</v>
+      <c r="A437" s="6" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A438" s="7" t="s">
-        <v>434</v>
+      <c r="A438" s="6" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A439" s="7" t="s">
-        <v>435</v>
+      <c r="A439" s="6" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A440" s="7" t="s">
-        <v>436</v>
+      <c r="A440" s="6" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A441" s="7" t="s">
-        <v>437</v>
+      <c r="A441" s="6" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A442" s="7" t="s">
-        <v>438</v>
+      <c r="A442" s="6" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A443" s="7" t="s">
-        <v>439</v>
+      <c r="A443" s="6" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A444" s="7" t="s">
-        <v>440</v>
+      <c r="A444" s="6" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A445" s="7" t="s">
-        <v>441</v>
+      <c r="A445" s="6" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A446" s="7" t="s">
-        <v>442</v>
+      <c r="A446" s="6" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A447" s="7" t="s">
-        <v>443</v>
+      <c r="A447" s="6" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A448" s="7" t="s">
-        <v>444</v>
+      <c r="A448" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A449" s="7" t="s">
-        <v>445</v>
+      <c r="A449" s="6" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A450" s="7" t="s">
-        <v>446</v>
+      <c r="A450" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A451" s="7" t="s">
-        <v>447</v>
+      <c r="A451" s="6" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A452" s="7" t="s">
-        <v>448</v>
+      <c r="A452" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A453" s="7" t="s">
-        <v>449</v>
+      <c r="A453" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A454" s="7" t="s">
-        <v>450</v>
+      <c r="A454" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A455" s="7" t="s">
-        <v>451</v>
+      <c r="A455" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A456" s="7" t="s">
-        <v>452</v>
+      <c r="A456" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A457" s="7" t="s">
-        <v>453</v>
+      <c r="A457" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A458" s="7" t="s">
-        <v>454</v>
+      <c r="A458" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A459" s="7" t="s">
-        <v>455</v>
+      <c r="A459" s="6" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A460" s="7" t="s">
-        <v>456</v>
+      <c r="A460" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A461" s="7" t="s">
-        <v>457</v>
+      <c r="A461" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A462" s="7" t="s">
-        <v>458</v>
+      <c r="A462" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A463" s="7" t="s">
-        <v>459</v>
+      <c r="A463" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A464" s="7" t="s">
-        <v>460</v>
+      <c r="A464" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A465" s="7" t="s">
-        <v>461</v>
+      <c r="A465" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A466" s="7" t="s">
-        <v>462</v>
+      <c r="A466" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A467" s="7" t="s">
-        <v>463</v>
+      <c r="A467" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A468" s="7" t="s">
-        <v>464</v>
+      <c r="A468" s="6" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A469" s="7" t="s">
-        <v>465</v>
+      <c r="A469" s="6" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A470" s="7" t="s">
-        <v>466</v>
+      <c r="A470" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A471" s="7" t="s">
-        <v>467</v>
+      <c r="A471" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A472" s="7" t="s">
-        <v>468</v>
+      <c r="A472" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A473" s="7" t="s">
-        <v>469</v>
+      <c r="A473" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A474" s="7" t="s">
-        <v>470</v>
+      <c r="A474" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A475" s="7" t="s">
-        <v>471</v>
+      <c r="A475" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A476" s="7" t="s">
-        <v>472</v>
+      <c r="A476" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A477" s="7" t="s">
-        <v>473</v>
+      <c r="A477" s="6" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A478" s="7" t="s">
-        <v>474</v>
+      <c r="A478" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A479" s="7" t="s">
-        <v>475</v>
+      <c r="A479" s="6" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A480" s="7" t="s">
-        <v>476</v>
+      <c r="A480" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A481" s="7" t="s">
-        <v>477</v>
+      <c r="A481" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A482" s="7" t="s">
-        <v>478</v>
+      <c r="A482" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A483" s="7" t="s">
-        <v>479</v>
+      <c r="A483" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A484" s="7" t="s">
-        <v>480</v>
+      <c r="A484" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A485" s="7" t="s">
-        <v>481</v>
+      <c r="A485" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A486" s="7" t="s">
-        <v>482</v>
+      <c r="A486" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A487" s="7" t="s">
-        <v>483</v>
+      <c r="A487" s="6" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A488" s="7" t="s">
-        <v>484</v>
+      <c r="A488" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A489" s="7" t="s">
-        <v>485</v>
+      <c r="A489" s="6" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A490" s="7" t="s">
-        <v>486</v>
+      <c r="A490" s="6" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A491" s="7" t="s">
-        <v>487</v>
+      <c r="A491" s="6" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A492" s="7" t="s">
-        <v>488</v>
+      <c r="A492" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A493" s="7" t="s">
-        <v>489</v>
+      <c r="A493" s="6" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A494" s="7" t="s">
-        <v>490</v>
+      <c r="A494" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A495" s="7" t="s">
-        <v>491</v>
+      <c r="A495" s="6" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A496" s="7" t="s">
-        <v>492</v>
+      <c r="A496" s="6" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A497" s="7" t="s">
-        <v>493</v>
+      <c r="A497" s="6" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A498" s="7" t="s">
-        <v>494</v>
+      <c r="A498" s="6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A499" s="7" t="s">
-        <v>495</v>
+      <c r="A499" s="6" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A500" s="7" t="s">
-        <v>496</v>
+      <c r="A500" s="6" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A501" s="7" t="s">
-        <v>497</v>
+      <c r="A501" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A502" s="7" t="s">
-        <v>498</v>
+      <c r="A502" s="6" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A503" s="7" t="s">
-        <v>499</v>
+      <c r="A503" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A504" s="7" t="s">
-        <v>500</v>
+      <c r="A504" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A505" s="7" t="s">
-        <v>501</v>
+      <c r="A505" s="6" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A506" s="7" t="s">
-        <v>502</v>
+      <c r="A506" s="6" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A507" s="7" t="s">
-        <v>503</v>
+      <c r="A507" s="6" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A508" s="7" t="s">
-        <v>504</v>
+      <c r="A508" s="6" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A509" s="7" t="s">
-        <v>505</v>
+      <c r="A509" s="6" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A510" s="7" t="s">
-        <v>506</v>
+      <c r="A510" s="6" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A511" s="7" t="s">
-        <v>507</v>
+      <c r="A511" s="6" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A512" s="7" t="s">
-        <v>508</v>
+      <c r="A512" s="6" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A513" s="7" t="s">
-        <v>509</v>
+      <c r="A513" s="6" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A514" s="7" t="s">
-        <v>510</v>
+      <c r="A514" s="6" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A515" s="7" t="s">
-        <v>511</v>
+      <c r="A515" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A516" s="7" t="s">
-        <v>512</v>
+      <c r="A516" s="6" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A517" s="7" t="s">
-        <v>513</v>
+      <c r="A517" s="6" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A518" s="7" t="s">
-        <v>514</v>
+      <c r="A518" s="6" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A519" s="7" t="s">
-        <v>515</v>
+      <c r="A519" s="6" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A520" s="7" t="s">
-        <v>516</v>
+      <c r="A520" s="6" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A521" s="7" t="s">
-        <v>517</v>
+      <c r="A521" s="6" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A522" s="7" t="s">
-        <v>518</v>
+      <c r="A522" s="6" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A523" s="7" t="s">
-        <v>519</v>
+      <c r="A523" s="6" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A524" s="7" t="s">
-        <v>520</v>
+      <c r="A524" s="6" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A525" s="7" t="s">
-        <v>521</v>
+      <c r="A525" s="6" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A526" s="7" t="s">
-        <v>522</v>
+      <c r="A526" s="6" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A527" s="7" t="s">
-        <v>523</v>
+      <c r="A527" s="6" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A528" s="7" t="s">
-        <v>524</v>
+      <c r="A528" s="6" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A529" s="7" t="s">
-        <v>525</v>
+      <c r="A529" s="6" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A530" s="7" t="s">
-        <v>526</v>
+      <c r="A530" s="6" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A531" s="7" t="s">
-        <v>527</v>
+      <c r="A531" s="6" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A532" s="7" t="s">
-        <v>528</v>
+      <c r="A532" s="6" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A533" s="7" t="s">
-        <v>529</v>
+      <c r="A533" s="6" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A534" s="7" t="s">
-        <v>530</v>
+      <c r="A534" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A535" s="7" t="s">
-        <v>531</v>
+      <c r="A535" s="6" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A536" s="7" t="s">
-        <v>532</v>
+      <c r="A536" s="6" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A537" s="7" t="s">
-        <v>533</v>
+      <c r="A537" s="6" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A538" s="7" t="s">
-        <v>534</v>
+      <c r="A538" s="6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A539" s="7" t="s">
-        <v>535</v>
+      <c r="A539" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A540" s="7" t="s">
-        <v>536</v>
+      <c r="A540" s="6" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A541" s="7" t="s">
-        <v>537</v>
+      <c r="A541" s="6" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A542" s="7" t="s">
-        <v>538</v>
+      <c r="A542" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A543" s="7" t="s">
-        <v>539</v>
+      <c r="A543" s="6" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A544" s="7" t="s">
-        <v>540</v>
+      <c r="A544" s="6" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A545" s="7" t="s">
-        <v>541</v>
+      <c r="A545" s="6" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A546" s="7" t="s">
-        <v>542</v>
+      <c r="A546" s="6" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A547" s="7" t="s">
-        <v>543</v>
+      <c r="A547" s="6" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A548" s="7" t="s">
-        <v>544</v>
+      <c r="A548" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A549" s="7" t="s">
-        <v>545</v>
+      <c r="A549" s="6" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A550" s="7" t="s">
-        <v>546</v>
+      <c r="A550" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A551" s="7" t="s">
-        <v>547</v>
+      <c r="A551" s="6" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A552" s="7" t="s">
-        <v>548</v>
+      <c r="A552" s="6" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A553" s="7" t="s">
-        <v>549</v>
+      <c r="A553" s="6" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A554" s="7" t="s">
-        <v>550</v>
+      <c r="A554" s="6" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A555" s="7" t="s">
-        <v>551</v>
+      <c r="A555" s="6" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A556" s="7" t="s">
-        <v>552</v>
+      <c r="A556" s="6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A557" s="7" t="s">
-        <v>553</v>
+      <c r="A557" s="6" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A558" s="7" t="s">
-        <v>554</v>
+      <c r="A558" s="6" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A559" s="7" t="s">
-        <v>555</v>
+      <c r="A559" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A560" s="7" t="s">
-        <v>556</v>
+      <c r="A560" s="6" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A561" s="7" t="s">
-        <v>557</v>
+      <c r="A561" s="6" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A562" s="7" t="s">
-        <v>558</v>
+      <c r="A562" s="6" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A563" s="7" t="s">
-        <v>559</v>
+      <c r="A563" s="6" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A564" s="7" t="s">
-        <v>560</v>
+      <c r="A564" s="6" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A565" s="7" t="s">
-        <v>561</v>
+      <c r="A565" s="6" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A566" s="7" t="s">
-        <v>562</v>
+      <c r="A566" s="6" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A567" s="7" t="s">
-        <v>563</v>
+      <c r="A567" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A568" s="7" t="s">
-        <v>564</v>
+      <c r="A568" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A569" s="7" t="s">
-        <v>565</v>
+      <c r="A569" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A570" s="7" t="s">
-        <v>566</v>
+      <c r="A570" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A571" s="7" t="s">
-        <v>567</v>
+      <c r="A571" s="6" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A572" s="7" t="s">
-        <v>568</v>
+      <c r="A572" s="6" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A573" s="7" t="s">
-        <v>569</v>
+      <c r="A573" s="6" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A574" s="7" t="s">
-        <v>570</v>
+      <c r="A574" s="6" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A575" s="7" t="s">
-        <v>571</v>
+      <c r="A575" s="8" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A576" s="7" t="s">
-        <v>572</v>
+      <c r="A576" s="6" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A577" s="7" t="s">
-        <v>573</v>
+      <c r="A577" s="6" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A578" s="7" t="s">
-        <v>574</v>
+      <c r="A578" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A579" s="7" t="s">
-        <v>575</v>
+      <c r="A579" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A580" s="7" t="s">
-        <v>576</v>
+      <c r="A580" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A581" s="7" t="s">
-        <v>577</v>
+      <c r="A581" s="6" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A582" s="7" t="s">
-        <v>578</v>
+      <c r="A582" s="6" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A583" s="7" t="s">
-        <v>579</v>
+      <c r="A583" s="6" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A584" s="7" t="s">
-        <v>580</v>
+      <c r="A584" s="6" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A585" s="7" t="s">
-        <v>581</v>
+      <c r="A585" s="6" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A586" s="7" t="s">
-        <v>582</v>
+      <c r="A586" s="6" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A587" s="7" t="s">
-        <v>583</v>
+      <c r="A587" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A588" s="7" t="s">
-        <v>584</v>
+      <c r="A588" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A589" s="7" t="s">
-        <v>585</v>
+      <c r="A589" s="6" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A590" s="7" t="s">
-        <v>586</v>
+      <c r="A590" s="6" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A591" s="7" t="s">
-        <v>587</v>
+      <c r="A591" s="6" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A592" s="7" t="s">
-        <v>588</v>
+      <c r="A592" s="6" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A593" s="7" t="s">
-        <v>589</v>
+      <c r="A593" s="6" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A594" s="7" t="s">
-        <v>590</v>
+      <c r="A594" s="6" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A595" s="7" t="s">
-        <v>591</v>
+      <c r="A595" s="6" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A596" s="7" t="s">
-        <v>592</v>
+      <c r="A596" s="6" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A597" s="7" t="s">
-        <v>593</v>
+      <c r="A597" s="6" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A598" s="7" t="s">
-        <v>594</v>
+      <c r="A598" s="6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A599" s="7" t="s">
-        <v>595</v>
+      <c r="A599" s="6" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A600" s="7" t="s">
-        <v>596</v>
+      <c r="A600" s="6" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A601" s="7" t="s">
-        <v>597</v>
+      <c r="A601" s="6" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A602" s="7" t="s">
-        <v>598</v>
+      <c r="A602" s="6" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A603" s="7" t="s">
-        <v>599</v>
+      <c r="A603" s="6" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A604" s="7" t="s">
-        <v>600</v>
+      <c r="A604" s="6" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A605" s="7" t="s">
-        <v>601</v>
+      <c r="A605" s="6" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A606" s="7" t="s">
-        <v>602</v>
+      <c r="A606" s="6" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A607" s="7" t="s">
-        <v>603</v>
+      <c r="A607" s="6" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A608" s="7" t="s">
-        <v>604</v>
+      <c r="A608" s="6" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A609" s="7" t="s">
-        <v>605</v>
+      <c r="A609" s="6" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A610" s="7" t="s">
-        <v>606</v>
+      <c r="A610" s="6" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A611" s="7" t="s">
-        <v>607</v>
+      <c r="A611" s="6" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A612" s="7" t="s">
-        <v>608</v>
+      <c r="A612" s="6" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A613" s="7" t="s">
-        <v>609</v>
+      <c r="A613" s="6" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A614" s="7" t="s">
-        <v>610</v>
+      <c r="A614" s="6" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A615" s="7" t="s">
-        <v>611</v>
+      <c r="A615" s="6" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A616" s="7" t="s">
-        <v>612</v>
+      <c r="A616" s="6" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A617" s="7" t="s">
-        <v>613</v>
+      <c r="A617" s="6" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A618" s="7" t="s">
-        <v>614</v>
+      <c r="A618" s="6" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A619" s="7" t="s">
-        <v>615</v>
+      <c r="A619" s="6" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A620" s="7" t="s">
-        <v>616</v>
+      <c r="A620" s="6" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A621" s="7" t="s">
-        <v>617</v>
+      <c r="A621" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A622" s="7" t="s">
-        <v>618</v>
+      <c r="A622" s="6" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A623" s="7" t="s">
-        <v>619</v>
+      <c r="A623" s="6" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A624" s="7" t="s">
-        <v>620</v>
+      <c r="A624" s="6" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A625" s="7" t="s">
-        <v>621</v>
+      <c r="A625" s="6" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A626" s="7" t="s">
-        <v>622</v>
+      <c r="A626" s="6" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A627" s="7" t="s">
-        <v>623</v>
+      <c r="A627" s="6" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A628" s="7" t="s">
-        <v>624</v>
+      <c r="A628" s="6" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A629" s="7" t="s">
-        <v>625</v>
+      <c r="A629" s="6" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A630" s="7" t="s">
-        <v>626</v>
+      <c r="A630" s="6" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A631" s="7" t="s">
-        <v>627</v>
+      <c r="A631" s="6" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A632" s="7" t="s">
-        <v>628</v>
+      <c r="A632" s="6" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A633" s="7" t="s">
-        <v>629</v>
+      <c r="A633" s="6" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A634" s="7" t="s">
-        <v>630</v>
+      <c r="A634" s="6" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A635" s="7" t="s">
-        <v>631</v>
+      <c r="A635" s="6" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A636" s="7" t="s">
-        <v>632</v>
+      <c r="A636" s="6" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A637" s="7" t="s">
-        <v>633</v>
+      <c r="A637" s="6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A638" s="7" t="s">
-        <v>634</v>
+      <c r="A638" s="6" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A639" s="7" t="s">
-        <v>635</v>
+      <c r="A639" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A640" s="7" t="s">
-        <v>636</v>
+      <c r="A640" s="6" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A641" s="7" t="s">
-        <v>637</v>
+      <c r="A641" s="6" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A642" s="7" t="s">
-        <v>638</v>
+      <c r="A642" s="6" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A643" s="7" t="s">
-        <v>639</v>
+      <c r="A643" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A644" s="7" t="s">
-        <v>640</v>
+      <c r="A644" s="6" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A645" s="7" t="s">
-        <v>641</v>
+      <c r="A645" s="6" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A646" s="7" t="s">
-        <v>642</v>
+      <c r="A646" s="6" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A647" s="7" t="s">
-        <v>643</v>
+      <c r="A647" s="6" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A648" s="7" t="s">
-        <v>644</v>
+      <c r="A648" s="6" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A649" s="7" t="s">
-        <v>645</v>
+      <c r="A649" s="6" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A650" s="7" t="s">
-        <v>646</v>
+      <c r="A650" s="6" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A651" s="7" t="s">
-        <v>647</v>
+      <c r="A651" s="6" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A652" s="7" t="s">
-        <v>648</v>
+      <c r="A652" s="6" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A653" s="7" t="s">
-        <v>649</v>
+      <c r="A653" s="6" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A654" s="7" t="s">
-        <v>650</v>
+      <c r="A654" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A655" s="7" t="s">
-        <v>651</v>
+      <c r="A655" s="6" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A656" s="7" t="s">
-        <v>652</v>
+      <c r="A656" s="6" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A657" s="7" t="s">
-        <v>653</v>
+      <c r="A657" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A658" s="7" t="s">
-        <v>654</v>
+      <c r="A658" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A659" s="7" t="s">
-        <v>655</v>
+      <c r="A659" s="6" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A660" s="7" t="s">
-        <v>656</v>
+      <c r="A660" s="6" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A661" s="7" t="s">
-        <v>657</v>
+      <c r="A661" s="6" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A662" s="7" t="s">
-        <v>658</v>
+      <c r="A662" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A663" s="7" t="s">
-        <v>659</v>
+      <c r="A663" s="6" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A664" s="7" t="s">
-        <v>660</v>
+      <c r="A664" s="6" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A665" s="7" t="s">
-        <v>661</v>
+      <c r="A665" s="6" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A666" s="7" t="s">
-        <v>662</v>
+      <c r="A666" s="6" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A667" s="7" t="s">
-        <v>663</v>
+      <c r="A667" s="6" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A668" s="7" t="s">
-        <v>664</v>
+      <c r="A668" s="6" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A669" s="7" t="s">
-        <v>665</v>
+      <c r="A669" s="6" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A670" s="7" t="s">
-        <v>666</v>
+      <c r="A670" s="6" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A671" s="7" t="s">
-        <v>667</v>
+      <c r="A671" s="6" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A672" s="7" t="s">
-        <v>668</v>
+      <c r="A672" s="6" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A673" s="7" t="s">
-        <v>669</v>
+      <c r="A673" s="6" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A674" s="7" t="s">
-        <v>670</v>
+      <c r="A674" s="6" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A675" s="7" t="s">
-        <v>671</v>
+      <c r="A675" s="6" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A676" s="7" t="s">
-        <v>672</v>
+      <c r="A676" s="6" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A677" s="7" t="s">
-        <v>673</v>
+      <c r="A677" s="6" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A678" s="7" t="s">
-        <v>674</v>
+      <c r="A678" s="6" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A679" s="7" t="s">
-        <v>675</v>
+      <c r="A679" s="6" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A680" s="7" t="s">
-        <v>676</v>
+      <c r="A680" s="6" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A681" s="7" t="s">
-        <v>677</v>
+      <c r="A681" s="6" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A682" s="7" t="s">
-        <v>678</v>
+      <c r="A682" s="6" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A683" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A684" s="7" t="s">
+      <c r="A683" s="6" t="s">
         <v>680</v>
       </c>
     </row>
+    <row r="684" spans="1:1" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="A684" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A685" s="7" t="s">
-        <v>681</v>
+      <c r="A685" s="10" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A686" s="7" t="s">
-        <v>682</v>
+      <c r="A686" s="10" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A687" s="7" t="s">
-        <v>683</v>
+      <c r="A687" s="10" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A688" s="7" t="s">
-        <v>684</v>
+      <c r="A688" s="10" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A689" s="7" t="s">
-        <v>685</v>
+      <c r="A689" s="10" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A690" s="7" t="s">
-        <v>686</v>
+      <c r="A690" s="10" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A691" s="7" t="s">
-        <v>687</v>
+      <c r="A691" s="10" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A692" s="7" t="s">
-        <v>688</v>
+      <c r="A692" s="11" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A693" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A694" s="7" t="s">
+      <c r="A693" s="11" t="s">
         <v>690</v>
       </c>
     </row>
+    <row r="694" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A694" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A695" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A696" s="7" t="s">
+      <c r="A695" s="11" t="s">
         <v>692</v>
       </c>
     </row>
+    <row r="696" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A696" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A697" s="7" t="s">
-        <v>693</v>
+      <c r="A697" s="11" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A698" s="7" t="s">
-        <v>694</v>
+      <c r="A698" s="11" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A699" s="7" t="s">
-        <v>695</v>
+      <c r="A699" s="13" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A700" s="7" t="s">
-        <v>696</v>
+      <c r="A700" s="13" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A701" s="7" t="s">
-        <v>697</v>
+      <c r="A701" s="13" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A702" s="7" t="s">
-        <v>698</v>
+      <c r="A702" s="13" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703" s="7" t="s">
-        <v>699</v>
+      <c r="A703" s="13" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A704" s="7" t="s">
-        <v>700</v>
+      <c r="A704" s="13" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A705" s="7" t="s">
-        <v>701</v>
+      <c r="A705" s="13" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A706" s="7" t="s">
-        <v>702</v>
+      <c r="A706" s="11" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A707" s="7" t="s">
-        <v>703</v>
+      <c r="A707" s="13" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A708" s="7" t="s">
-        <v>704</v>
+      <c r="A708" s="13" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A709" s="7" t="s">
-        <v>705</v>
+      <c r="A709" s="13" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A710" s="7" t="s">
-        <v>706</v>
+      <c r="A710" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A711" s="7" t="s">
-        <v>707</v>
+      <c r="A711" s="13" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A712" s="7" t="s">
-        <v>708</v>
+      <c r="A712" s="6" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A713" s="7" t="s">
-        <v>709</v>
+      <c r="A713" s="13" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A714" s="7" t="s">
-        <v>710</v>
+      <c r="A714" s="13" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A715" s="7" t="s">
-        <v>711</v>
+      <c r="A715" s="13" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A716" s="7" t="s">
-        <v>712</v>
+      <c r="A716" s="13" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A717" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A718" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A719" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A720" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A721" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A722" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A723" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A724" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A725" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A726" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A727" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A728" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A729" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A730" s="7" t="s">
-        <v>726</v>
+        <v>788</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.35">
@@ -7368,1772 +6611,525 @@
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A740" s="7" t="s">
+      <c r="A740" s="5" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A741" s="7" t="s">
+      <c r="A741" s="5" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A742" s="7" t="s">
+      <c r="A742" s="5" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A743" s="7" t="s">
+      <c r="A743" s="5" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A744" s="7" t="s">
+      <c r="A744" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A745" s="7" t="s">
+      <c r="A745" s="5" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A746" s="7" t="s">
+      <c r="A746" s="5" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A747" s="7" t="s">
+      <c r="A747" s="5" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A748" s="7" t="s">
+      <c r="A748" s="5" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A749" s="7" t="s">
+      <c r="A749" s="5" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750" s="7" t="s">
+      <c r="A750" s="5" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A751" s="7" t="s">
+      <c r="A751" s="5" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A752" s="7" t="s">
+      <c r="A752" s="5" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A753" s="7" t="s">
+      <c r="A753" s="5" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754" s="7" t="s">
+      <c r="A754" s="5" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A755" s="7" t="s">
+      <c r="A755" s="5" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A756" s="7" t="s">
+      <c r="A756" s="5" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757" s="7" t="s">
+      <c r="A757" s="5" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A758" s="7" t="s">
+      <c r="A758" s="5" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A759" s="7" t="s">
+      <c r="A759" s="5" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A760" s="7" t="s">
+      <c r="A760" s="5" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A761" s="7" t="s">
+      <c r="A761" s="5" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A762" s="7" t="s">
+      <c r="A762" s="5" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A763" s="7" t="s">
+      <c r="A763" s="5" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A764" s="7" t="s">
+      <c r="A764" s="5" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A765" s="7" t="s">
+      <c r="A765" s="5" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A766" s="7" t="s">
+      <c r="A766" s="5" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A767" s="7" t="s">
+      <c r="A767" s="5" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A768" s="7" t="s">
+      <c r="A768" s="5" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A769" s="7" t="s">
+      <c r="A769" s="5" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A770" s="7" t="s">
+      <c r="A770" s="5" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A771" s="7" t="s">
+      <c r="A771" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A772" s="7" t="s">
+      <c r="A772" s="5" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A773" s="7" t="s">
+      <c r="A773" s="5" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A774" s="7" t="s">
+      <c r="A774" s="5" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A775" s="7" t="s">
+      <c r="A775" s="5" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A776" s="7" t="s">
+      <c r="A776" s="5" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A777" s="7" t="s">
+      <c r="A777" s="5" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A778" s="7" t="s">
+      <c r="A778" s="5" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A779" s="7" t="s">
+      <c r="A779" s="5" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A780" s="7" t="s">
+      <c r="A780" s="5" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A781" s="7" t="s">
+      <c r="A781" s="5" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A782" s="7" t="s">
+      <c r="A782" s="5" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A783" s="7" t="s">
+      <c r="A783" s="5" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A784" s="7" t="s">
+      <c r="A784" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A785" s="7" t="s">
+      <c r="A785" s="5" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A786" s="7" t="s">
+      <c r="A786" s="5" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A787" s="7" t="s">
+      <c r="A787" s="5" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A788" s="7" t="s">
+      <c r="A788" s="5" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A789" s="7" t="s">
+      <c r="A789" s="5" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A790" s="7" t="s">
+      <c r="A790" s="5" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A791" s="7" t="s">
+      <c r="A791" s="5" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A792" s="7" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A793" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A794" s="7" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A795" s="7" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A796" s="7" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A797" s="7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A798" s="7" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A799" s="7" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A800" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A801" s="7" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A802" s="7" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A803" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A804" s="7" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A805" s="7" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A806" s="7" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A807" s="7" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A808" s="7" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A809" s="7" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A810" s="7" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A811" s="7" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A812" s="7" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A813" s="7" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A814" s="7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A815" s="7" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A816" s="7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A817" s="7" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A818" s="7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A819" s="7" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A820" s="7" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A821" s="7" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A822" s="7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A823" s="7" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A824" s="9" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A825" s="7" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A826" s="7" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A827" s="7" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A828" s="7" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A829" s="7" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A830" s="7" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A831" s="7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A832" s="7" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A833" s="7" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A834" s="7" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A835" s="7" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A836" s="7" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A837" s="7" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A838" s="7" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A839" s="7" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A840" s="7" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A841" s="7" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A842" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A843" s="7" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A844" s="7" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A845" s="7" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A846" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A847" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A848" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A849" s="7" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A850" s="7" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A851" s="7" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A852" s="7" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A853" s="7" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A854" s="7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A855" s="7" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A856" s="7" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A857" s="7" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A858" s="7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A859" s="7" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A860" s="7" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A861" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A862" s="7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A863" s="7" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A864" s="7" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A865" s="7" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A866" s="7" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A867" s="7" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A868" s="7" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A869" s="7" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A870" s="7" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A871" s="7" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A872" s="7" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A873" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A874" s="7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A875" s="7" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A876" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A877" s="7" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A878" s="7" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A879" s="7" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A880" s="7" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A881" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A882" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A883" s="7" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A884" s="7" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A885" s="7" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A886" s="7" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A887" s="7" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A888" s="7" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A889" s="7" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A890" s="7" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A891" s="7" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A892" s="7" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A893" s="7" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A894" s="7" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A895" s="7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A896" s="7" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A897" s="7" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A898" s="7" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A899" s="7" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A900" s="7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A901" s="7" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A902" s="7" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A903" s="7" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A904" s="7" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A905" s="7" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A906" s="7" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A907" s="7" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A908" s="7" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A909" s="7" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A910" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A911" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A912" s="7" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A913" s="7" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A914" s="7" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A915" s="7" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A916" s="7" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A917" s="7" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A918" s="7" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A919" s="7" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A920" s="7" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A921" s="7" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A922" s="7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A923" s="7" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A924" s="7" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A925" s="7" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A926" s="7" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A927" s="7" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A928" s="7" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A929" s="7" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A930" s="7" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A931" s="7" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A932" s="7" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A933" s="10" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A934" s="11" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A935" s="11" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A936" s="11" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A937" s="11" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A938" s="11" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A939" s="11" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A940" s="11" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A941" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A942" s="12" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A943" s="13" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A944" s="12" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A945" s="13" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A946" s="12" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A947" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A948" s="14" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A949" s="14" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A950" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A951" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A952" s="14" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A953" s="14" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A954" s="14" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A955" s="12" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A956" s="14" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A957" s="14" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A958" s="14" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A959" s="14" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A960" s="14" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A961" s="7" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A962" s="14" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A963" s="14" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A964" s="14" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A965" s="14" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A966" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A967" s="8" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A968" s="8" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A969" s="8" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A970" s="8" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A971" s="8" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A972" s="8" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A973" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A974" s="8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A975" s="8" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A976" s="8" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A977" s="8" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A978" s="8" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A979" s="8" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A980" s="8" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A981" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A982" s="8" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A983" s="8" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A984" s="8" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A985" s="8" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A986" s="8" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A987" s="8" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A988" s="8" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A989" s="6" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A990" s="6" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A991" s="6" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A992" s="6" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A993" s="6" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A994" s="6" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A995" s="6" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A996" s="6" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A997" s="6" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A998" s="6" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A999" s="6" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1000" s="6" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1001" s="6" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1002" s="6" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1003" s="6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1004" s="6" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1005" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1006" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1007" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1008" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1009" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1010" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1011" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1012" s="6" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1013" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1014" s="6" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1015" s="6" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1016" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1017" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1018" s="6" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1019" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1020" s="6" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1021" s="6" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1022" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1023" s="6" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1024" s="6" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="6" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="6" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1029" s="6" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1030" s="6" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1031" s="6" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1032" s="6" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1033" s="6" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1034" s="6" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1035" s="6" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1036" s="6" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1037" s="6" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1038" s="6" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1039" s="6" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1040" s="6" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1041" s="8" t="s">
-        <v>1038</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A251" r:id="rId1" xr:uid="{D8E5BDE2-D531-49D3-AEC0-A185D3B27F16}"/>
-    <hyperlink ref="A252" r:id="rId2" display="a.abdollahi3360@gmail.com_x000a_" xr:uid="{7DEE4240-6795-4428-8224-85F598E2B4BB}"/>
-    <hyperlink ref="A253" r:id="rId3" xr:uid="{56ED87D2-B187-477F-952F-BE9D53305720}"/>
-    <hyperlink ref="A254" r:id="rId4" display="panjali@sbmu.ac.ir_x000a_" xr:uid="{60EB2953-F9C4-4193-BF77-0793EF1F2EC8}"/>
-    <hyperlink ref="A255" r:id="rId5" xr:uid="{78CEE083-7C37-4F14-BD82-1F450E0B3034}"/>
-    <hyperlink ref="A256" r:id="rId6" xr:uid="{FA388CD4-066C-40FD-8ECF-A8471DF1B758}"/>
-    <hyperlink ref="A257" r:id="rId7" xr:uid="{A8837DF7-FF18-4ED7-A9FF-32EB08F6D667}"/>
-    <hyperlink ref="A258" r:id="rId8" xr:uid="{4BDCB9EE-35B9-46D6-94A5-4E034BB7BE74}"/>
-    <hyperlink ref="A259" r:id="rId9" xr:uid="{315AEBC0-0EDC-4A2E-9146-28EE126D8CDF}"/>
-    <hyperlink ref="A260" r:id="rId10" xr:uid="{BA93CC22-58C6-47EB-A097-DA5CC8A50FDE}"/>
-    <hyperlink ref="A261" r:id="rId11" xr:uid="{7D2D637C-CC40-4434-AEA3-9F51B52B38A3}"/>
-    <hyperlink ref="A262" r:id="rId12" xr:uid="{71F32898-06DA-464D-8BF0-51B92819F5D5}"/>
-    <hyperlink ref="A263" r:id="rId13" xr:uid="{9994B2EF-8643-4446-8575-721041A87D0A}"/>
-    <hyperlink ref="A264" r:id="rId14" xr:uid="{5B53B810-62E7-48F7-988D-45DFB8706A9D}"/>
-    <hyperlink ref="A265" r:id="rId15" xr:uid="{6F598862-AC6D-41D4-AC70-F3F5AE6C4656}"/>
-    <hyperlink ref="A266" r:id="rId16" xr:uid="{102355A9-CE31-49EF-AA36-530AE30B18EC}"/>
-    <hyperlink ref="A267" r:id="rId17" xr:uid="{94FB3861-C44F-41C6-9FB7-3EA0754AFDF4}"/>
-    <hyperlink ref="A268" r:id="rId18" xr:uid="{163F125F-9636-4EFA-BF9E-ECE1FDD4A0B9}"/>
-    <hyperlink ref="A269" r:id="rId19" xr:uid="{450D1802-42D3-4E33-A2C7-2A90AAA14C17}"/>
-    <hyperlink ref="A270" r:id="rId20" xr:uid="{02CC27B0-DFA0-4933-AEED-291E7774ED1A}"/>
-    <hyperlink ref="A271" r:id="rId21" xr:uid="{6D26BF96-618F-487C-A4D9-63F6E075E7A8}"/>
-    <hyperlink ref="A272" r:id="rId22" xr:uid="{EFF4361D-F8C1-44F8-A67F-9D814631DAA6}"/>
-    <hyperlink ref="A273" r:id="rId23" xr:uid="{37D1B61F-A37F-4D67-ADB4-A6C603B272D9}"/>
-    <hyperlink ref="A274" r:id="rId24" xr:uid="{C434AF28-35C6-49C3-B932-4686CD820C2C}"/>
-    <hyperlink ref="A275" r:id="rId25" xr:uid="{B97462BD-F387-4E6F-8351-DDDF581D8351}"/>
-    <hyperlink ref="A276" r:id="rId26" xr:uid="{E24A5596-8122-4FA0-A6B0-2EB11B718E56}"/>
-    <hyperlink ref="A277" r:id="rId27" xr:uid="{B0FD70D2-3532-47DB-9C6F-A7957161E3AF}"/>
-    <hyperlink ref="A278" r:id="rId28" xr:uid="{5096B490-1B73-4802-99CC-DA155A01C585}"/>
-    <hyperlink ref="A279" r:id="rId29" xr:uid="{719A3D37-D067-46C4-B843-AA59E7A5F100}"/>
-    <hyperlink ref="A280" r:id="rId30" xr:uid="{1276F2A6-AC17-48CB-A8E7-2C25C12F9AC5}"/>
-    <hyperlink ref="A281" r:id="rId31" xr:uid="{F5566E7F-2360-4E18-9A67-4A4D518F0FCB}"/>
-    <hyperlink ref="A282" r:id="rId32" xr:uid="{D64BC5A9-9F8F-4A7E-9E5D-250229C0C1B0}"/>
-    <hyperlink ref="A283" r:id="rId33" xr:uid="{DC947958-6F9C-43E3-9924-663392C36067}"/>
-    <hyperlink ref="A284" r:id="rId34" xr:uid="{D53EFEA2-4ACB-4A94-89E5-471B2F3082CC}"/>
-    <hyperlink ref="A285" r:id="rId35" xr:uid="{925511EE-583B-4A73-B725-682FA0EF0BF0}"/>
-    <hyperlink ref="A286" r:id="rId36" xr:uid="{899CFB3C-11DA-4285-9426-67FDB5934FD9}"/>
-    <hyperlink ref="A287" r:id="rId37" xr:uid="{ECD5E857-E77E-41F6-B3C9-F7F6AEC212A5}"/>
-    <hyperlink ref="A288" r:id="rId38" xr:uid="{D974ECD4-17BA-4F86-AACB-C051A3F21256}"/>
-    <hyperlink ref="A289" r:id="rId39" xr:uid="{EAC3CB2C-2CF6-45E0-8CAC-7DD4D8181BDD}"/>
-    <hyperlink ref="A290" r:id="rId40" xr:uid="{CC4FE793-C7A9-4BF2-969C-AE474D11EA5C}"/>
-    <hyperlink ref="A291" r:id="rId41" xr:uid="{F993F14D-8337-4FDB-8093-815BDCEB7EFB}"/>
-    <hyperlink ref="A292" r:id="rId42" xr:uid="{2C065DF5-31F6-4953-B20B-F57D2069C12C}"/>
-    <hyperlink ref="A293" r:id="rId43" xr:uid="{BF316E08-4A76-4573-BE2B-51CAC671F7FE}"/>
-    <hyperlink ref="A294" r:id="rId44" xr:uid="{1CB8BB41-B562-4F8E-BD53-A8C186D55CF8}"/>
-    <hyperlink ref="A295" r:id="rId45" xr:uid="{0F0BC195-B129-4860-B154-14F28EA0808A}"/>
-    <hyperlink ref="A296" r:id="rId46" xr:uid="{703B5142-4338-4745-833B-5AF7A37970BD}"/>
-    <hyperlink ref="A297" r:id="rId47" xr:uid="{B4395424-3584-45A1-815D-990BD4703290}"/>
-    <hyperlink ref="A298" r:id="rId48" xr:uid="{89328179-D8BC-4E98-B6B2-9BF53A9BED94}"/>
-    <hyperlink ref="A299" r:id="rId49" xr:uid="{AE1B8BFA-4C8E-456C-A776-868BCE89E593}"/>
-    <hyperlink ref="A300" r:id="rId50" xr:uid="{210ED07B-DAA2-4922-915D-338581518B4E}"/>
-    <hyperlink ref="A301" r:id="rId51" xr:uid="{DFC4467B-68B1-4A9A-817C-028569ECD6C3}"/>
-    <hyperlink ref="A302" r:id="rId52" xr:uid="{3B22BFBF-165C-4A2C-81A9-74DDD38FD960}"/>
-    <hyperlink ref="A303" r:id="rId53" xr:uid="{DB8D226B-FD26-46FD-AA07-1D74C7A0606B}"/>
-    <hyperlink ref="A304" r:id="rId54" xr:uid="{937C6D7E-E68C-48E9-9AB0-C535EF3DC516}"/>
-    <hyperlink ref="A305" r:id="rId55" xr:uid="{BDAF9BA8-DEC5-4DEB-B0E8-491390BA883D}"/>
-    <hyperlink ref="A306" r:id="rId56" xr:uid="{B86E264E-FE7C-4913-A9D4-AD2C796EC07D}"/>
-    <hyperlink ref="A307" r:id="rId57" xr:uid="{83A47E3A-0FAB-44CF-ABFA-D10AD91B5524}"/>
-    <hyperlink ref="A308" r:id="rId58" xr:uid="{39E8CC52-A346-40FE-8036-F3B1198AB609}"/>
-    <hyperlink ref="A309" r:id="rId59" xr:uid="{7D939FB6-2F90-4BA7-8695-87E9EB2EFA6A}"/>
-    <hyperlink ref="A310" r:id="rId60" xr:uid="{3DB0123D-5474-4815-9E19-90156BFC8B91}"/>
-    <hyperlink ref="A311" r:id="rId61" xr:uid="{ACEBB592-CDCC-4E46-9F25-B7711D471964}"/>
-    <hyperlink ref="A312" r:id="rId62" xr:uid="{C73D3A29-807D-48D9-AB2D-C0275DDCB142}"/>
-    <hyperlink ref="A313" r:id="rId63" xr:uid="{44AE86D2-F001-4A21-B730-EAE436CE2FAC}"/>
-    <hyperlink ref="A314" r:id="rId64" xr:uid="{95BBA83C-4C79-4D36-8EE5-A181AC622CF6}"/>
-    <hyperlink ref="A315" r:id="rId65" xr:uid="{25E7A983-BA2B-4A8B-8720-48039A164479}"/>
-    <hyperlink ref="A316" r:id="rId66" xr:uid="{1621BBF1-DC94-4DC6-BFBD-947D15BF245B}"/>
-    <hyperlink ref="A317" r:id="rId67" xr:uid="{C31AC3A6-8EBC-4168-8EEF-9C2A69F7992D}"/>
-    <hyperlink ref="A318" r:id="rId68" xr:uid="{1BA68BD4-FFE5-40B4-B642-30213BADCC3F}"/>
-    <hyperlink ref="A319" r:id="rId69" xr:uid="{C620A5ED-D0CF-4361-A555-047B3C05D5B6}"/>
-    <hyperlink ref="A320" r:id="rId70" xr:uid="{04BA5624-67F4-4213-890A-25F9CC511E29}"/>
-    <hyperlink ref="A321" r:id="rId71" xr:uid="{6554A7D2-E11A-43ED-9B4B-FD74C8032A26}"/>
-    <hyperlink ref="A322" r:id="rId72" xr:uid="{43198718-8984-4E38-A733-AFAB8634A372}"/>
-    <hyperlink ref="A323" r:id="rId73" xr:uid="{6DBF862F-DBD7-4E02-A3C8-FA5D76A83CD6}"/>
-    <hyperlink ref="A324" r:id="rId74" xr:uid="{0C37327B-6B83-4088-914B-6E41787A707D}"/>
-    <hyperlink ref="A325" r:id="rId75" xr:uid="{28ACFA9A-E7F4-49BC-A870-342BB71F87A4}"/>
-    <hyperlink ref="A326" r:id="rId76" xr:uid="{A185B735-B194-40D4-A098-A046D6D59E05}"/>
-    <hyperlink ref="A327" r:id="rId77" xr:uid="{00AFD740-1929-46BB-BDD1-FD0109879BFB}"/>
-    <hyperlink ref="A328" r:id="rId78" xr:uid="{98A108B6-BF66-4BF4-ACC8-3D7EBAAB0F7D}"/>
-    <hyperlink ref="A329" r:id="rId79" display="nadri_s@zums.ac.ir  " xr:uid="{9F83C108-A7B4-4D0B-B129-D00E8E001BBF}"/>
-    <hyperlink ref="A330" r:id="rId80" xr:uid="{D02FECE9-4914-4CFB-8F9C-FCEFD96AC814}"/>
-    <hyperlink ref="A331" r:id="rId81" xr:uid="{82B29F41-0845-4126-ADA7-94985FF813AC}"/>
-    <hyperlink ref="A332" r:id="rId82" xr:uid="{58049502-D350-4999-BDFC-54B1C80FE7C1}"/>
-    <hyperlink ref="A333" r:id="rId83" xr:uid="{92942971-370B-4025-98BB-67BB60EEFC11}"/>
-    <hyperlink ref="A334" r:id="rId84" xr:uid="{32265B7B-EF8D-4D98-B612-EA0E1D407123}"/>
-    <hyperlink ref="A335" r:id="rId85" xr:uid="{054E9D19-60BD-489C-9A9A-43908F8E49EC}"/>
-    <hyperlink ref="A336" r:id="rId86" xr:uid="{664FB28F-784D-4E3F-ACB9-A74A11C04E78}"/>
-    <hyperlink ref="A337" r:id="rId87" xr:uid="{59476CE4-7832-41C2-A091-404CBD7844CD}"/>
-    <hyperlink ref="A338" r:id="rId88" xr:uid="{C89A4D6D-6A54-4AAE-B1FA-D13A19DF3824}"/>
-    <hyperlink ref="A339" r:id="rId89" xr:uid="{32B9C080-5690-4A16-91DA-5AADAD9E6249}"/>
-    <hyperlink ref="A340" r:id="rId90" xr:uid="{D978A2CF-68A3-455D-8B3C-BC7F6E8F5EAA}"/>
-    <hyperlink ref="A341" r:id="rId91" xr:uid="{90678AEF-E03C-44B9-AD45-27EBFE105CD0}"/>
-    <hyperlink ref="A342" r:id="rId92" xr:uid="{95EB8F30-4C9E-4FF9-8656-AEDC650E0435}"/>
-    <hyperlink ref="A343" r:id="rId93" xr:uid="{66CBA257-459B-4276-9EA0-F6A4C469057D}"/>
-    <hyperlink ref="A344" r:id="rId94" xr:uid="{019BB3B1-D9F4-41C1-BB00-320F1F76F65F}"/>
-    <hyperlink ref="A345" r:id="rId95" xr:uid="{8214465D-0D33-4765-955D-B2274A9DF4CE}"/>
-    <hyperlink ref="A346" r:id="rId96" xr:uid="{C4A3FA77-D9CF-4CAD-BBB6-1F1980742F25}"/>
-    <hyperlink ref="A347" r:id="rId97" xr:uid="{FF59407F-6829-4C32-9B15-0BA62BB6AF51}"/>
-    <hyperlink ref="A348" r:id="rId98" xr:uid="{68A23C69-DF70-4216-ADD1-7D3846CBB678}"/>
-    <hyperlink ref="A349" r:id="rId99" xr:uid="{14F181A4-FDB2-4234-9B08-AA32DA89D6B0}"/>
-    <hyperlink ref="A350" r:id="rId100" xr:uid="{EDC80657-FFE4-46B3-BE80-AD9A1EFFB4B4}"/>
-    <hyperlink ref="A351" r:id="rId101" xr:uid="{24B688CA-CFC8-43BD-81A1-A5AA05C72A25}"/>
-    <hyperlink ref="A352" r:id="rId102" xr:uid="{4462ABD1-2FCC-4F80-83E3-1187DFD492F4}"/>
-    <hyperlink ref="A353" r:id="rId103" xr:uid="{C3A63646-BE7B-485E-8AA5-D20AB4169DFB}"/>
-    <hyperlink ref="A354" r:id="rId104" xr:uid="{2A5C5D1B-01E1-4E55-959B-86852B81A0B6}"/>
-    <hyperlink ref="A355" r:id="rId105" xr:uid="{DF869774-D716-4C9D-A04B-B34D776CB7DE}"/>
-    <hyperlink ref="A356" r:id="rId106" xr:uid="{AAC7D201-94F8-45FA-B159-907F4A86C5F3}"/>
-    <hyperlink ref="A357" r:id="rId107" xr:uid="{E7A72C02-AAB3-422F-AEA3-0E7DFABEF094}"/>
-    <hyperlink ref="A358" r:id="rId108" display="dalghin68@yahoo.com" xr:uid="{AC6A03A9-FD33-423E-A5F3-245213B01D3A}"/>
-    <hyperlink ref="A359" r:id="rId109" xr:uid="{82176CD4-DB3D-4076-A172-FE678F005F73}"/>
-    <hyperlink ref="A360" r:id="rId110" xr:uid="{915F6BE8-75C5-49D2-B222-B48DA2362297}"/>
-    <hyperlink ref="A361" r:id="rId111" xr:uid="{AED28940-72FB-47A7-8461-869E24ACE58D}"/>
-    <hyperlink ref="A362" r:id="rId112" xr:uid="{B7782086-6411-452A-A1A4-4A273EF3264B}"/>
-    <hyperlink ref="A363" r:id="rId113" xr:uid="{E3238D9A-3324-4F15-9E7D-8470919DCBFC}"/>
-    <hyperlink ref="A364" r:id="rId114" xr:uid="{DD59FACC-8F8F-49F6-8747-98F18F68527B}"/>
-    <hyperlink ref="A365" r:id="rId115" xr:uid="{05900F0B-5FA4-4BF5-9367-BDA18AA958DE}"/>
-    <hyperlink ref="A366" r:id="rId116" xr:uid="{2FA8F11D-2EEC-473E-9E70-8AAB0659B6E3}"/>
-    <hyperlink ref="A367" r:id="rId117" xr:uid="{A1553066-CCF0-4A3A-BF93-86FC35690ECD}"/>
-    <hyperlink ref="A368" r:id="rId118" xr:uid="{0D196D4F-1FA7-438B-8338-F923007C08F5}"/>
-    <hyperlink ref="A369" r:id="rId119" xr:uid="{FACB7F3D-C512-4A5F-AA6F-061B5F26F61A}"/>
-    <hyperlink ref="A370" r:id="rId120" xr:uid="{341660B4-0CD6-4682-8D84-808829A7A3ED}"/>
-    <hyperlink ref="A371" r:id="rId121" xr:uid="{32F4CF45-9A0D-482B-807C-4A4EA76E5A88}"/>
-    <hyperlink ref="A372" r:id="rId122" xr:uid="{1801A917-4DE2-4266-9525-1AE949A1E5E5}"/>
-    <hyperlink ref="A373" r:id="rId123" xr:uid="{52E6438B-FC32-46C5-B7E3-D27DF61CFCBB}"/>
-    <hyperlink ref="A374" r:id="rId124" xr:uid="{435961F5-2040-47C4-BBFE-C6FC4DA7E0E6}"/>
-    <hyperlink ref="A375" r:id="rId125" xr:uid="{9FD6E7AA-C0D2-4C65-8862-B96419BC53B3}"/>
-    <hyperlink ref="A376" r:id="rId126" xr:uid="{D877D98E-3D43-46F5-9A0B-26D89395EFD6}"/>
-    <hyperlink ref="A377" r:id="rId127" xr:uid="{E7E3EA8C-245E-4560-960A-9695801551EE}"/>
-    <hyperlink ref="A378" r:id="rId128" xr:uid="{1BD6CE31-1F75-44B9-BA57-E9C411EA9206}"/>
-    <hyperlink ref="A379" r:id="rId129" xr:uid="{DD08F788-874F-4A14-AC37-D587D73F4EF9}"/>
-    <hyperlink ref="A380" r:id="rId130" xr:uid="{FE5F2648-8A41-4DAF-B463-E38D9232655A}"/>
-    <hyperlink ref="A381" r:id="rId131" xr:uid="{A022FF20-63CD-475E-BDEC-48C2860015E8}"/>
-    <hyperlink ref="A382" r:id="rId132" xr:uid="{A94FD184-94EF-41F4-93D4-4B0B15AB5F9A}"/>
-    <hyperlink ref="A383" r:id="rId133" xr:uid="{E9240F33-691D-4B5F-A3E2-DE97386A62E1}"/>
-    <hyperlink ref="A384" r:id="rId134" xr:uid="{81F3491C-C9DF-455E-B9F9-42D714B734F4}"/>
-    <hyperlink ref="A385" r:id="rId135" xr:uid="{EC741294-7E8E-46DE-99EE-32FB115470AE}"/>
-    <hyperlink ref="A386" r:id="rId136" xr:uid="{F35BBEA2-2FF8-4F2F-9211-EDCAE6C8146B}"/>
-    <hyperlink ref="A387" r:id="rId137" xr:uid="{1725FC26-EE9C-4238-AC0A-0AD6EBD96A01}"/>
-    <hyperlink ref="A388" r:id="rId138" xr:uid="{4D2BB732-D71F-490D-8D6B-2170CBDA857D}"/>
-    <hyperlink ref="A389" r:id="rId139" xr:uid="{CE9314BF-BB09-42CA-A0A1-D060115C7319}"/>
-    <hyperlink ref="A390" r:id="rId140" xr:uid="{B804D0D6-EEE0-40FF-AA73-A6FA9944F184}"/>
-    <hyperlink ref="A391" r:id="rId141" xr:uid="{5AE9BDA9-83A5-40F1-A299-9EA7595B0BD3}"/>
-    <hyperlink ref="A392" r:id="rId142" xr:uid="{B9D05B7D-4C02-48A2-8D9D-760030E6DB79}"/>
-    <hyperlink ref="A393" r:id="rId143" xr:uid="{0A293059-F9C0-484B-B5A6-7A2B12BFAE69}"/>
-    <hyperlink ref="A394" r:id="rId144" xr:uid="{0B00E371-CB51-4F1B-BB7B-0A75A8C92086}"/>
-    <hyperlink ref="A395" r:id="rId145" xr:uid="{515D4454-25F6-465C-901B-7604B1F8B5C8}"/>
-    <hyperlink ref="A396" r:id="rId146" xr:uid="{1AA92820-6923-4C91-BF5E-438895234322}"/>
-    <hyperlink ref="A397" r:id="rId147" xr:uid="{A7F93362-636F-40FE-B094-77E024FC1A0E}"/>
-    <hyperlink ref="A398" r:id="rId148" xr:uid="{7029D463-E64F-4DED-B25D-9195CF8ABA22}"/>
-    <hyperlink ref="A399" r:id="rId149" xr:uid="{5F0410C4-129E-4FB8-B18E-E755F93DC536}"/>
-    <hyperlink ref="A400" r:id="rId150" xr:uid="{F790B2D9-E7C2-4416-9001-67201969FDA1}"/>
-    <hyperlink ref="A401" r:id="rId151" xr:uid="{0D74A262-06CA-40ED-8757-17B295DBDD96}"/>
-    <hyperlink ref="A402" r:id="rId152" xr:uid="{FD55CDC8-7F75-480A-8729-93BE3B876EF1}"/>
-    <hyperlink ref="A403" r:id="rId153" xr:uid="{BB4FEE8B-4F3E-4D93-AD2B-4C945C1FEFC5}"/>
-    <hyperlink ref="A404" r:id="rId154" xr:uid="{2A9B9B16-2EFB-4AB5-B219-5E0B4931A602}"/>
-    <hyperlink ref="A405" r:id="rId155" xr:uid="{157D1B7C-3B0E-48FB-AA46-AEF1287F177C}"/>
-    <hyperlink ref="A406" r:id="rId156" xr:uid="{F1EB4F74-C484-4879-A203-02B2E5A31854}"/>
-    <hyperlink ref="A407" r:id="rId157" xr:uid="{F6BAB08B-7FB0-488A-BDA1-4432AA309938}"/>
-    <hyperlink ref="A408" r:id="rId158" xr:uid="{D7281387-67B3-4503-BEFF-19D8605174CA}"/>
-    <hyperlink ref="A409" r:id="rId159" xr:uid="{88EF02B8-9341-4882-B097-7E870874E756}"/>
-    <hyperlink ref="A410" r:id="rId160" xr:uid="{0E53DA7B-B971-4A21-8191-B757193CAA63}"/>
-    <hyperlink ref="A411" r:id="rId161" xr:uid="{94FAF243-CBC1-414B-B95E-FA55BB1C58CA}"/>
-    <hyperlink ref="A412" r:id="rId162" xr:uid="{D3A2CE8F-F142-42FC-AD25-11424971B716}"/>
-    <hyperlink ref="A413" r:id="rId163" xr:uid="{94C91573-54BB-4DA3-9A67-4E0B6114F873}"/>
-    <hyperlink ref="A933" r:id="rId164" display="http://sph.tums.ac.ir/" xr:uid="{3D4168AA-DDB6-4905-A524-816C4805EA6B}"/>
-    <hyperlink ref="A948" r:id="rId165" xr:uid="{00EE04C8-A6C6-452C-AFEF-8F367D3CD333}"/>
-    <hyperlink ref="A949" r:id="rId166" xr:uid="{33725344-787A-4300-B725-DC18FA2509B1}"/>
-    <hyperlink ref="A950" r:id="rId167" xr:uid="{1122A989-FE0F-413F-8081-BC0C28F9E70C}"/>
-    <hyperlink ref="A951" r:id="rId168" xr:uid="{044CA121-3064-4B82-BECC-0E30DAE46CF0}"/>
-    <hyperlink ref="A952" r:id="rId169" xr:uid="{95A99DB2-34B7-4D06-9EAE-DCE595092377}"/>
-    <hyperlink ref="A953" r:id="rId170" xr:uid="{F8EEAE71-CCAD-4259-99BB-5BC85F23B4C2}"/>
-    <hyperlink ref="A954" r:id="rId171" display="mailto:rezaeizadeh@tums.ac.ir" xr:uid="{637D7D0C-7BFD-4034-AB07-15873F3AD06B}"/>
-    <hyperlink ref="A956" r:id="rId172" xr:uid="{1B0B9AFA-DFAA-4C24-BD46-D061D4D8FBFF}"/>
-    <hyperlink ref="A957" r:id="rId173" xr:uid="{E5685AF4-660A-417C-B227-CCF98A4A4D73}"/>
-    <hyperlink ref="A958" r:id="rId174" xr:uid="{2DCC835F-0A30-4878-A8D3-76895528B9E9}"/>
-    <hyperlink ref="A959" r:id="rId175" display="mailto:sina.marashi@gmail.com" xr:uid="{4A972128-57BE-4C02-8A08-6CE0CAC8DC05}"/>
-    <hyperlink ref="A960" r:id="rId176" xr:uid="{4D7F4295-1A4B-46C6-A07C-94BF5A0E8482}"/>
-    <hyperlink ref="A962" r:id="rId177" xr:uid="{CC3A65CB-75E2-43B7-BD82-67C5D2321DE8}"/>
-    <hyperlink ref="A963" r:id="rId178" xr:uid="{CE8D31F9-21E4-4603-8322-E9BF9E502531}"/>
-    <hyperlink ref="A964" r:id="rId179" xr:uid="{9EB92218-7F96-4D98-82C5-35BCF8026212}"/>
-    <hyperlink ref="A965" r:id="rId180" xr:uid="{005627B1-346C-472E-8859-E939CAF295E4}"/>
-    <hyperlink ref="A966" r:id="rId181" xr:uid="{45B5F462-A1D9-4300-B2ED-98D5F10824B6}"/>
-    <hyperlink ref="A967" r:id="rId182" xr:uid="{7EF175F4-C70F-4FEA-82E9-741F6D8A4365}"/>
-    <hyperlink ref="A968" r:id="rId183" xr:uid="{E903A1C2-0A18-40F6-B823-4A23BD97F679}"/>
-    <hyperlink ref="A969" r:id="rId184" xr:uid="{5992459D-D657-487B-94F2-5D208416F424}"/>
-    <hyperlink ref="A970" r:id="rId185" xr:uid="{35D7F4E2-F541-4D28-BCC7-9430A058101A}"/>
-    <hyperlink ref="A971" r:id="rId186" xr:uid="{D8CAB375-CDB5-4779-A448-48C53B0A0EAD}"/>
-    <hyperlink ref="A972" r:id="rId187" xr:uid="{6B94353C-3963-47DF-90FB-EC16AB08BE98}"/>
-    <hyperlink ref="A973" r:id="rId188" xr:uid="{3B95098B-A294-48B6-9B08-F8D31A74B130}"/>
-    <hyperlink ref="A974" r:id="rId189" xr:uid="{3FAD5F88-2E5B-4BB6-9553-A1DB52FAD040}"/>
-    <hyperlink ref="A975" r:id="rId190" xr:uid="{FDA403CD-DA39-4140-B70C-ABC10A595221}"/>
-    <hyperlink ref="A976" r:id="rId191" xr:uid="{C9B6FAE1-075C-4B41-BD21-9AE247B2877C}"/>
-    <hyperlink ref="A977" r:id="rId192" xr:uid="{CEC6ACF1-4BE1-471E-AA03-F3C76C25B8EF}"/>
-    <hyperlink ref="A978" r:id="rId193" xr:uid="{82273192-A0A3-4ED8-9041-A772DBC6563E}"/>
-    <hyperlink ref="A979" r:id="rId194" xr:uid="{F92440DA-70B4-41C5-966C-5B041299F00C}"/>
-    <hyperlink ref="A980" r:id="rId195" xr:uid="{AB516E97-62C2-4AC2-A35D-3B8DF1803352}"/>
-    <hyperlink ref="A981" r:id="rId196" xr:uid="{24B1AC24-FB37-4270-B781-1DF0D659FC87}"/>
-    <hyperlink ref="A982" r:id="rId197" xr:uid="{8264521C-F733-4C81-B05F-F8944D9633E1}"/>
-    <hyperlink ref="A983" r:id="rId198" xr:uid="{990B9AAF-D90C-4E1A-9DB6-43A67FD0104D}"/>
-    <hyperlink ref="A989" r:id="rId199" display="mailto:mahya.rahmani@gmail.com" xr:uid="{3205E694-56C2-4096-983C-905840DFAE23}"/>
-    <hyperlink ref="A990" r:id="rId200" display="mailto:nazeriali2007@yahoo.com" xr:uid="{CEF5CD3F-F610-400F-8048-B3990F025B3E}"/>
-    <hyperlink ref="A991" r:id="rId201" display="mailto:m-nikbakht@razi.tums.ac.ir" xr:uid="{FA4E8121-AC7B-4302-9F1B-A056EA343417}"/>
-    <hyperlink ref="A992" r:id="rId202" display="mailto:a.valizadeh_medicalnano@yahoo,com" xr:uid="{65162598-D89D-4463-8256-22A0255DA976}"/>
-    <hyperlink ref="A993" r:id="rId203" display="mailto:asghari_mnt@yahoo.com" xr:uid="{81F07F8F-1694-45BC-BAFB-0A34E3228CAD}"/>
-    <hyperlink ref="A994" r:id="rId204" display="mailto:biophysicsiasbs@yahoo.com" xr:uid="{9F3D4CAD-3A45-421E-9AAF-AB5D90160699}"/>
-    <hyperlink ref="A995" r:id="rId205" display="mailto:hasanmaleki95@yahoo.com" xr:uid="{8DC23226-1A61-45F3-8381-A171ED7DB306}"/>
-    <hyperlink ref="A996" r:id="rId206" display="mailto:najmehketabchi@yahoo.com" xr:uid="{153CA2DA-2C78-4F19-B6EF-8F7072260691}"/>
-    <hyperlink ref="A997" r:id="rId207" display="mailto:mortezakamali1979@gmail.com" xr:uid="{37881458-BBCD-447D-9B27-AEA473849C67}"/>
-    <hyperlink ref="A998" r:id="rId208" display="mailto:marya.sharif90@yahoo.com" xr:uid="{86F4CBF7-7B72-4313-8836-5C10FD86CE72}"/>
-    <hyperlink ref="A999" r:id="rId209" display="mailto:bahrani.s6412@yahoo.com" xr:uid="{92C25970-8236-4908-9DC3-363795F0D683}"/>
-    <hyperlink ref="A1000" r:id="rId210" display="mailto:naserineda1989@gmail.com" xr:uid="{01473793-8055-49DB-8AAB-FA249A8FBE3C}"/>
-    <hyperlink ref="A1001" r:id="rId211" display="mailto:mosafarkhanis@gmail.com" xr:uid="{2DCBA322-12CE-43D7-9BDB-7B6B27A894C5}"/>
-    <hyperlink ref="A1002" r:id="rId212" display="mailto:elnazshaabani91@gmail.com" xr:uid="{EB35E4B6-7E1A-487C-A227-295242517B27}"/>
-    <hyperlink ref="A1003" r:id="rId213" display="mailto:hasanpourakram@gmail.com" xr:uid="{9BA7B431-3196-417A-80E2-1966E8DD2251}"/>
-    <hyperlink ref="A1004" r:id="rId214" display="mailto:gharatape_ar@yahoo.com" xr:uid="{B7C94467-AAAE-41E0-BB3A-87DB9D1AB966}"/>
-    <hyperlink ref="A1005" r:id="rId215" display="mailto:azarnajafi.tsh@gmail.com" xr:uid="{292CC52C-1F09-4BE2-BF79-99AAE0D82228}"/>
-    <hyperlink ref="A1006" r:id="rId216" display="mailto:beheshtkhoo.nano@gmail.com" xr:uid="{3F972A5B-D29A-42FD-8FF2-A74CC94B2533}"/>
-    <hyperlink ref="A1007" r:id="rId217" display="mailto:mmalekpour@razi.tums.ac.ir" xr:uid="{1879CB5B-A60C-40E9-BD73-A7F4D0268A0D}"/>
-    <hyperlink ref="A1008" r:id="rId218" display="mailto:amanzadi@yahoo.com" xr:uid="{64CAE73D-6D91-41F6-BE38-EEE8D9849219}"/>
-    <hyperlink ref="A1009" r:id="rId219" display="mailto:aminjadidi1993@gmail.com" xr:uid="{E176E1B3-24D8-4F94-BDF4-E122C228F7A5}"/>
-    <hyperlink ref="A1010" r:id="rId220" display="mailto:mmonfaredd@gmail.com" xr:uid="{39295873-B9CE-4081-AE28-D152CAB8D80D}"/>
-    <hyperlink ref="A1011" r:id="rId221" display="mailto:doostan.mahtab@gmail.com" xr:uid="{662DBC40-A99B-4838-85E8-80095D9D104B}"/>
-    <hyperlink ref="A1012" r:id="rId222" display="mailto:hasani.njf@gmail.com" xr:uid="{9C7ED6B9-B333-46FE-A5F4-BD7CD5234F0A}"/>
-    <hyperlink ref="A1013" r:id="rId223" display="mailto:ali-dehghan70@yahoo.com" xr:uid="{EC993113-EDDB-432F-B7CC-6E1A98337E56}"/>
-    <hyperlink ref="A1014" r:id="rId224" display="mailto:khorsand_fa@yahoo.com" xr:uid="{D878E0D7-C889-4DC9-B79B-41BEBF6A20B8}"/>
-    <hyperlink ref="A1015" r:id="rId225" display="mailto:amingholizadeh71@gmail.com" xr:uid="{B5973EB7-EB99-415A-90AC-9381C64A6643}"/>
-    <hyperlink ref="A1016" r:id="rId226" display="mailto:maryam-khodadadi@hotmail.com" xr:uid="{26A784EB-4963-4CC1-AACA-57E6C6BA2B74}"/>
-    <hyperlink ref="A1017" r:id="rId227" display="mailto:dar.rahban777@gmail.com" xr:uid="{F8FDB738-4886-485C-BFEC-DD1AB5F290EE}"/>
-    <hyperlink ref="A1018" r:id="rId228" display="mailto:ezio1441@yahoo.com" xr:uid="{74CAA2DF-BE05-422E-9BAE-45424BA2A2CF}"/>
-    <hyperlink ref="A1019" r:id="rId229" display="mailto:hana.gm125@gmail.com" xr:uid="{98E3B1CB-842B-4F1F-8BA0-E0E425D88703}"/>
-    <hyperlink ref="A1020" r:id="rId230" display="mailto:alinut4147@gmail.com" xr:uid="{32B3C0A0-22F3-4429-A742-7127E7A6D1EE}"/>
-    <hyperlink ref="A1021" r:id="rId231" display="mailto:elnazalmasi95@yahoo.com" xr:uid="{49CD0E4D-E799-4BCF-ABAE-280DC4CFBAF0}"/>
-    <hyperlink ref="A1022" r:id="rId232" display="mailto:gavanji.k@gmail.com" xr:uid="{C46DBD8D-A380-4ADC-90EB-B5E479DF31EF}"/>
-    <hyperlink ref="A1023" r:id="rId233" display="mailto:sarahzokaasadi@gmail.com" xr:uid="{8D3D01DC-6DAB-4266-915D-40A8F12F326A}"/>
-    <hyperlink ref="A1024" r:id="rId234" display="mailto:hannaneh_6929@yahoo.com" xr:uid="{7C4868AB-1A04-479E-B19B-2AC87DB578B4}"/>
-    <hyperlink ref="A1025" r:id="rId235" display="mailto:fa.fayazbakhsh@gmail.com" xr:uid="{92DE85B4-7960-4EA6-B668-6F08E2639710}"/>
-    <hyperlink ref="A1026" r:id="rId236" display="mailto:pooyaatshin1994@yahoo.com" xr:uid="{360C03AE-4EED-4AE9-8139-5425274768E7}"/>
-    <hyperlink ref="A1027" r:id="rId237" display="mailto:mohamad_musavi73@yahoo.com" xr:uid="{A41DB1D7-8038-4A4C-8442-DC15B7BF6381}"/>
-    <hyperlink ref="A1028" r:id="rId238" display="mailto:misaghft1995@gmail.com" xr:uid="{8FABBFC9-4BD5-4804-9D2F-227D82A099FC}"/>
-    <hyperlink ref="A1029" r:id="rId239" display="mailto:f.bagheri.3223@gmail.com" xr:uid="{99A696B3-3C11-448B-A3A5-3EB1E4B71681}"/>
-    <hyperlink ref="A1030" r:id="rId240" display="mailto:sun.mansoori@gmail.com" xr:uid="{AF1E3088-6CE5-4C77-8947-17504F08B632}"/>
-    <hyperlink ref="A1031" r:id="rId241" display="mailto:hdialabadi@yahoo.com" xr:uid="{C6440C56-959D-469E-9E70-D6ED92D85340}"/>
-    <hyperlink ref="A1032" r:id="rId242" display="mailto:mohammad.akbar935@gmail.com" xr:uid="{D19F699B-F06F-4B07-B159-FEBC18D7BD61}"/>
-    <hyperlink ref="A1033" r:id="rId243" display="mailto:sina.seif@gmail.com" xr:uid="{EB4BE757-FA08-486B-A058-8EEC5127D949}"/>
-    <hyperlink ref="A1034" r:id="rId244" display="mailto:noroozmaryam@gmail.com" xr:uid="{E4EDAFEE-C922-43A0-A52F-77443221C2AF}"/>
-    <hyperlink ref="A1035" r:id="rId245" display="mailto:anise.zamrou@gmail.com" xr:uid="{93F0F4FF-88ED-4CE7-89B6-9F1706B03DE1}"/>
-    <hyperlink ref="A1036" r:id="rId246" display="mailto:fatemehmonzavi@yahoo.com" xr:uid="{AAA807E0-0396-4CFD-9C99-2FFC35ACA4D7}"/>
-    <hyperlink ref="A1037" r:id="rId247" display="mailto:om.mojarad@gmail.com" xr:uid="{6C04B349-13C5-471A-BA1C-CBA408F1C7F2}"/>
-    <hyperlink ref="A1038" r:id="rId248" display="mailto:f.sasani08@gmail.com" xr:uid="{C8B91706-BD71-4CFE-9DB8-E7D63C244CAC}"/>
-    <hyperlink ref="A1039" r:id="rId249" display="mailto:mgaravand90@gmail.com" xr:uid="{FD6E2E05-DB1F-49D5-85F9-9D3E1CEA0E51}"/>
-    <hyperlink ref="A1040" r:id="rId250" display="mailto:fesmaeili2002@yahoo.com" xr:uid="{2A31932B-6D08-4C88-9A8E-7961CD57DF57}"/>
-    <hyperlink ref="A1041" r:id="rId251" xr:uid="{C4766EC1-47AE-462E-9A46-622EE3353EFC}"/>
-    <hyperlink ref="A156" r:id="rId252" xr:uid="{C036081E-D038-438E-9E60-7DDE1DDEB827}"/>
-    <hyperlink ref="A2" r:id="rId253" xr:uid="{3BA7E4E7-AE30-4B8B-B356-D13AB904828B}"/>
+    <hyperlink ref="A3" r:id="rId1" display="a.abdollahi3360@gmail.com_x000a_" xr:uid="{7DEE4240-6795-4428-8224-85F598E2B4BB}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{56ED87D2-B187-477F-952F-BE9D53305720}"/>
+    <hyperlink ref="A5" r:id="rId3" display="panjali@sbmu.ac.ir_x000a_" xr:uid="{60EB2953-F9C4-4193-BF77-0793EF1F2EC8}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{78CEE083-7C37-4F14-BD82-1F450E0B3034}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{FA388CD4-066C-40FD-8ECF-A8471DF1B758}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{A8837DF7-FF18-4ED7-A9FF-32EB08F6D667}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{4BDCB9EE-35B9-46D6-94A5-4E034BB7BE74}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{315AEBC0-0EDC-4A2E-9146-28EE126D8CDF}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{BA93CC22-58C6-47EB-A097-DA5CC8A50FDE}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{7D2D637C-CC40-4434-AEA3-9F51B52B38A3}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{71F32898-06DA-464D-8BF0-51B92819F5D5}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{9994B2EF-8643-4446-8575-721041A87D0A}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{5B53B810-62E7-48F7-988D-45DFB8706A9D}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{6F598862-AC6D-41D4-AC70-F3F5AE6C4656}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{102355A9-CE31-49EF-AA36-530AE30B18EC}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{94FB3861-C44F-41C6-9FB7-3EA0754AFDF4}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{163F125F-9636-4EFA-BF9E-ECE1FDD4A0B9}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{450D1802-42D3-4E33-A2C7-2A90AAA14C17}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{02CC27B0-DFA0-4933-AEED-291E7774ED1A}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{6D26BF96-618F-487C-A4D9-63F6E075E7A8}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{EFF4361D-F8C1-44F8-A67F-9D814631DAA6}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{37D1B61F-A37F-4D67-ADB4-A6C603B272D9}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{C434AF28-35C6-49C3-B932-4686CD820C2C}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{B97462BD-F387-4E6F-8351-DDDF581D8351}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{E24A5596-8122-4FA0-A6B0-2EB11B718E56}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{B0FD70D2-3532-47DB-9C6F-A7957161E3AF}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{5096B490-1B73-4802-99CC-DA155A01C585}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{719A3D37-D067-46C4-B843-AA59E7A5F100}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{1276F2A6-AC17-48CB-A8E7-2C25C12F9AC5}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{F5566E7F-2360-4E18-9A67-4A4D518F0FCB}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{D64BC5A9-9F8F-4A7E-9E5D-250229C0C1B0}"/>
+    <hyperlink ref="A34" r:id="rId32" xr:uid="{DC947958-6F9C-43E3-9924-663392C36067}"/>
+    <hyperlink ref="A35" r:id="rId33" xr:uid="{D53EFEA2-4ACB-4A94-89E5-471B2F3082CC}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{925511EE-583B-4A73-B725-682FA0EF0BF0}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{899CFB3C-11DA-4285-9426-67FDB5934FD9}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{ECD5E857-E77E-41F6-B3C9-F7F6AEC212A5}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{D974ECD4-17BA-4F86-AACB-C051A3F21256}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{EAC3CB2C-2CF6-45E0-8CAC-7DD4D8181BDD}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{CC4FE793-C7A9-4BF2-969C-AE474D11EA5C}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{F993F14D-8337-4FDB-8093-815BDCEB7EFB}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{2C065DF5-31F6-4953-B20B-F57D2069C12C}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{BF316E08-4A76-4573-BE2B-51CAC671F7FE}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{1CB8BB41-B562-4F8E-BD53-A8C186D55CF8}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{0F0BC195-B129-4860-B154-14F28EA0808A}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{703B5142-4338-4745-833B-5AF7A37970BD}"/>
+    <hyperlink ref="A48" r:id="rId46" xr:uid="{B4395424-3584-45A1-815D-990BD4703290}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{89328179-D8BC-4E98-B6B2-9BF53A9BED94}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{AE1B8BFA-4C8E-456C-A776-868BCE89E593}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{210ED07B-DAA2-4922-915D-338581518B4E}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{DFC4467B-68B1-4A9A-817C-028569ECD6C3}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{3B22BFBF-165C-4A2C-81A9-74DDD38FD960}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{DB8D226B-FD26-46FD-AA07-1D74C7A0606B}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{937C6D7E-E68C-48E9-9AB0-C535EF3DC516}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{BDAF9BA8-DEC5-4DEB-B0E8-491390BA883D}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{B86E264E-FE7C-4913-A9D4-AD2C796EC07D}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{83A47E3A-0FAB-44CF-ABFA-D10AD91B5524}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{39E8CC52-A346-40FE-8036-F3B1198AB609}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{7D939FB6-2F90-4BA7-8695-87E9EB2EFA6A}"/>
+    <hyperlink ref="A61" r:id="rId59" xr:uid="{3DB0123D-5474-4815-9E19-90156BFC8B91}"/>
+    <hyperlink ref="A62" r:id="rId60" xr:uid="{ACEBB592-CDCC-4E46-9F25-B7711D471964}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{C73D3A29-807D-48D9-AB2D-C0275DDCB142}"/>
+    <hyperlink ref="A64" r:id="rId62" xr:uid="{44AE86D2-F001-4A21-B730-EAE436CE2FAC}"/>
+    <hyperlink ref="A65" r:id="rId63" xr:uid="{95BBA83C-4C79-4D36-8EE5-A181AC622CF6}"/>
+    <hyperlink ref="A66" r:id="rId64" xr:uid="{25E7A983-BA2B-4A8B-8720-48039A164479}"/>
+    <hyperlink ref="A67" r:id="rId65" xr:uid="{1621BBF1-DC94-4DC6-BFBD-947D15BF245B}"/>
+    <hyperlink ref="A68" r:id="rId66" xr:uid="{C31AC3A6-8EBC-4168-8EEF-9C2A69F7992D}"/>
+    <hyperlink ref="A69" r:id="rId67" xr:uid="{1BA68BD4-FFE5-40B4-B642-30213BADCC3F}"/>
+    <hyperlink ref="A70" r:id="rId68" xr:uid="{C620A5ED-D0CF-4361-A555-047B3C05D5B6}"/>
+    <hyperlink ref="A71" r:id="rId69" xr:uid="{04BA5624-67F4-4213-890A-25F9CC511E29}"/>
+    <hyperlink ref="A72" r:id="rId70" xr:uid="{6554A7D2-E11A-43ED-9B4B-FD74C8032A26}"/>
+    <hyperlink ref="A73" r:id="rId71" xr:uid="{43198718-8984-4E38-A733-AFAB8634A372}"/>
+    <hyperlink ref="A74" r:id="rId72" xr:uid="{6DBF862F-DBD7-4E02-A3C8-FA5D76A83CD6}"/>
+    <hyperlink ref="A75" r:id="rId73" xr:uid="{0C37327B-6B83-4088-914B-6E41787A707D}"/>
+    <hyperlink ref="A76" r:id="rId74" xr:uid="{28ACFA9A-E7F4-49BC-A870-342BB71F87A4}"/>
+    <hyperlink ref="A77" r:id="rId75" xr:uid="{A185B735-B194-40D4-A098-A046D6D59E05}"/>
+    <hyperlink ref="A78" r:id="rId76" xr:uid="{00AFD740-1929-46BB-BDD1-FD0109879BFB}"/>
+    <hyperlink ref="A79" r:id="rId77" xr:uid="{98A108B6-BF66-4BF4-ACC8-3D7EBAAB0F7D}"/>
+    <hyperlink ref="A80" r:id="rId78" display="nadri_s@zums.ac.ir  " xr:uid="{9F83C108-A7B4-4D0B-B129-D00E8E001BBF}"/>
+    <hyperlink ref="A81" r:id="rId79" xr:uid="{D02FECE9-4914-4CFB-8F9C-FCEFD96AC814}"/>
+    <hyperlink ref="A82" r:id="rId80" xr:uid="{82B29F41-0845-4126-ADA7-94985FF813AC}"/>
+    <hyperlink ref="A83" r:id="rId81" xr:uid="{58049502-D350-4999-BDFC-54B1C80FE7C1}"/>
+    <hyperlink ref="A84" r:id="rId82" xr:uid="{92942971-370B-4025-98BB-67BB60EEFC11}"/>
+    <hyperlink ref="A85" r:id="rId83" xr:uid="{32265B7B-EF8D-4D98-B612-EA0E1D407123}"/>
+    <hyperlink ref="A86" r:id="rId84" xr:uid="{054E9D19-60BD-489C-9A9A-43908F8E49EC}"/>
+    <hyperlink ref="A87" r:id="rId85" xr:uid="{664FB28F-784D-4E3F-ACB9-A74A11C04E78}"/>
+    <hyperlink ref="A88" r:id="rId86" xr:uid="{59476CE4-7832-41C2-A091-404CBD7844CD}"/>
+    <hyperlink ref="A89" r:id="rId87" xr:uid="{C89A4D6D-6A54-4AAE-B1FA-D13A19DF3824}"/>
+    <hyperlink ref="A90" r:id="rId88" xr:uid="{32B9C080-5690-4A16-91DA-5AADAD9E6249}"/>
+    <hyperlink ref="A91" r:id="rId89" xr:uid="{D978A2CF-68A3-455D-8B3C-BC7F6E8F5EAA}"/>
+    <hyperlink ref="A92" r:id="rId90" xr:uid="{90678AEF-E03C-44B9-AD45-27EBFE105CD0}"/>
+    <hyperlink ref="A93" r:id="rId91" xr:uid="{95EB8F30-4C9E-4FF9-8656-AEDC650E0435}"/>
+    <hyperlink ref="A94" r:id="rId92" xr:uid="{66CBA257-459B-4276-9EA0-F6A4C469057D}"/>
+    <hyperlink ref="A95" r:id="rId93" xr:uid="{019BB3B1-D9F4-41C1-BB00-320F1F76F65F}"/>
+    <hyperlink ref="A96" r:id="rId94" xr:uid="{8214465D-0D33-4765-955D-B2274A9DF4CE}"/>
+    <hyperlink ref="A97" r:id="rId95" xr:uid="{C4A3FA77-D9CF-4CAD-BBB6-1F1980742F25}"/>
+    <hyperlink ref="A98" r:id="rId96" xr:uid="{FF59407F-6829-4C32-9B15-0BA62BB6AF51}"/>
+    <hyperlink ref="A99" r:id="rId97" xr:uid="{68A23C69-DF70-4216-ADD1-7D3846CBB678}"/>
+    <hyperlink ref="A100" r:id="rId98" xr:uid="{14F181A4-FDB2-4234-9B08-AA32DA89D6B0}"/>
+    <hyperlink ref="A101" r:id="rId99" xr:uid="{EDC80657-FFE4-46B3-BE80-AD9A1EFFB4B4}"/>
+    <hyperlink ref="A102" r:id="rId100" xr:uid="{24B688CA-CFC8-43BD-81A1-A5AA05C72A25}"/>
+    <hyperlink ref="A103" r:id="rId101" xr:uid="{4462ABD1-2FCC-4F80-83E3-1187DFD492F4}"/>
+    <hyperlink ref="A104" r:id="rId102" xr:uid="{C3A63646-BE7B-485E-8AA5-D20AB4169DFB}"/>
+    <hyperlink ref="A105" r:id="rId103" xr:uid="{2A5C5D1B-01E1-4E55-959B-86852B81A0B6}"/>
+    <hyperlink ref="A106" r:id="rId104" xr:uid="{DF869774-D716-4C9D-A04B-B34D776CB7DE}"/>
+    <hyperlink ref="A107" r:id="rId105" xr:uid="{AAC7D201-94F8-45FA-B159-907F4A86C5F3}"/>
+    <hyperlink ref="A108" r:id="rId106" xr:uid="{E7A72C02-AAB3-422F-AEA3-0E7DFABEF094}"/>
+    <hyperlink ref="A109" r:id="rId107" display="dalghin68@yahoo.com" xr:uid="{AC6A03A9-FD33-423E-A5F3-245213B01D3A}"/>
+    <hyperlink ref="A110" r:id="rId108" xr:uid="{82176CD4-DB3D-4076-A172-FE678F005F73}"/>
+    <hyperlink ref="A111" r:id="rId109" xr:uid="{915F6BE8-75C5-49D2-B222-B48DA2362297}"/>
+    <hyperlink ref="A112" r:id="rId110" xr:uid="{AED28940-72FB-47A7-8461-869E24ACE58D}"/>
+    <hyperlink ref="A113" r:id="rId111" xr:uid="{B7782086-6411-452A-A1A4-4A273EF3264B}"/>
+    <hyperlink ref="A114" r:id="rId112" xr:uid="{E3238D9A-3324-4F15-9E7D-8470919DCBFC}"/>
+    <hyperlink ref="A115" r:id="rId113" xr:uid="{DD59FACC-8F8F-49F6-8747-98F18F68527B}"/>
+    <hyperlink ref="A116" r:id="rId114" xr:uid="{05900F0B-5FA4-4BF5-9367-BDA18AA958DE}"/>
+    <hyperlink ref="A117" r:id="rId115" xr:uid="{2FA8F11D-2EEC-473E-9E70-8AAB0659B6E3}"/>
+    <hyperlink ref="A118" r:id="rId116" xr:uid="{A1553066-CCF0-4A3A-BF93-86FC35690ECD}"/>
+    <hyperlink ref="A119" r:id="rId117" xr:uid="{0D196D4F-1FA7-438B-8338-F923007C08F5}"/>
+    <hyperlink ref="A120" r:id="rId118" xr:uid="{FACB7F3D-C512-4A5F-AA6F-061B5F26F61A}"/>
+    <hyperlink ref="A121" r:id="rId119" xr:uid="{341660B4-0CD6-4682-8D84-808829A7A3ED}"/>
+    <hyperlink ref="A122" r:id="rId120" xr:uid="{32F4CF45-9A0D-482B-807C-4A4EA76E5A88}"/>
+    <hyperlink ref="A123" r:id="rId121" xr:uid="{1801A917-4DE2-4266-9525-1AE949A1E5E5}"/>
+    <hyperlink ref="A124" r:id="rId122" xr:uid="{52E6438B-FC32-46C5-B7E3-D27DF61CFCBB}"/>
+    <hyperlink ref="A125" r:id="rId123" xr:uid="{435961F5-2040-47C4-BBFE-C6FC4DA7E0E6}"/>
+    <hyperlink ref="A126" r:id="rId124" xr:uid="{9FD6E7AA-C0D2-4C65-8862-B96419BC53B3}"/>
+    <hyperlink ref="A127" r:id="rId125" xr:uid="{D877D98E-3D43-46F5-9A0B-26D89395EFD6}"/>
+    <hyperlink ref="A128" r:id="rId126" xr:uid="{E7E3EA8C-245E-4560-960A-9695801551EE}"/>
+    <hyperlink ref="A129" r:id="rId127" xr:uid="{1BD6CE31-1F75-44B9-BA57-E9C411EA9206}"/>
+    <hyperlink ref="A130" r:id="rId128" xr:uid="{DD08F788-874F-4A14-AC37-D587D73F4EF9}"/>
+    <hyperlink ref="A131" r:id="rId129" xr:uid="{FE5F2648-8A41-4DAF-B463-E38D9232655A}"/>
+    <hyperlink ref="A132" r:id="rId130" xr:uid="{A022FF20-63CD-475E-BDEC-48C2860015E8}"/>
+    <hyperlink ref="A133" r:id="rId131" xr:uid="{A94FD184-94EF-41F4-93D4-4B0B15AB5F9A}"/>
+    <hyperlink ref="A134" r:id="rId132" xr:uid="{E9240F33-691D-4B5F-A3E2-DE97386A62E1}"/>
+    <hyperlink ref="A135" r:id="rId133" xr:uid="{81F3491C-C9DF-455E-B9F9-42D714B734F4}"/>
+    <hyperlink ref="A136" r:id="rId134" xr:uid="{EC741294-7E8E-46DE-99EE-32FB115470AE}"/>
+    <hyperlink ref="A137" r:id="rId135" xr:uid="{F35BBEA2-2FF8-4F2F-9211-EDCAE6C8146B}"/>
+    <hyperlink ref="A138" r:id="rId136" xr:uid="{1725FC26-EE9C-4238-AC0A-0AD6EBD96A01}"/>
+    <hyperlink ref="A139" r:id="rId137" xr:uid="{4D2BB732-D71F-490D-8D6B-2170CBDA857D}"/>
+    <hyperlink ref="A140" r:id="rId138" xr:uid="{CE9314BF-BB09-42CA-A0A1-D060115C7319}"/>
+    <hyperlink ref="A141" r:id="rId139" xr:uid="{B804D0D6-EEE0-40FF-AA73-A6FA9944F184}"/>
+    <hyperlink ref="A142" r:id="rId140" xr:uid="{5AE9BDA9-83A5-40F1-A299-9EA7595B0BD3}"/>
+    <hyperlink ref="A143" r:id="rId141" xr:uid="{B9D05B7D-4C02-48A2-8D9D-760030E6DB79}"/>
+    <hyperlink ref="A144" r:id="rId142" xr:uid="{0A293059-F9C0-484B-B5A6-7A2B12BFAE69}"/>
+    <hyperlink ref="A145" r:id="rId143" xr:uid="{0B00E371-CB51-4F1B-BB7B-0A75A8C92086}"/>
+    <hyperlink ref="A146" r:id="rId144" xr:uid="{515D4454-25F6-465C-901B-7604B1F8B5C8}"/>
+    <hyperlink ref="A147" r:id="rId145" xr:uid="{1AA92820-6923-4C91-BF5E-438895234322}"/>
+    <hyperlink ref="A148" r:id="rId146" xr:uid="{A7F93362-636F-40FE-B094-77E024FC1A0E}"/>
+    <hyperlink ref="A149" r:id="rId147" xr:uid="{7029D463-E64F-4DED-B25D-9195CF8ABA22}"/>
+    <hyperlink ref="A150" r:id="rId148" xr:uid="{5F0410C4-129E-4FB8-B18E-E755F93DC536}"/>
+    <hyperlink ref="A151" r:id="rId149" xr:uid="{F790B2D9-E7C2-4416-9001-67201969FDA1}"/>
+    <hyperlink ref="A152" r:id="rId150" xr:uid="{0D74A262-06CA-40ED-8757-17B295DBDD96}"/>
+    <hyperlink ref="A153" r:id="rId151" xr:uid="{FD55CDC8-7F75-480A-8729-93BE3B876EF1}"/>
+    <hyperlink ref="A154" r:id="rId152" xr:uid="{BB4FEE8B-4F3E-4D93-AD2B-4C945C1FEFC5}"/>
+    <hyperlink ref="A155" r:id="rId153" xr:uid="{2A9B9B16-2EFB-4AB5-B219-5E0B4931A602}"/>
+    <hyperlink ref="A156" r:id="rId154" xr:uid="{157D1B7C-3B0E-48FB-AA46-AEF1287F177C}"/>
+    <hyperlink ref="A157" r:id="rId155" xr:uid="{F1EB4F74-C484-4879-A203-02B2E5A31854}"/>
+    <hyperlink ref="A158" r:id="rId156" xr:uid="{F6BAB08B-7FB0-488A-BDA1-4432AA309938}"/>
+    <hyperlink ref="A159" r:id="rId157" xr:uid="{D7281387-67B3-4503-BEFF-19D8605174CA}"/>
+    <hyperlink ref="A160" r:id="rId158" xr:uid="{88EF02B8-9341-4882-B097-7E870874E756}"/>
+    <hyperlink ref="A161" r:id="rId159" xr:uid="{0E53DA7B-B971-4A21-8191-B757193CAA63}"/>
+    <hyperlink ref="A162" r:id="rId160" xr:uid="{94FAF243-CBC1-414B-B95E-FA55BB1C58CA}"/>
+    <hyperlink ref="A163" r:id="rId161" xr:uid="{D3A2CE8F-F142-42FC-AD25-11424971B716}"/>
+    <hyperlink ref="A164" r:id="rId162" xr:uid="{94C91573-54BB-4DA3-9A67-4E0B6114F873}"/>
+    <hyperlink ref="A684" r:id="rId163" display="http://sph.tums.ac.ir/" xr:uid="{3D4168AA-DDB6-4905-A524-816C4805EA6B}"/>
+    <hyperlink ref="A699" r:id="rId164" xr:uid="{00EE04C8-A6C6-452C-AFEF-8F367D3CD333}"/>
+    <hyperlink ref="A700" r:id="rId165" xr:uid="{33725344-787A-4300-B725-DC18FA2509B1}"/>
+    <hyperlink ref="A701" r:id="rId166" xr:uid="{1122A989-FE0F-413F-8081-BC0C28F9E70C}"/>
+    <hyperlink ref="A702" r:id="rId167" xr:uid="{044CA121-3064-4B82-BECC-0E30DAE46CF0}"/>
+    <hyperlink ref="A703" r:id="rId168" xr:uid="{95A99DB2-34B7-4D06-9EAE-DCE595092377}"/>
+    <hyperlink ref="A704" r:id="rId169" xr:uid="{F8EEAE71-CCAD-4259-99BB-5BC85F23B4C2}"/>
+    <hyperlink ref="A705" r:id="rId170" display="mailto:rezaeizadeh@tums.ac.ir" xr:uid="{637D7D0C-7BFD-4034-AB07-15873F3AD06B}"/>
+    <hyperlink ref="A707" r:id="rId171" xr:uid="{1B0B9AFA-DFAA-4C24-BD46-D061D4D8FBFF}"/>
+    <hyperlink ref="A708" r:id="rId172" xr:uid="{E5685AF4-660A-417C-B227-CCF98A4A4D73}"/>
+    <hyperlink ref="A709" r:id="rId173" xr:uid="{2DCC835F-0A30-4878-A8D3-76895528B9E9}"/>
+    <hyperlink ref="A710" r:id="rId174" display="mailto:sina.marashi@gmail.com" xr:uid="{4A972128-57BE-4C02-8A08-6CE0CAC8DC05}"/>
+    <hyperlink ref="A711" r:id="rId175" xr:uid="{4D7F4295-1A4B-46C6-A07C-94BF5A0E8482}"/>
+    <hyperlink ref="A713" r:id="rId176" xr:uid="{CC3A65CB-75E2-43B7-BD82-67C5D2321DE8}"/>
+    <hyperlink ref="A714" r:id="rId177" xr:uid="{CE8D31F9-21E4-4603-8322-E9BF9E502531}"/>
+    <hyperlink ref="A715" r:id="rId178" xr:uid="{9EB92218-7F96-4D98-82C5-35BCF8026212}"/>
+    <hyperlink ref="A716" r:id="rId179" xr:uid="{005627B1-346C-472E-8859-E939CAF295E4}"/>
+    <hyperlink ref="A717" r:id="rId180" xr:uid="{45B5F462-A1D9-4300-B2ED-98D5F10824B6}"/>
+    <hyperlink ref="A718" r:id="rId181" xr:uid="{7EF175F4-C70F-4FEA-82E9-741F6D8A4365}"/>
+    <hyperlink ref="A719" r:id="rId182" xr:uid="{E903A1C2-0A18-40F6-B823-4A23BD97F679}"/>
+    <hyperlink ref="A720" r:id="rId183" xr:uid="{5992459D-D657-487B-94F2-5D208416F424}"/>
+    <hyperlink ref="A721" r:id="rId184" xr:uid="{35D7F4E2-F541-4D28-BCC7-9430A058101A}"/>
+    <hyperlink ref="A722" r:id="rId185" xr:uid="{D8CAB375-CDB5-4779-A448-48C53B0A0EAD}"/>
+    <hyperlink ref="A723" r:id="rId186" xr:uid="{6B94353C-3963-47DF-90FB-EC16AB08BE98}"/>
+    <hyperlink ref="A724" r:id="rId187" xr:uid="{3B95098B-A294-48B6-9B08-F8D31A74B130}"/>
+    <hyperlink ref="A725" r:id="rId188" xr:uid="{3FAD5F88-2E5B-4BB6-9553-A1DB52FAD040}"/>
+    <hyperlink ref="A726" r:id="rId189" xr:uid="{FDA403CD-DA39-4140-B70C-ABC10A595221}"/>
+    <hyperlink ref="A727" r:id="rId190" xr:uid="{C9B6FAE1-075C-4B41-BD21-9AE247B2877C}"/>
+    <hyperlink ref="A728" r:id="rId191" xr:uid="{CEC6ACF1-4BE1-471E-AA03-F3C76C25B8EF}"/>
+    <hyperlink ref="A729" r:id="rId192" xr:uid="{82273192-A0A3-4ED8-9041-A772DBC6563E}"/>
+    <hyperlink ref="A730" r:id="rId193" xr:uid="{F92440DA-70B4-41C5-966C-5B041299F00C}"/>
+    <hyperlink ref="A731" r:id="rId194" xr:uid="{AB516E97-62C2-4AC2-A35D-3B8DF1803352}"/>
+    <hyperlink ref="A732" r:id="rId195" xr:uid="{24B1AC24-FB37-4270-B781-1DF0D659FC87}"/>
+    <hyperlink ref="A733" r:id="rId196" xr:uid="{8264521C-F733-4C81-B05F-F8944D9633E1}"/>
+    <hyperlink ref="A734" r:id="rId197" xr:uid="{990B9AAF-D90C-4E1A-9DB6-43A67FD0104D}"/>
+    <hyperlink ref="A740" r:id="rId198" display="mailto:mahya.rahmani@gmail.com" xr:uid="{3205E694-56C2-4096-983C-905840DFAE23}"/>
+    <hyperlink ref="A741" r:id="rId199" display="mailto:nazeriali2007@yahoo.com" xr:uid="{CEF5CD3F-F610-400F-8048-B3990F025B3E}"/>
+    <hyperlink ref="A742" r:id="rId200" display="mailto:m-nikbakht@razi.tums.ac.ir" xr:uid="{FA4E8121-AC7B-4302-9F1B-A056EA343417}"/>
+    <hyperlink ref="A743" r:id="rId201" display="mailto:a.valizadeh_medicalnano@yahoo,com" xr:uid="{65162598-D89D-4463-8256-22A0255DA976}"/>
+    <hyperlink ref="A744" r:id="rId202" display="mailto:asghari_mnt@yahoo.com" xr:uid="{81F07F8F-1694-45BC-BAFB-0A34E3228CAD}"/>
+    <hyperlink ref="A745" r:id="rId203" display="mailto:biophysicsiasbs@yahoo.com" xr:uid="{9F3D4CAD-3A45-421E-9AAF-AB5D90160699}"/>
+    <hyperlink ref="A746" r:id="rId204" display="mailto:hasanmaleki95@yahoo.com" xr:uid="{8DC23226-1A61-45F3-8381-A171ED7DB306}"/>
+    <hyperlink ref="A747" r:id="rId205" display="mailto:najmehketabchi@yahoo.com" xr:uid="{153CA2DA-2C78-4F19-B6EF-8F7072260691}"/>
+    <hyperlink ref="A748" r:id="rId206" display="mailto:mortezakamali1979@gmail.com" xr:uid="{37881458-BBCD-447D-9B27-AEA473849C67}"/>
+    <hyperlink ref="A749" r:id="rId207" display="mailto:marya.sharif90@yahoo.com" xr:uid="{86F4CBF7-7B72-4313-8836-5C10FD86CE72}"/>
+    <hyperlink ref="A750" r:id="rId208" display="mailto:bahrani.s6412@yahoo.com" xr:uid="{92C25970-8236-4908-9DC3-363795F0D683}"/>
+    <hyperlink ref="A751" r:id="rId209" display="mailto:naserineda1989@gmail.com" xr:uid="{01473793-8055-49DB-8AAB-FA249A8FBE3C}"/>
+    <hyperlink ref="A752" r:id="rId210" display="mailto:mosafarkhanis@gmail.com" xr:uid="{2DCBA322-12CE-43D7-9BDB-7B6B27A894C5}"/>
+    <hyperlink ref="A753" r:id="rId211" display="mailto:elnazshaabani91@gmail.com" xr:uid="{EB35E4B6-7E1A-487C-A227-295242517B27}"/>
+    <hyperlink ref="A754" r:id="rId212" display="mailto:hasanpourakram@gmail.com" xr:uid="{9BA7B431-3196-417A-80E2-1966E8DD2251}"/>
+    <hyperlink ref="A755" r:id="rId213" display="mailto:gharatape_ar@yahoo.com" xr:uid="{B7C94467-AAAE-41E0-BB3A-87DB9D1AB966}"/>
+    <hyperlink ref="A756" r:id="rId214" display="mailto:azarnajafi.tsh@gmail.com" xr:uid="{292CC52C-1F09-4BE2-BF79-99AAE0D82228}"/>
+    <hyperlink ref="A757" r:id="rId215" display="mailto:beheshtkhoo.nano@gmail.com" xr:uid="{3F972A5B-D29A-42FD-8FF2-A74CC94B2533}"/>
+    <hyperlink ref="A758" r:id="rId216" display="mailto:mmalekpour@razi.tums.ac.ir" xr:uid="{1879CB5B-A60C-40E9-BD73-A7F4D0268A0D}"/>
+    <hyperlink ref="A759" r:id="rId217" display="mailto:amanzadi@yahoo.com" xr:uid="{64CAE73D-6D91-41F6-BE38-EEE8D9849219}"/>
+    <hyperlink ref="A760" r:id="rId218" display="mailto:aminjadidi1993@gmail.com" xr:uid="{E176E1B3-24D8-4F94-BDF4-E122C228F7A5}"/>
+    <hyperlink ref="A761" r:id="rId219" display="mailto:mmonfaredd@gmail.com" xr:uid="{39295873-B9CE-4081-AE28-D152CAB8D80D}"/>
+    <hyperlink ref="A762" r:id="rId220" display="mailto:doostan.mahtab@gmail.com" xr:uid="{662DBC40-A99B-4838-85E8-80095D9D104B}"/>
+    <hyperlink ref="A763" r:id="rId221" display="mailto:hasani.njf@gmail.com" xr:uid="{9C7ED6B9-B333-46FE-A5F4-BD7CD5234F0A}"/>
+    <hyperlink ref="A764" r:id="rId222" display="mailto:ali-dehghan70@yahoo.com" xr:uid="{EC993113-EDDB-432F-B7CC-6E1A98337E56}"/>
+    <hyperlink ref="A765" r:id="rId223" display="mailto:khorsand_fa@yahoo.com" xr:uid="{D878E0D7-C889-4DC9-B79B-41BEBF6A20B8}"/>
+    <hyperlink ref="A766" r:id="rId224" display="mailto:amingholizadeh71@gmail.com" xr:uid="{B5973EB7-EB99-415A-90AC-9381C64A6643}"/>
+    <hyperlink ref="A767" r:id="rId225" display="mailto:maryam-khodadadi@hotmail.com" xr:uid="{26A784EB-4963-4CC1-AACA-57E6C6BA2B74}"/>
+    <hyperlink ref="A768" r:id="rId226" display="mailto:dar.rahban777@gmail.com" xr:uid="{F8FDB738-4886-485C-BFEC-DD1AB5F290EE}"/>
+    <hyperlink ref="A769" r:id="rId227" display="mailto:ezio1441@yahoo.com" xr:uid="{74CAA2DF-BE05-422E-9BAE-45424BA2A2CF}"/>
+    <hyperlink ref="A770" r:id="rId228" display="mailto:hana.gm125@gmail.com" xr:uid="{98E3B1CB-842B-4F1F-8BA0-E0E425D88703}"/>
+    <hyperlink ref="A771" r:id="rId229" display="mailto:alinut4147@gmail.com" xr:uid="{32B3C0A0-22F3-4429-A742-7127E7A6D1EE}"/>
+    <hyperlink ref="A772" r:id="rId230" display="mailto:elnazalmasi95@yahoo.com" xr:uid="{49CD0E4D-E799-4BCF-ABAE-280DC4CFBAF0}"/>
+    <hyperlink ref="A773" r:id="rId231" display="mailto:gavanji.k@gmail.com" xr:uid="{C46DBD8D-A380-4ADC-90EB-B5E479DF31EF}"/>
+    <hyperlink ref="A774" r:id="rId232" display="mailto:sarahzokaasadi@gmail.com" xr:uid="{8D3D01DC-6DAB-4266-915D-40A8F12F326A}"/>
+    <hyperlink ref="A775" r:id="rId233" display="mailto:hannaneh_6929@yahoo.com" xr:uid="{7C4868AB-1A04-479E-B19B-2AC87DB578B4}"/>
+    <hyperlink ref="A776" r:id="rId234" display="mailto:fa.fayazbakhsh@gmail.com" xr:uid="{92DE85B4-7960-4EA6-B668-6F08E2639710}"/>
+    <hyperlink ref="A777" r:id="rId235" display="mailto:pooyaatshin1994@yahoo.com" xr:uid="{360C03AE-4EED-4AE9-8139-5425274768E7}"/>
+    <hyperlink ref="A778" r:id="rId236" display="mailto:mohamad_musavi73@yahoo.com" xr:uid="{A41DB1D7-8038-4A4C-8442-DC15B7BF6381}"/>
+    <hyperlink ref="A779" r:id="rId237" display="mailto:misaghft1995@gmail.com" xr:uid="{8FABBFC9-4BD5-4804-9D2F-227D82A099FC}"/>
+    <hyperlink ref="A780" r:id="rId238" display="mailto:f.bagheri.3223@gmail.com" xr:uid="{99A696B3-3C11-448B-A3A5-3EB1E4B71681}"/>
+    <hyperlink ref="A781" r:id="rId239" display="mailto:sun.mansoori@gmail.com" xr:uid="{AF1E3088-6CE5-4C77-8947-17504F08B632}"/>
+    <hyperlink ref="A782" r:id="rId240" display="mailto:hdialabadi@yahoo.com" xr:uid="{C6440C56-959D-469E-9E70-D6ED92D85340}"/>
+    <hyperlink ref="A783" r:id="rId241" display="mailto:mohammad.akbar935@gmail.com" xr:uid="{D19F699B-F06F-4B07-B159-FEBC18D7BD61}"/>
+    <hyperlink ref="A784" r:id="rId242" display="mailto:sina.seif@gmail.com" xr:uid="{EB4BE757-FA08-486B-A058-8EEC5127D949}"/>
+    <hyperlink ref="A785" r:id="rId243" display="mailto:noroozmaryam@gmail.com" xr:uid="{E4EDAFEE-C922-43A0-A52F-77443221C2AF}"/>
+    <hyperlink ref="A786" r:id="rId244" display="mailto:anise.zamrou@gmail.com" xr:uid="{93F0F4FF-88ED-4CE7-89B6-9F1706B03DE1}"/>
+    <hyperlink ref="A787" r:id="rId245" display="mailto:fatemehmonzavi@yahoo.com" xr:uid="{AAA807E0-0396-4CFD-9C99-2FFC35ACA4D7}"/>
+    <hyperlink ref="A788" r:id="rId246" display="mailto:om.mojarad@gmail.com" xr:uid="{6C04B349-13C5-471A-BA1C-CBA408F1C7F2}"/>
+    <hyperlink ref="A789" r:id="rId247" display="mailto:f.sasani08@gmail.com" xr:uid="{C8B91706-BD71-4CFE-9DB8-E7D63C244CAC}"/>
+    <hyperlink ref="A790" r:id="rId248" display="mailto:mgaravand90@gmail.com" xr:uid="{FD6E2E05-DB1F-49D5-85F9-9D3E1CEA0E51}"/>
+    <hyperlink ref="A791" r:id="rId249" display="mailto:fesmaeili2002@yahoo.com" xr:uid="{2A31932B-6D08-4C88-9A8E-7961CD57DF57}"/>
+    <hyperlink ref="A792" r:id="rId250" xr:uid="{C4766EC1-47AE-462E-9A46-622EE3353EFC}"/>
+    <hyperlink ref="A2" r:id="rId251" xr:uid="{3BA7E4E7-AE30-4B8B-B356-D13AB904828B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId254"/>
+  <pageSetup orientation="portrait" r:id="rId252"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihranw\Desktop\Tools\Email Sender\Group-MailSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578445C-E4A0-48C7-81E3-5457CD74F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B3F69D-6AED-43B6-8D9D-F8FCB2E16D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{BC0D1A69-BB01-41F3-8244-CA01FFABFD31}"/>
   </bookViews>
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="791">
-  <si>
-    <t xml:space="preserve">a.abdollahi3360@gmail.com a.abdollahi1360@gmail.com
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="793">
   <si>
     <t>melika.khaleghi@ymail.com</t>
-  </si>
-  <si>
-    <t>panjali@sbmu.ac.ir
-Panjali.z68@gmail.com  Zahra_p68@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">ebrahimi.morvarid1992@gmail.com
@@ -2405,13 +2397,27 @@
   </si>
   <si>
     <t>mihranw@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.abdollahi3360@gmail.com
+</t>
+  </si>
+  <si>
+    <t>panjali@sbmu.ac.ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Panjali.z68@gmail.com  </t>
+  </si>
+  <si>
+    <t>Zahra_p68@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2434,35 +2440,61 @@
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2548,43 +2580,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2904,4229 +2936,4239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204445F9-42B8-44C4-A257-AC75DA5EB6D7}">
-  <dimension ref="A1:A792"/>
+  <dimension ref="A1:A794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="16" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="43" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
+    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
+    <row r="162" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
+    <row r="163" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="6" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="6" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="6" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="6" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="6" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="6" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="6" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="6" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="6" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="6" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="6" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="6" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="6" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="6" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="6" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="6" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="6" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="6" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="6" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="6" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="6" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="6" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="6" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="6" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="6" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="6" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="6" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="6" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="6" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="6" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="6" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="6" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="6" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="6" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="6" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="6" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="6" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="6" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="6" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="6" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="6" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="6" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="6" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="6" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="6" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="6" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="6" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="6" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="6" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="6" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="6" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="6" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="6" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="6" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="6" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="6" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="6" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="6" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="6" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="6" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="6" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="6" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="6" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="6" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="6" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="6" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="6" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="6" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="6" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="6" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="6" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="6" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="6" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="6" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="6" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="6" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="6" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="6" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="6" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="6" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="6" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="6" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="6" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="6" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="6" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="6" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="6" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="6" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="6" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="6" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="6" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="6" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="6" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="6" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" s="6" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="6" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="6" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="6" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" s="6" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" s="6" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" s="6" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" s="6" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" s="6" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="6" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" s="6" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" s="6" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" s="6" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" s="6" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="6" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" s="6" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="6" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" s="6" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="6" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" s="6" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" s="6" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" s="6" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="6" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" s="6" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" s="6" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" s="6" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" s="6" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" s="6" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" s="6" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" s="6" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" s="6" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" s="6" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" s="6" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" s="6" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" s="6" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" s="6" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" s="6" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" s="6" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" s="6" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" s="6" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" s="6" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" s="6" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" s="6" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" s="6" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" s="6" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" s="6" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" s="6" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" s="6" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" s="6" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" s="6" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" s="6" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" s="6" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311" s="6" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312" s="6" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313" s="6" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314" s="6" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A315" s="6" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A316" s="6" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A317" s="6" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A318" s="6" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A319" s="6" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A320" s="6" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A321" s="6" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A322" s="6" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A323" s="6" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A324" s="6" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A325" s="6" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A326" s="6" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A327" s="6" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A328" s="6" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A329" s="6" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A330" s="6" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A331" s="6" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A332" s="6" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A333" s="6" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A334" s="6" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A335" s="6" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A336" s="6" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A337" s="6" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A338" s="6" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A339" s="6" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A340" s="6" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A341" s="6" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A342" s="6" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A343" s="6" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A344" s="6" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A345" s="6" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A346" s="6" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A347" s="6" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A348" s="6" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A349" s="6" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A350" s="6" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A351" s="6" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A352" s="6" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A353" s="6" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A354" s="6" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A355" s="6" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A356" s="6" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A357" s="6" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A358" s="6" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A359" s="6" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A360" s="6" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A361" s="6" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A362" s="6" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A363" s="6" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A364" s="6" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A365" s="6" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A366" s="6" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A367" s="6" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A368" s="6" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A369" s="6" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A370" s="6" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A371" s="6" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A372" s="6" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A373" s="6" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A374" s="6" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A375" s="6" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A376" s="6" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A377" s="6" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A378" s="6" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A379" s="6" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A380" s="6" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A381" s="6" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A382" s="6" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A383" s="6" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A384" s="6" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A385" s="6" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A386" s="6" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A387" s="6" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A388" s="6" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A389" s="6" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A390" s="6" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A391" s="6" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A392" s="6" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A393" s="6" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A394" s="6" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A395" s="6" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A396" s="6" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A397" s="6" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A398" s="6" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A399" s="6" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A400" s="6" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A401" s="6" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A402" s="6" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A403" s="6" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A404" s="6" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A405" s="6" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A406" s="6" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A407" s="6" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A408" s="6" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A409" s="6" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A410" s="6" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A411" s="6" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A412" s="6" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A413" s="6" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A414" s="6" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A415" s="6" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A416" s="6" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A417" s="6" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A418" s="6" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A419" s="6" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A420" s="6" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A421" s="6" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A422" s="6" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A423" s="6" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A424" s="6" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A425" s="6" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A426" s="6" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A427" s="6" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A428" s="6" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A429" s="6" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A430" s="6" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A431" s="6" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A432" s="6" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A433" s="6" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A434" s="6" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A435" s="6" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A436" s="6" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A437" s="6" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A438" s="6" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A439" s="6" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A440" s="6" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A441" s="6" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A442" s="6" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A443" s="6" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A444" s="6" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A445" s="6" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A446" s="6" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A447" s="6" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A448" s="6" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A449" s="6" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A450" s="6" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A451" s="6" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A452" s="6" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A453" s="6" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A454" s="6" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A455" s="6" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A456" s="6" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A457" s="6" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A458" s="6" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A459" s="6" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A460" s="6" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A461" s="6" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A462" s="6" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A463" s="6" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A464" s="6" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A465" s="6" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A466" s="6" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A467" s="6" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A468" s="6" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A469" s="6" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A470" s="6" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A471" s="6" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A472" s="6" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A473" s="6" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A474" s="6" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A475" s="6" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A476" s="6" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A477" s="6" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A478" s="6" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A479" s="6" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A480" s="6" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A481" s="6" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A485" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A482" s="6" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A483" s="6" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A487" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A484" s="6" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A488" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A485" s="6" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A486" s="6" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A490" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A487" s="6" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A488" s="6" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A489" s="6" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A490" s="6" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A494" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A491" s="6" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A492" s="6" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A493" s="6" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A497" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A494" s="6" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A495" s="6" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A499" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A496" s="6" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A500" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A497" s="6" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A498" s="6" t="s">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A499" s="6" t="s">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A500" s="6" t="s">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A504" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A501" s="6" t="s">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A505" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A502" s="6" t="s">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A503" s="6" t="s">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A504" s="6" t="s">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A508" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A505" s="6" t="s">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A506" s="6" t="s">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A507" s="6" t="s">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A511" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A508" s="6" t="s">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A512" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A509" s="6" t="s">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A513" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A510" s="6" t="s">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A511" s="6" t="s">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A512" s="6" t="s">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A513" s="6" t="s">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A514" s="6" t="s">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A515" s="6" t="s">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A516" s="6" t="s">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A517" s="6" t="s">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A518" s="6" t="s">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A519" s="6" t="s">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A520" s="6" t="s">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A521" s="6" t="s">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A522" s="6" t="s">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A523" s="6" t="s">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A524" s="6" t="s">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A525" s="6" t="s">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A529" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A526" s="6" t="s">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A530" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A527" s="6" t="s">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A531" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A528" s="6" t="s">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A532" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A529" s="6" t="s">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A533" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A530" s="6" t="s">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A534" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A531" s="6" t="s">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A535" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A532" s="6" t="s">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A536" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A533" s="6" t="s">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A537" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A534" s="6" t="s">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A538" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A535" s="6" t="s">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A539" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A536" s="6" t="s">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A540" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A537" s="6" t="s">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A541" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A538" s="6" t="s">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A542" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A539" s="6" t="s">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A543" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A540" s="6" t="s">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A544" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A541" s="6" t="s">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A545" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A542" s="6" t="s">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A546" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A543" s="6" t="s">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A547" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A544" s="6" t="s">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A548" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A545" s="6" t="s">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A549" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A546" s="6" t="s">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A550" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A547" s="6" t="s">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A551" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A548" s="6" t="s">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A552" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A549" s="6" t="s">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A553" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A550" s="6" t="s">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A554" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A551" s="6" t="s">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A555" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A552" s="6" t="s">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A556" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A553" s="6" t="s">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A557" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A554" s="6" t="s">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A558" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A555" s="6" t="s">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A559" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A556" s="6" t="s">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A560" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A557" s="6" t="s">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A558" s="6" t="s">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A562" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A559" s="6" t="s">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A560" s="6" t="s">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A561" s="6" t="s">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A562" s="6" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A563" s="6" t="s">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A567" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A564" s="6" t="s">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A565" s="6" t="s">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A566" s="6" t="s">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A570" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A567" s="6" t="s">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A568" s="6" t="s">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A569" s="6" t="s">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A570" s="6" t="s">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A571" s="6" t="s">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A572" s="6" t="s">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A573" s="6" t="s">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A574" s="6" t="s">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A578" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A575" s="8" t="s">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A579" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A576" s="6" t="s">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A577" s="6" t="s">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A578" s="6" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A579" s="6" t="s">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A580" s="6" t="s">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A581" s="6" t="s">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A582" s="6" t="s">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A583" s="6" t="s">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A584" s="6" t="s">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A585" s="6" t="s">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A589" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A586" s="6" t="s">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A587" s="6" t="s">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A588" s="6" t="s">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A589" s="6" t="s">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A590" s="6" t="s">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A594" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A591" s="6" t="s">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A592" s="6" t="s">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A596" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A593" s="6" t="s">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A594" s="6" t="s">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A595" s="6" t="s">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A596" s="6" t="s">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A597" s="6" t="s">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A598" s="6" t="s">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A602" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A599" s="6" t="s">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A603" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A600" s="6" t="s">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A604" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A601" s="6" t="s">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A605" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A602" s="6" t="s">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A606" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A603" s="6" t="s">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A607" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A604" s="6" t="s">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A608" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A605" s="6" t="s">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A609" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A606" s="6" t="s">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A610" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A607" s="6" t="s">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A611" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A608" s="6" t="s">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A612" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A609" s="6" t="s">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A613" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A610" s="6" t="s">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A614" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A611" s="6" t="s">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A615" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A612" s="6" t="s">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A616" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A613" s="6" t="s">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A617" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A614" s="6" t="s">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A618" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A615" s="6" t="s">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A619" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A616" s="6" t="s">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A620" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A617" s="6" t="s">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A621" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A618" s="6" t="s">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A622" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A619" s="6" t="s">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A623" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A620" s="6" t="s">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A624" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A621" s="6" t="s">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A625" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A622" s="6" t="s">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A626" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A623" s="6" t="s">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A627" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A624" s="6" t="s">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A628" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A625" s="6" t="s">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A629" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A626" s="6" t="s">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A630" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A627" s="6" t="s">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A631" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A628" s="6" t="s">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A632" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A629" s="6" t="s">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A633" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A630" s="6" t="s">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A634" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A631" s="6" t="s">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A635" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A632" s="6" t="s">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A636" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A633" s="6" t="s">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A637" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A634" s="6" t="s">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A638" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A635" s="6" t="s">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A639" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A636" s="6" t="s">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A640" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A637" s="6" t="s">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A638" s="6" t="s">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A639" s="6" t="s">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A640" s="6" t="s">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A641" s="6" t="s">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A642" s="6" t="s">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A643" s="6" t="s">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A647" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A644" s="6" t="s">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A648" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A645" s="6" t="s">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A649" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A646" s="6" t="s">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A650" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A647" s="6" t="s">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A651" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A648" s="6" t="s">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A652" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A649" s="6" t="s">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A653" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A650" s="6" t="s">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A654" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A651" s="6" t="s">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A655" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A652" s="6" t="s">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A656" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A653" s="6" t="s">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A657" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A654" s="6" t="s">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A658" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A655" s="6" t="s">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A659" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A656" s="6" t="s">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A660" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A657" s="6" t="s">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A661" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A658" s="6" t="s">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A662" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A659" s="6" t="s">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A663" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A660" s="6" t="s">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A664" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A661" s="6" t="s">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A665" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A662" s="6" t="s">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A666" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A663" s="6" t="s">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A667" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A664" s="6" t="s">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A665" s="6" t="s">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A666" s="6" t="s">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A667" s="6" t="s">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A668" s="6" t="s">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A669" s="6" t="s">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A673" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A670" s="6" t="s">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A674" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A671" s="6" t="s">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A675" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A672" s="6" t="s">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A676" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A673" s="6" t="s">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A677" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A674" s="6" t="s">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A678" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A675" s="6" t="s">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A679" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A676" s="6" t="s">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A680" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A677" s="6" t="s">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A681" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A678" s="6" t="s">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A682" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A679" s="6" t="s">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A680" s="6" t="s">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A681" s="6" t="s">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A682" s="6" t="s">
+    <row r="686" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A686" s="8" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A683" s="6" t="s">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687" s="9" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="684" spans="1:1" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A684" s="9" t="s">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688" s="9" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A685" s="10" t="s">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689" s="9" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A686" s="10" t="s">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690" s="9" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A687" s="10" t="s">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691" s="9" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A688" s="10" t="s">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692" s="9" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A689" s="10" t="s">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693" s="9" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A690" s="10" t="s">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694" s="10" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A691" s="10" t="s">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695" s="10" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A692" s="11" t="s">
+    <row r="696" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A696" s="11" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A693" s="11" t="s">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697" s="10" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="694" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A694" s="12" t="s">
+    <row r="698" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A698" s="11" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A695" s="11" t="s">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699" s="10" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="696" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A696" s="12" t="s">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700" s="10" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A697" s="11" t="s">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A698" s="11" t="s">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A699" s="13" t="s">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A700" s="13" t="s">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A701" s="13" t="s">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" s="12" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A702" s="13" t="s">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" s="12" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703" s="13" t="s">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" s="12" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A704" s="13" t="s">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A705" s="13" t="s">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" s="12" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A706" s="11" t="s">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" s="12" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A707" s="13" t="s">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" s="12" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A708" s="13" t="s">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" s="12" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A709" s="13" t="s">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" s="12" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A710" s="13" t="s">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A711" s="13" t="s">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" s="12" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A712" s="6" t="s">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" s="12" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A713" s="13" t="s">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" s="12" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A714" s="13" t="s">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" s="12" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A715" s="13" t="s">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A716" s="13" t="s">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A717" s="7" t="s">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A718" s="7" t="s">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A719" s="7" t="s">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A720" s="7" t="s">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A721" s="7" t="s">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A722" s="7" t="s">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A723" s="7" t="s">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A724" s="7" t="s">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A725" s="7" t="s">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A726" s="7" t="s">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A727" s="7" t="s">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A728" s="7" t="s">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A729" s="7" t="s">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A730" s="7" t="s">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742" s="13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744" s="13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745" s="13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746" s="13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747" s="13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752" s="13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754" s="13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756" s="13" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757" s="13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758" s="13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759" s="13" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761" s="13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762" s="13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763" s="13" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764" s="13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765" s="13" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766" s="13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767" s="13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768" s="13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769" s="13" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770" s="13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771" s="13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A772" s="13" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A773" s="13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A774" s="13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A775" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A776" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A777" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A778" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A779" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A780" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A781" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A782" s="13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A783" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A784" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A785" s="13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A786" s="13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A787" s="13" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A788" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A789" s="13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A790" s="13" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A791" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A792" s="13" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A793" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A794" s="2" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A731" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A732" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A733" s="7" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A734" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A735" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A736" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A737" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A738" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A739" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A740" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A741" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A742" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A743" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A744" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A745" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A746" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A747" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A748" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A749" s="5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750" s="5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A751" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A752" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A753" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A755" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A756" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A758" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A759" s="5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A760" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A761" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A762" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A763" s="5" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A764" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A765" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A766" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A767" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A768" s="5" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A769" s="5" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A770" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A771" s="5" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A772" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A773" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A774" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A775" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A776" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A777" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A778" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A779" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A780" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A781" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A782" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A783" s="5" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A784" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A785" s="5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A786" s="5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A787" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A788" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A789" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A790" s="5" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A791" s="5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A792" s="7" t="s">
-        <v>790</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="a.abdollahi3360@gmail.com_x000a_" xr:uid="{7DEE4240-6795-4428-8224-85F598E2B4BB}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7DEE4240-6795-4428-8224-85F598E2B4BB}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{56ED87D2-B187-477F-952F-BE9D53305720}"/>
-    <hyperlink ref="A5" r:id="rId3" display="panjali@sbmu.ac.ir_x000a_" xr:uid="{60EB2953-F9C4-4193-BF77-0793EF1F2EC8}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{78CEE083-7C37-4F14-BD82-1F450E0B3034}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{FA388CD4-066C-40FD-8ECF-A8471DF1B758}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{A8837DF7-FF18-4ED7-A9FF-32EB08F6D667}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{4BDCB9EE-35B9-46D6-94A5-4E034BB7BE74}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{315AEBC0-0EDC-4A2E-9146-28EE126D8CDF}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{BA93CC22-58C6-47EB-A097-DA5CC8A50FDE}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{7D2D637C-CC40-4434-AEA3-9F51B52B38A3}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{71F32898-06DA-464D-8BF0-51B92819F5D5}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{9994B2EF-8643-4446-8575-721041A87D0A}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{5B53B810-62E7-48F7-988D-45DFB8706A9D}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{6F598862-AC6D-41D4-AC70-F3F5AE6C4656}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{102355A9-CE31-49EF-AA36-530AE30B18EC}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{94FB3861-C44F-41C6-9FB7-3EA0754AFDF4}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{163F125F-9636-4EFA-BF9E-ECE1FDD4A0B9}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{450D1802-42D3-4E33-A2C7-2A90AAA14C17}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{02CC27B0-DFA0-4933-AEED-291E7774ED1A}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{6D26BF96-618F-487C-A4D9-63F6E075E7A8}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{EFF4361D-F8C1-44F8-A67F-9D814631DAA6}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{37D1B61F-A37F-4D67-ADB4-A6C603B272D9}"/>
-    <hyperlink ref="A25" r:id="rId23" xr:uid="{C434AF28-35C6-49C3-B932-4686CD820C2C}"/>
-    <hyperlink ref="A26" r:id="rId24" xr:uid="{B97462BD-F387-4E6F-8351-DDDF581D8351}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{E24A5596-8122-4FA0-A6B0-2EB11B718E56}"/>
-    <hyperlink ref="A28" r:id="rId26" xr:uid="{B0FD70D2-3532-47DB-9C6F-A7957161E3AF}"/>
-    <hyperlink ref="A29" r:id="rId27" xr:uid="{5096B490-1B73-4802-99CC-DA155A01C585}"/>
-    <hyperlink ref="A30" r:id="rId28" xr:uid="{719A3D37-D067-46C4-B843-AA59E7A5F100}"/>
-    <hyperlink ref="A31" r:id="rId29" xr:uid="{1276F2A6-AC17-48CB-A8E7-2C25C12F9AC5}"/>
-    <hyperlink ref="A32" r:id="rId30" xr:uid="{F5566E7F-2360-4E18-9A67-4A4D518F0FCB}"/>
-    <hyperlink ref="A33" r:id="rId31" xr:uid="{D64BC5A9-9F8F-4A7E-9E5D-250229C0C1B0}"/>
-    <hyperlink ref="A34" r:id="rId32" xr:uid="{DC947958-6F9C-43E3-9924-663392C36067}"/>
-    <hyperlink ref="A35" r:id="rId33" xr:uid="{D53EFEA2-4ACB-4A94-89E5-471B2F3082CC}"/>
-    <hyperlink ref="A36" r:id="rId34" xr:uid="{925511EE-583B-4A73-B725-682FA0EF0BF0}"/>
-    <hyperlink ref="A37" r:id="rId35" xr:uid="{899CFB3C-11DA-4285-9426-67FDB5934FD9}"/>
-    <hyperlink ref="A38" r:id="rId36" xr:uid="{ECD5E857-E77E-41F6-B3C9-F7F6AEC212A5}"/>
-    <hyperlink ref="A39" r:id="rId37" xr:uid="{D974ECD4-17BA-4F86-AACB-C051A3F21256}"/>
-    <hyperlink ref="A40" r:id="rId38" xr:uid="{EAC3CB2C-2CF6-45E0-8CAC-7DD4D8181BDD}"/>
-    <hyperlink ref="A41" r:id="rId39" xr:uid="{CC4FE793-C7A9-4BF2-969C-AE474D11EA5C}"/>
-    <hyperlink ref="A42" r:id="rId40" xr:uid="{F993F14D-8337-4FDB-8093-815BDCEB7EFB}"/>
-    <hyperlink ref="A43" r:id="rId41" xr:uid="{2C065DF5-31F6-4953-B20B-F57D2069C12C}"/>
-    <hyperlink ref="A44" r:id="rId42" xr:uid="{BF316E08-4A76-4573-BE2B-51CAC671F7FE}"/>
-    <hyperlink ref="A45" r:id="rId43" xr:uid="{1CB8BB41-B562-4F8E-BD53-A8C186D55CF8}"/>
-    <hyperlink ref="A46" r:id="rId44" xr:uid="{0F0BC195-B129-4860-B154-14F28EA0808A}"/>
-    <hyperlink ref="A47" r:id="rId45" xr:uid="{703B5142-4338-4745-833B-5AF7A37970BD}"/>
-    <hyperlink ref="A48" r:id="rId46" xr:uid="{B4395424-3584-45A1-815D-990BD4703290}"/>
-    <hyperlink ref="A49" r:id="rId47" xr:uid="{89328179-D8BC-4E98-B6B2-9BF53A9BED94}"/>
-    <hyperlink ref="A50" r:id="rId48" xr:uid="{AE1B8BFA-4C8E-456C-A776-868BCE89E593}"/>
-    <hyperlink ref="A51" r:id="rId49" xr:uid="{210ED07B-DAA2-4922-915D-338581518B4E}"/>
-    <hyperlink ref="A52" r:id="rId50" xr:uid="{DFC4467B-68B1-4A9A-817C-028569ECD6C3}"/>
-    <hyperlink ref="A53" r:id="rId51" xr:uid="{3B22BFBF-165C-4A2C-81A9-74DDD38FD960}"/>
-    <hyperlink ref="A54" r:id="rId52" xr:uid="{DB8D226B-FD26-46FD-AA07-1D74C7A0606B}"/>
-    <hyperlink ref="A55" r:id="rId53" xr:uid="{937C6D7E-E68C-48E9-9AB0-C535EF3DC516}"/>
-    <hyperlink ref="A56" r:id="rId54" xr:uid="{BDAF9BA8-DEC5-4DEB-B0E8-491390BA883D}"/>
-    <hyperlink ref="A57" r:id="rId55" xr:uid="{B86E264E-FE7C-4913-A9D4-AD2C796EC07D}"/>
-    <hyperlink ref="A58" r:id="rId56" xr:uid="{83A47E3A-0FAB-44CF-ABFA-D10AD91B5524}"/>
-    <hyperlink ref="A59" r:id="rId57" xr:uid="{39E8CC52-A346-40FE-8036-F3B1198AB609}"/>
-    <hyperlink ref="A60" r:id="rId58" xr:uid="{7D939FB6-2F90-4BA7-8695-87E9EB2EFA6A}"/>
-    <hyperlink ref="A61" r:id="rId59" xr:uid="{3DB0123D-5474-4815-9E19-90156BFC8B91}"/>
-    <hyperlink ref="A62" r:id="rId60" xr:uid="{ACEBB592-CDCC-4E46-9F25-B7711D471964}"/>
-    <hyperlink ref="A63" r:id="rId61" xr:uid="{C73D3A29-807D-48D9-AB2D-C0275DDCB142}"/>
-    <hyperlink ref="A64" r:id="rId62" xr:uid="{44AE86D2-F001-4A21-B730-EAE436CE2FAC}"/>
-    <hyperlink ref="A65" r:id="rId63" xr:uid="{95BBA83C-4C79-4D36-8EE5-A181AC622CF6}"/>
-    <hyperlink ref="A66" r:id="rId64" xr:uid="{25E7A983-BA2B-4A8B-8720-48039A164479}"/>
-    <hyperlink ref="A67" r:id="rId65" xr:uid="{1621BBF1-DC94-4DC6-BFBD-947D15BF245B}"/>
-    <hyperlink ref="A68" r:id="rId66" xr:uid="{C31AC3A6-8EBC-4168-8EEF-9C2A69F7992D}"/>
-    <hyperlink ref="A69" r:id="rId67" xr:uid="{1BA68BD4-FFE5-40B4-B642-30213BADCC3F}"/>
-    <hyperlink ref="A70" r:id="rId68" xr:uid="{C620A5ED-D0CF-4361-A555-047B3C05D5B6}"/>
-    <hyperlink ref="A71" r:id="rId69" xr:uid="{04BA5624-67F4-4213-890A-25F9CC511E29}"/>
-    <hyperlink ref="A72" r:id="rId70" xr:uid="{6554A7D2-E11A-43ED-9B4B-FD74C8032A26}"/>
-    <hyperlink ref="A73" r:id="rId71" xr:uid="{43198718-8984-4E38-A733-AFAB8634A372}"/>
-    <hyperlink ref="A74" r:id="rId72" xr:uid="{6DBF862F-DBD7-4E02-A3C8-FA5D76A83CD6}"/>
-    <hyperlink ref="A75" r:id="rId73" xr:uid="{0C37327B-6B83-4088-914B-6E41787A707D}"/>
-    <hyperlink ref="A76" r:id="rId74" xr:uid="{28ACFA9A-E7F4-49BC-A870-342BB71F87A4}"/>
-    <hyperlink ref="A77" r:id="rId75" xr:uid="{A185B735-B194-40D4-A098-A046D6D59E05}"/>
-    <hyperlink ref="A78" r:id="rId76" xr:uid="{00AFD740-1929-46BB-BDD1-FD0109879BFB}"/>
-    <hyperlink ref="A79" r:id="rId77" xr:uid="{98A108B6-BF66-4BF4-ACC8-3D7EBAAB0F7D}"/>
-    <hyperlink ref="A80" r:id="rId78" display="nadri_s@zums.ac.ir  " xr:uid="{9F83C108-A7B4-4D0B-B129-D00E8E001BBF}"/>
-    <hyperlink ref="A81" r:id="rId79" xr:uid="{D02FECE9-4914-4CFB-8F9C-FCEFD96AC814}"/>
-    <hyperlink ref="A82" r:id="rId80" xr:uid="{82B29F41-0845-4126-ADA7-94985FF813AC}"/>
-    <hyperlink ref="A83" r:id="rId81" xr:uid="{58049502-D350-4999-BDFC-54B1C80FE7C1}"/>
-    <hyperlink ref="A84" r:id="rId82" xr:uid="{92942971-370B-4025-98BB-67BB60EEFC11}"/>
-    <hyperlink ref="A85" r:id="rId83" xr:uid="{32265B7B-EF8D-4D98-B612-EA0E1D407123}"/>
-    <hyperlink ref="A86" r:id="rId84" xr:uid="{054E9D19-60BD-489C-9A9A-43908F8E49EC}"/>
-    <hyperlink ref="A87" r:id="rId85" xr:uid="{664FB28F-784D-4E3F-ACB9-A74A11C04E78}"/>
-    <hyperlink ref="A88" r:id="rId86" xr:uid="{59476CE4-7832-41C2-A091-404CBD7844CD}"/>
-    <hyperlink ref="A89" r:id="rId87" xr:uid="{C89A4D6D-6A54-4AAE-B1FA-D13A19DF3824}"/>
-    <hyperlink ref="A90" r:id="rId88" xr:uid="{32B9C080-5690-4A16-91DA-5AADAD9E6249}"/>
-    <hyperlink ref="A91" r:id="rId89" xr:uid="{D978A2CF-68A3-455D-8B3C-BC7F6E8F5EAA}"/>
-    <hyperlink ref="A92" r:id="rId90" xr:uid="{90678AEF-E03C-44B9-AD45-27EBFE105CD0}"/>
-    <hyperlink ref="A93" r:id="rId91" xr:uid="{95EB8F30-4C9E-4FF9-8656-AEDC650E0435}"/>
-    <hyperlink ref="A94" r:id="rId92" xr:uid="{66CBA257-459B-4276-9EA0-F6A4C469057D}"/>
-    <hyperlink ref="A95" r:id="rId93" xr:uid="{019BB3B1-D9F4-41C1-BB00-320F1F76F65F}"/>
-    <hyperlink ref="A96" r:id="rId94" xr:uid="{8214465D-0D33-4765-955D-B2274A9DF4CE}"/>
-    <hyperlink ref="A97" r:id="rId95" xr:uid="{C4A3FA77-D9CF-4CAD-BBB6-1F1980742F25}"/>
-    <hyperlink ref="A98" r:id="rId96" xr:uid="{FF59407F-6829-4C32-9B15-0BA62BB6AF51}"/>
-    <hyperlink ref="A99" r:id="rId97" xr:uid="{68A23C69-DF70-4216-ADD1-7D3846CBB678}"/>
-    <hyperlink ref="A100" r:id="rId98" xr:uid="{14F181A4-FDB2-4234-9B08-AA32DA89D6B0}"/>
-    <hyperlink ref="A101" r:id="rId99" xr:uid="{EDC80657-FFE4-46B3-BE80-AD9A1EFFB4B4}"/>
-    <hyperlink ref="A102" r:id="rId100" xr:uid="{24B688CA-CFC8-43BD-81A1-A5AA05C72A25}"/>
-    <hyperlink ref="A103" r:id="rId101" xr:uid="{4462ABD1-2FCC-4F80-83E3-1187DFD492F4}"/>
-    <hyperlink ref="A104" r:id="rId102" xr:uid="{C3A63646-BE7B-485E-8AA5-D20AB4169DFB}"/>
-    <hyperlink ref="A105" r:id="rId103" xr:uid="{2A5C5D1B-01E1-4E55-959B-86852B81A0B6}"/>
-    <hyperlink ref="A106" r:id="rId104" xr:uid="{DF869774-D716-4C9D-A04B-B34D776CB7DE}"/>
-    <hyperlink ref="A107" r:id="rId105" xr:uid="{AAC7D201-94F8-45FA-B159-907F4A86C5F3}"/>
-    <hyperlink ref="A108" r:id="rId106" xr:uid="{E7A72C02-AAB3-422F-AEA3-0E7DFABEF094}"/>
-    <hyperlink ref="A109" r:id="rId107" display="dalghin68@yahoo.com" xr:uid="{AC6A03A9-FD33-423E-A5F3-245213B01D3A}"/>
-    <hyperlink ref="A110" r:id="rId108" xr:uid="{82176CD4-DB3D-4076-A172-FE678F005F73}"/>
-    <hyperlink ref="A111" r:id="rId109" xr:uid="{915F6BE8-75C5-49D2-B222-B48DA2362297}"/>
-    <hyperlink ref="A112" r:id="rId110" xr:uid="{AED28940-72FB-47A7-8461-869E24ACE58D}"/>
-    <hyperlink ref="A113" r:id="rId111" xr:uid="{B7782086-6411-452A-A1A4-4A273EF3264B}"/>
-    <hyperlink ref="A114" r:id="rId112" xr:uid="{E3238D9A-3324-4F15-9E7D-8470919DCBFC}"/>
-    <hyperlink ref="A115" r:id="rId113" xr:uid="{DD59FACC-8F8F-49F6-8747-98F18F68527B}"/>
-    <hyperlink ref="A116" r:id="rId114" xr:uid="{05900F0B-5FA4-4BF5-9367-BDA18AA958DE}"/>
-    <hyperlink ref="A117" r:id="rId115" xr:uid="{2FA8F11D-2EEC-473E-9E70-8AAB0659B6E3}"/>
-    <hyperlink ref="A118" r:id="rId116" xr:uid="{A1553066-CCF0-4A3A-BF93-86FC35690ECD}"/>
-    <hyperlink ref="A119" r:id="rId117" xr:uid="{0D196D4F-1FA7-438B-8338-F923007C08F5}"/>
-    <hyperlink ref="A120" r:id="rId118" xr:uid="{FACB7F3D-C512-4A5F-AA6F-061B5F26F61A}"/>
-    <hyperlink ref="A121" r:id="rId119" xr:uid="{341660B4-0CD6-4682-8D84-808829A7A3ED}"/>
-    <hyperlink ref="A122" r:id="rId120" xr:uid="{32F4CF45-9A0D-482B-807C-4A4EA76E5A88}"/>
-    <hyperlink ref="A123" r:id="rId121" xr:uid="{1801A917-4DE2-4266-9525-1AE949A1E5E5}"/>
-    <hyperlink ref="A124" r:id="rId122" xr:uid="{52E6438B-FC32-46C5-B7E3-D27DF61CFCBB}"/>
-    <hyperlink ref="A125" r:id="rId123" xr:uid="{435961F5-2040-47C4-BBFE-C6FC4DA7E0E6}"/>
-    <hyperlink ref="A126" r:id="rId124" xr:uid="{9FD6E7AA-C0D2-4C65-8862-B96419BC53B3}"/>
-    <hyperlink ref="A127" r:id="rId125" xr:uid="{D877D98E-3D43-46F5-9A0B-26D89395EFD6}"/>
-    <hyperlink ref="A128" r:id="rId126" xr:uid="{E7E3EA8C-245E-4560-960A-9695801551EE}"/>
-    <hyperlink ref="A129" r:id="rId127" xr:uid="{1BD6CE31-1F75-44B9-BA57-E9C411EA9206}"/>
-    <hyperlink ref="A130" r:id="rId128" xr:uid="{DD08F788-874F-4A14-AC37-D587D73F4EF9}"/>
-    <hyperlink ref="A131" r:id="rId129" xr:uid="{FE5F2648-8A41-4DAF-B463-E38D9232655A}"/>
-    <hyperlink ref="A132" r:id="rId130" xr:uid="{A022FF20-63CD-475E-BDEC-48C2860015E8}"/>
-    <hyperlink ref="A133" r:id="rId131" xr:uid="{A94FD184-94EF-41F4-93D4-4B0B15AB5F9A}"/>
-    <hyperlink ref="A134" r:id="rId132" xr:uid="{E9240F33-691D-4B5F-A3E2-DE97386A62E1}"/>
-    <hyperlink ref="A135" r:id="rId133" xr:uid="{81F3491C-C9DF-455E-B9F9-42D714B734F4}"/>
-    <hyperlink ref="A136" r:id="rId134" xr:uid="{EC741294-7E8E-46DE-99EE-32FB115470AE}"/>
-    <hyperlink ref="A137" r:id="rId135" xr:uid="{F35BBEA2-2FF8-4F2F-9211-EDCAE6C8146B}"/>
-    <hyperlink ref="A138" r:id="rId136" xr:uid="{1725FC26-EE9C-4238-AC0A-0AD6EBD96A01}"/>
-    <hyperlink ref="A139" r:id="rId137" xr:uid="{4D2BB732-D71F-490D-8D6B-2170CBDA857D}"/>
-    <hyperlink ref="A140" r:id="rId138" xr:uid="{CE9314BF-BB09-42CA-A0A1-D060115C7319}"/>
-    <hyperlink ref="A141" r:id="rId139" xr:uid="{B804D0D6-EEE0-40FF-AA73-A6FA9944F184}"/>
-    <hyperlink ref="A142" r:id="rId140" xr:uid="{5AE9BDA9-83A5-40F1-A299-9EA7595B0BD3}"/>
-    <hyperlink ref="A143" r:id="rId141" xr:uid="{B9D05B7D-4C02-48A2-8D9D-760030E6DB79}"/>
-    <hyperlink ref="A144" r:id="rId142" xr:uid="{0A293059-F9C0-484B-B5A6-7A2B12BFAE69}"/>
-    <hyperlink ref="A145" r:id="rId143" xr:uid="{0B00E371-CB51-4F1B-BB7B-0A75A8C92086}"/>
-    <hyperlink ref="A146" r:id="rId144" xr:uid="{515D4454-25F6-465C-901B-7604B1F8B5C8}"/>
-    <hyperlink ref="A147" r:id="rId145" xr:uid="{1AA92820-6923-4C91-BF5E-438895234322}"/>
-    <hyperlink ref="A148" r:id="rId146" xr:uid="{A7F93362-636F-40FE-B094-77E024FC1A0E}"/>
-    <hyperlink ref="A149" r:id="rId147" xr:uid="{7029D463-E64F-4DED-B25D-9195CF8ABA22}"/>
-    <hyperlink ref="A150" r:id="rId148" xr:uid="{5F0410C4-129E-4FB8-B18E-E755F93DC536}"/>
-    <hyperlink ref="A151" r:id="rId149" xr:uid="{F790B2D9-E7C2-4416-9001-67201969FDA1}"/>
-    <hyperlink ref="A152" r:id="rId150" xr:uid="{0D74A262-06CA-40ED-8757-17B295DBDD96}"/>
-    <hyperlink ref="A153" r:id="rId151" xr:uid="{FD55CDC8-7F75-480A-8729-93BE3B876EF1}"/>
-    <hyperlink ref="A154" r:id="rId152" xr:uid="{BB4FEE8B-4F3E-4D93-AD2B-4C945C1FEFC5}"/>
-    <hyperlink ref="A155" r:id="rId153" xr:uid="{2A9B9B16-2EFB-4AB5-B219-5E0B4931A602}"/>
-    <hyperlink ref="A156" r:id="rId154" xr:uid="{157D1B7C-3B0E-48FB-AA46-AEF1287F177C}"/>
-    <hyperlink ref="A157" r:id="rId155" xr:uid="{F1EB4F74-C484-4879-A203-02B2E5A31854}"/>
-    <hyperlink ref="A158" r:id="rId156" xr:uid="{F6BAB08B-7FB0-488A-BDA1-4432AA309938}"/>
-    <hyperlink ref="A159" r:id="rId157" xr:uid="{D7281387-67B3-4503-BEFF-19D8605174CA}"/>
-    <hyperlink ref="A160" r:id="rId158" xr:uid="{88EF02B8-9341-4882-B097-7E870874E756}"/>
-    <hyperlink ref="A161" r:id="rId159" xr:uid="{0E53DA7B-B971-4A21-8191-B757193CAA63}"/>
-    <hyperlink ref="A162" r:id="rId160" xr:uid="{94FAF243-CBC1-414B-B95E-FA55BB1C58CA}"/>
-    <hyperlink ref="A163" r:id="rId161" xr:uid="{D3A2CE8F-F142-42FC-AD25-11424971B716}"/>
-    <hyperlink ref="A164" r:id="rId162" xr:uid="{94C91573-54BB-4DA3-9A67-4E0B6114F873}"/>
-    <hyperlink ref="A684" r:id="rId163" display="http://sph.tums.ac.ir/" xr:uid="{3D4168AA-DDB6-4905-A524-816C4805EA6B}"/>
-    <hyperlink ref="A699" r:id="rId164" xr:uid="{00EE04C8-A6C6-452C-AFEF-8F367D3CD333}"/>
-    <hyperlink ref="A700" r:id="rId165" xr:uid="{33725344-787A-4300-B725-DC18FA2509B1}"/>
-    <hyperlink ref="A701" r:id="rId166" xr:uid="{1122A989-FE0F-413F-8081-BC0C28F9E70C}"/>
-    <hyperlink ref="A702" r:id="rId167" xr:uid="{044CA121-3064-4B82-BECC-0E30DAE46CF0}"/>
-    <hyperlink ref="A703" r:id="rId168" xr:uid="{95A99DB2-34B7-4D06-9EAE-DCE595092377}"/>
-    <hyperlink ref="A704" r:id="rId169" xr:uid="{F8EEAE71-CCAD-4259-99BB-5BC85F23B4C2}"/>
-    <hyperlink ref="A705" r:id="rId170" display="mailto:rezaeizadeh@tums.ac.ir" xr:uid="{637D7D0C-7BFD-4034-AB07-15873F3AD06B}"/>
-    <hyperlink ref="A707" r:id="rId171" xr:uid="{1B0B9AFA-DFAA-4C24-BD46-D061D4D8FBFF}"/>
-    <hyperlink ref="A708" r:id="rId172" xr:uid="{E5685AF4-660A-417C-B227-CCF98A4A4D73}"/>
-    <hyperlink ref="A709" r:id="rId173" xr:uid="{2DCC835F-0A30-4878-A8D3-76895528B9E9}"/>
-    <hyperlink ref="A710" r:id="rId174" display="mailto:sina.marashi@gmail.com" xr:uid="{4A972128-57BE-4C02-8A08-6CE0CAC8DC05}"/>
-    <hyperlink ref="A711" r:id="rId175" xr:uid="{4D7F4295-1A4B-46C6-A07C-94BF5A0E8482}"/>
-    <hyperlink ref="A713" r:id="rId176" xr:uid="{CC3A65CB-75E2-43B7-BD82-67C5D2321DE8}"/>
-    <hyperlink ref="A714" r:id="rId177" xr:uid="{CE8D31F9-21E4-4603-8322-E9BF9E502531}"/>
-    <hyperlink ref="A715" r:id="rId178" xr:uid="{9EB92218-7F96-4D98-82C5-35BCF8026212}"/>
-    <hyperlink ref="A716" r:id="rId179" xr:uid="{005627B1-346C-472E-8859-E939CAF295E4}"/>
-    <hyperlink ref="A717" r:id="rId180" xr:uid="{45B5F462-A1D9-4300-B2ED-98D5F10824B6}"/>
-    <hyperlink ref="A718" r:id="rId181" xr:uid="{7EF175F4-C70F-4FEA-82E9-741F6D8A4365}"/>
-    <hyperlink ref="A719" r:id="rId182" xr:uid="{E903A1C2-0A18-40F6-B823-4A23BD97F679}"/>
-    <hyperlink ref="A720" r:id="rId183" xr:uid="{5992459D-D657-487B-94F2-5D208416F424}"/>
-    <hyperlink ref="A721" r:id="rId184" xr:uid="{35D7F4E2-F541-4D28-BCC7-9430A058101A}"/>
-    <hyperlink ref="A722" r:id="rId185" xr:uid="{D8CAB375-CDB5-4779-A448-48C53B0A0EAD}"/>
-    <hyperlink ref="A723" r:id="rId186" xr:uid="{6B94353C-3963-47DF-90FB-EC16AB08BE98}"/>
-    <hyperlink ref="A724" r:id="rId187" xr:uid="{3B95098B-A294-48B6-9B08-F8D31A74B130}"/>
-    <hyperlink ref="A725" r:id="rId188" xr:uid="{3FAD5F88-2E5B-4BB6-9553-A1DB52FAD040}"/>
-    <hyperlink ref="A726" r:id="rId189" xr:uid="{FDA403CD-DA39-4140-B70C-ABC10A595221}"/>
-    <hyperlink ref="A727" r:id="rId190" xr:uid="{C9B6FAE1-075C-4B41-BD21-9AE247B2877C}"/>
-    <hyperlink ref="A728" r:id="rId191" xr:uid="{CEC6ACF1-4BE1-471E-AA03-F3C76C25B8EF}"/>
-    <hyperlink ref="A729" r:id="rId192" xr:uid="{82273192-A0A3-4ED8-9041-A772DBC6563E}"/>
-    <hyperlink ref="A730" r:id="rId193" xr:uid="{F92440DA-70B4-41C5-966C-5B041299F00C}"/>
-    <hyperlink ref="A731" r:id="rId194" xr:uid="{AB516E97-62C2-4AC2-A35D-3B8DF1803352}"/>
-    <hyperlink ref="A732" r:id="rId195" xr:uid="{24B1AC24-FB37-4270-B781-1DF0D659FC87}"/>
-    <hyperlink ref="A733" r:id="rId196" xr:uid="{8264521C-F733-4C81-B05F-F8944D9633E1}"/>
-    <hyperlink ref="A734" r:id="rId197" xr:uid="{990B9AAF-D90C-4E1A-9DB6-43A67FD0104D}"/>
-    <hyperlink ref="A740" r:id="rId198" display="mailto:mahya.rahmani@gmail.com" xr:uid="{3205E694-56C2-4096-983C-905840DFAE23}"/>
-    <hyperlink ref="A741" r:id="rId199" display="mailto:nazeriali2007@yahoo.com" xr:uid="{CEF5CD3F-F610-400F-8048-B3990F025B3E}"/>
-    <hyperlink ref="A742" r:id="rId200" display="mailto:m-nikbakht@razi.tums.ac.ir" xr:uid="{FA4E8121-AC7B-4302-9F1B-A056EA343417}"/>
-    <hyperlink ref="A743" r:id="rId201" display="mailto:a.valizadeh_medicalnano@yahoo,com" xr:uid="{65162598-D89D-4463-8256-22A0255DA976}"/>
-    <hyperlink ref="A744" r:id="rId202" display="mailto:asghari_mnt@yahoo.com" xr:uid="{81F07F8F-1694-45BC-BAFB-0A34E3228CAD}"/>
-    <hyperlink ref="A745" r:id="rId203" display="mailto:biophysicsiasbs@yahoo.com" xr:uid="{9F3D4CAD-3A45-421E-9AAF-AB5D90160699}"/>
-    <hyperlink ref="A746" r:id="rId204" display="mailto:hasanmaleki95@yahoo.com" xr:uid="{8DC23226-1A61-45F3-8381-A171ED7DB306}"/>
-    <hyperlink ref="A747" r:id="rId205" display="mailto:najmehketabchi@yahoo.com" xr:uid="{153CA2DA-2C78-4F19-B6EF-8F7072260691}"/>
-    <hyperlink ref="A748" r:id="rId206" display="mailto:mortezakamali1979@gmail.com" xr:uid="{37881458-BBCD-447D-9B27-AEA473849C67}"/>
-    <hyperlink ref="A749" r:id="rId207" display="mailto:marya.sharif90@yahoo.com" xr:uid="{86F4CBF7-7B72-4313-8836-5C10FD86CE72}"/>
-    <hyperlink ref="A750" r:id="rId208" display="mailto:bahrani.s6412@yahoo.com" xr:uid="{92C25970-8236-4908-9DC3-363795F0D683}"/>
-    <hyperlink ref="A751" r:id="rId209" display="mailto:naserineda1989@gmail.com" xr:uid="{01473793-8055-49DB-8AAB-FA249A8FBE3C}"/>
-    <hyperlink ref="A752" r:id="rId210" display="mailto:mosafarkhanis@gmail.com" xr:uid="{2DCBA322-12CE-43D7-9BDB-7B6B27A894C5}"/>
-    <hyperlink ref="A753" r:id="rId211" display="mailto:elnazshaabani91@gmail.com" xr:uid="{EB35E4B6-7E1A-487C-A227-295242517B27}"/>
-    <hyperlink ref="A754" r:id="rId212" display="mailto:hasanpourakram@gmail.com" xr:uid="{9BA7B431-3196-417A-80E2-1966E8DD2251}"/>
-    <hyperlink ref="A755" r:id="rId213" display="mailto:gharatape_ar@yahoo.com" xr:uid="{B7C94467-AAAE-41E0-BB3A-87DB9D1AB966}"/>
-    <hyperlink ref="A756" r:id="rId214" display="mailto:azarnajafi.tsh@gmail.com" xr:uid="{292CC52C-1F09-4BE2-BF79-99AAE0D82228}"/>
-    <hyperlink ref="A757" r:id="rId215" display="mailto:beheshtkhoo.nano@gmail.com" xr:uid="{3F972A5B-D29A-42FD-8FF2-A74CC94B2533}"/>
-    <hyperlink ref="A758" r:id="rId216" display="mailto:mmalekpour@razi.tums.ac.ir" xr:uid="{1879CB5B-A60C-40E9-BD73-A7F4D0268A0D}"/>
-    <hyperlink ref="A759" r:id="rId217" display="mailto:amanzadi@yahoo.com" xr:uid="{64CAE73D-6D91-41F6-BE38-EEE8D9849219}"/>
-    <hyperlink ref="A760" r:id="rId218" display="mailto:aminjadidi1993@gmail.com" xr:uid="{E176E1B3-24D8-4F94-BDF4-E122C228F7A5}"/>
-    <hyperlink ref="A761" r:id="rId219" display="mailto:mmonfaredd@gmail.com" xr:uid="{39295873-B9CE-4081-AE28-D152CAB8D80D}"/>
-    <hyperlink ref="A762" r:id="rId220" display="mailto:doostan.mahtab@gmail.com" xr:uid="{662DBC40-A99B-4838-85E8-80095D9D104B}"/>
-    <hyperlink ref="A763" r:id="rId221" display="mailto:hasani.njf@gmail.com" xr:uid="{9C7ED6B9-B333-46FE-A5F4-BD7CD5234F0A}"/>
-    <hyperlink ref="A764" r:id="rId222" display="mailto:ali-dehghan70@yahoo.com" xr:uid="{EC993113-EDDB-432F-B7CC-6E1A98337E56}"/>
-    <hyperlink ref="A765" r:id="rId223" display="mailto:khorsand_fa@yahoo.com" xr:uid="{D878E0D7-C889-4DC9-B79B-41BEBF6A20B8}"/>
-    <hyperlink ref="A766" r:id="rId224" display="mailto:amingholizadeh71@gmail.com" xr:uid="{B5973EB7-EB99-415A-90AC-9381C64A6643}"/>
-    <hyperlink ref="A767" r:id="rId225" display="mailto:maryam-khodadadi@hotmail.com" xr:uid="{26A784EB-4963-4CC1-AACA-57E6C6BA2B74}"/>
-    <hyperlink ref="A768" r:id="rId226" display="mailto:dar.rahban777@gmail.com" xr:uid="{F8FDB738-4886-485C-BFEC-DD1AB5F290EE}"/>
-    <hyperlink ref="A769" r:id="rId227" display="mailto:ezio1441@yahoo.com" xr:uid="{74CAA2DF-BE05-422E-9BAE-45424BA2A2CF}"/>
-    <hyperlink ref="A770" r:id="rId228" display="mailto:hana.gm125@gmail.com" xr:uid="{98E3B1CB-842B-4F1F-8BA0-E0E425D88703}"/>
-    <hyperlink ref="A771" r:id="rId229" display="mailto:alinut4147@gmail.com" xr:uid="{32B3C0A0-22F3-4429-A742-7127E7A6D1EE}"/>
-    <hyperlink ref="A772" r:id="rId230" display="mailto:elnazalmasi95@yahoo.com" xr:uid="{49CD0E4D-E799-4BCF-ABAE-280DC4CFBAF0}"/>
-    <hyperlink ref="A773" r:id="rId231" display="mailto:gavanji.k@gmail.com" xr:uid="{C46DBD8D-A380-4ADC-90EB-B5E479DF31EF}"/>
-    <hyperlink ref="A774" r:id="rId232" display="mailto:sarahzokaasadi@gmail.com" xr:uid="{8D3D01DC-6DAB-4266-915D-40A8F12F326A}"/>
-    <hyperlink ref="A775" r:id="rId233" display="mailto:hannaneh_6929@yahoo.com" xr:uid="{7C4868AB-1A04-479E-B19B-2AC87DB578B4}"/>
-    <hyperlink ref="A776" r:id="rId234" display="mailto:fa.fayazbakhsh@gmail.com" xr:uid="{92DE85B4-7960-4EA6-B668-6F08E2639710}"/>
-    <hyperlink ref="A777" r:id="rId235" display="mailto:pooyaatshin1994@yahoo.com" xr:uid="{360C03AE-4EED-4AE9-8139-5425274768E7}"/>
-    <hyperlink ref="A778" r:id="rId236" display="mailto:mohamad_musavi73@yahoo.com" xr:uid="{A41DB1D7-8038-4A4C-8442-DC15B7BF6381}"/>
-    <hyperlink ref="A779" r:id="rId237" display="mailto:misaghft1995@gmail.com" xr:uid="{8FABBFC9-4BD5-4804-9D2F-227D82A099FC}"/>
-    <hyperlink ref="A780" r:id="rId238" display="mailto:f.bagheri.3223@gmail.com" xr:uid="{99A696B3-3C11-448B-A3A5-3EB1E4B71681}"/>
-    <hyperlink ref="A781" r:id="rId239" display="mailto:sun.mansoori@gmail.com" xr:uid="{AF1E3088-6CE5-4C77-8947-17504F08B632}"/>
-    <hyperlink ref="A782" r:id="rId240" display="mailto:hdialabadi@yahoo.com" xr:uid="{C6440C56-959D-469E-9E70-D6ED92D85340}"/>
-    <hyperlink ref="A783" r:id="rId241" display="mailto:mohammad.akbar935@gmail.com" xr:uid="{D19F699B-F06F-4B07-B159-FEBC18D7BD61}"/>
-    <hyperlink ref="A784" r:id="rId242" display="mailto:sina.seif@gmail.com" xr:uid="{EB4BE757-FA08-486B-A058-8EEC5127D949}"/>
-    <hyperlink ref="A785" r:id="rId243" display="mailto:noroozmaryam@gmail.com" xr:uid="{E4EDAFEE-C922-43A0-A52F-77443221C2AF}"/>
-    <hyperlink ref="A786" r:id="rId244" display="mailto:anise.zamrou@gmail.com" xr:uid="{93F0F4FF-88ED-4CE7-89B6-9F1706B03DE1}"/>
-    <hyperlink ref="A787" r:id="rId245" display="mailto:fatemehmonzavi@yahoo.com" xr:uid="{AAA807E0-0396-4CFD-9C99-2FFC35ACA4D7}"/>
-    <hyperlink ref="A788" r:id="rId246" display="mailto:om.mojarad@gmail.com" xr:uid="{6C04B349-13C5-471A-BA1C-CBA408F1C7F2}"/>
-    <hyperlink ref="A789" r:id="rId247" display="mailto:f.sasani08@gmail.com" xr:uid="{C8B91706-BD71-4CFE-9DB8-E7D63C244CAC}"/>
-    <hyperlink ref="A790" r:id="rId248" display="mailto:mgaravand90@gmail.com" xr:uid="{FD6E2E05-DB1F-49D5-85F9-9D3E1CEA0E51}"/>
-    <hyperlink ref="A791" r:id="rId249" display="mailto:fesmaeili2002@yahoo.com" xr:uid="{2A31932B-6D08-4C88-9A8E-7961CD57DF57}"/>
-    <hyperlink ref="A792" r:id="rId250" xr:uid="{C4766EC1-47AE-462E-9A46-622EE3353EFC}"/>
+    <hyperlink ref="A7" r:id="rId3" display="panjali@sbmu.ac.ir_x000a_" xr:uid="{60EB2953-F9C4-4193-BF77-0793EF1F2EC8}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{78CEE083-7C37-4F14-BD82-1F450E0B3034}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{FA388CD4-066C-40FD-8ECF-A8471DF1B758}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{A8837DF7-FF18-4ED7-A9FF-32EB08F6D667}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{4BDCB9EE-35B9-46D6-94A5-4E034BB7BE74}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{315AEBC0-0EDC-4A2E-9146-28EE126D8CDF}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{BA93CC22-58C6-47EB-A097-DA5CC8A50FDE}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{7D2D637C-CC40-4434-AEA3-9F51B52B38A3}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{71F32898-06DA-464D-8BF0-51B92819F5D5}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{9994B2EF-8643-4446-8575-721041A87D0A}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{5B53B810-62E7-48F7-988D-45DFB8706A9D}"/>
+    <hyperlink ref="A18" r:id="rId14" xr:uid="{6F598862-AC6D-41D4-AC70-F3F5AE6C4656}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{102355A9-CE31-49EF-AA36-530AE30B18EC}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{94FB3861-C44F-41C6-9FB7-3EA0754AFDF4}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{163F125F-9636-4EFA-BF9E-ECE1FDD4A0B9}"/>
+    <hyperlink ref="A22" r:id="rId18" xr:uid="{450D1802-42D3-4E33-A2C7-2A90AAA14C17}"/>
+    <hyperlink ref="A23" r:id="rId19" xr:uid="{02CC27B0-DFA0-4933-AEED-291E7774ED1A}"/>
+    <hyperlink ref="A24" r:id="rId20" xr:uid="{6D26BF96-618F-487C-A4D9-63F6E075E7A8}"/>
+    <hyperlink ref="A25" r:id="rId21" xr:uid="{EFF4361D-F8C1-44F8-A67F-9D814631DAA6}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{37D1B61F-A37F-4D67-ADB4-A6C603B272D9}"/>
+    <hyperlink ref="A27" r:id="rId23" xr:uid="{C434AF28-35C6-49C3-B932-4686CD820C2C}"/>
+    <hyperlink ref="A28" r:id="rId24" xr:uid="{B97462BD-F387-4E6F-8351-DDDF581D8351}"/>
+    <hyperlink ref="A29" r:id="rId25" xr:uid="{E24A5596-8122-4FA0-A6B0-2EB11B718E56}"/>
+    <hyperlink ref="A30" r:id="rId26" xr:uid="{B0FD70D2-3532-47DB-9C6F-A7957161E3AF}"/>
+    <hyperlink ref="A31" r:id="rId27" xr:uid="{5096B490-1B73-4802-99CC-DA155A01C585}"/>
+    <hyperlink ref="A32" r:id="rId28" xr:uid="{719A3D37-D067-46C4-B843-AA59E7A5F100}"/>
+    <hyperlink ref="A33" r:id="rId29" xr:uid="{1276F2A6-AC17-48CB-A8E7-2C25C12F9AC5}"/>
+    <hyperlink ref="A34" r:id="rId30" xr:uid="{F5566E7F-2360-4E18-9A67-4A4D518F0FCB}"/>
+    <hyperlink ref="A35" r:id="rId31" xr:uid="{D64BC5A9-9F8F-4A7E-9E5D-250229C0C1B0}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{DC947958-6F9C-43E3-9924-663392C36067}"/>
+    <hyperlink ref="A37" r:id="rId33" xr:uid="{D53EFEA2-4ACB-4A94-89E5-471B2F3082CC}"/>
+    <hyperlink ref="A38" r:id="rId34" xr:uid="{925511EE-583B-4A73-B725-682FA0EF0BF0}"/>
+    <hyperlink ref="A39" r:id="rId35" xr:uid="{899CFB3C-11DA-4285-9426-67FDB5934FD9}"/>
+    <hyperlink ref="A40" r:id="rId36" xr:uid="{ECD5E857-E77E-41F6-B3C9-F7F6AEC212A5}"/>
+    <hyperlink ref="A41" r:id="rId37" xr:uid="{D974ECD4-17BA-4F86-AACB-C051A3F21256}"/>
+    <hyperlink ref="A42" r:id="rId38" xr:uid="{EAC3CB2C-2CF6-45E0-8CAC-7DD4D8181BDD}"/>
+    <hyperlink ref="A43" r:id="rId39" xr:uid="{CC4FE793-C7A9-4BF2-969C-AE474D11EA5C}"/>
+    <hyperlink ref="A44" r:id="rId40" xr:uid="{F993F14D-8337-4FDB-8093-815BDCEB7EFB}"/>
+    <hyperlink ref="A45" r:id="rId41" xr:uid="{2C065DF5-31F6-4953-B20B-F57D2069C12C}"/>
+    <hyperlink ref="A46" r:id="rId42" xr:uid="{BF316E08-4A76-4573-BE2B-51CAC671F7FE}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{1CB8BB41-B562-4F8E-BD53-A8C186D55CF8}"/>
+    <hyperlink ref="A48" r:id="rId44" xr:uid="{0F0BC195-B129-4860-B154-14F28EA0808A}"/>
+    <hyperlink ref="A49" r:id="rId45" xr:uid="{703B5142-4338-4745-833B-5AF7A37970BD}"/>
+    <hyperlink ref="A50" r:id="rId46" xr:uid="{B4395424-3584-45A1-815D-990BD4703290}"/>
+    <hyperlink ref="A51" r:id="rId47" xr:uid="{89328179-D8BC-4E98-B6B2-9BF53A9BED94}"/>
+    <hyperlink ref="A52" r:id="rId48" xr:uid="{AE1B8BFA-4C8E-456C-A776-868BCE89E593}"/>
+    <hyperlink ref="A53" r:id="rId49" xr:uid="{210ED07B-DAA2-4922-915D-338581518B4E}"/>
+    <hyperlink ref="A54" r:id="rId50" xr:uid="{DFC4467B-68B1-4A9A-817C-028569ECD6C3}"/>
+    <hyperlink ref="A55" r:id="rId51" xr:uid="{3B22BFBF-165C-4A2C-81A9-74DDD38FD960}"/>
+    <hyperlink ref="A56" r:id="rId52" xr:uid="{DB8D226B-FD26-46FD-AA07-1D74C7A0606B}"/>
+    <hyperlink ref="A57" r:id="rId53" xr:uid="{937C6D7E-E68C-48E9-9AB0-C535EF3DC516}"/>
+    <hyperlink ref="A58" r:id="rId54" xr:uid="{BDAF9BA8-DEC5-4DEB-B0E8-491390BA883D}"/>
+    <hyperlink ref="A59" r:id="rId55" xr:uid="{B86E264E-FE7C-4913-A9D4-AD2C796EC07D}"/>
+    <hyperlink ref="A60" r:id="rId56" xr:uid="{83A47E3A-0FAB-44CF-ABFA-D10AD91B5524}"/>
+    <hyperlink ref="A61" r:id="rId57" xr:uid="{39E8CC52-A346-40FE-8036-F3B1198AB609}"/>
+    <hyperlink ref="A62" r:id="rId58" xr:uid="{7D939FB6-2F90-4BA7-8695-87E9EB2EFA6A}"/>
+    <hyperlink ref="A63" r:id="rId59" xr:uid="{3DB0123D-5474-4815-9E19-90156BFC8B91}"/>
+    <hyperlink ref="A64" r:id="rId60" xr:uid="{ACEBB592-CDCC-4E46-9F25-B7711D471964}"/>
+    <hyperlink ref="A65" r:id="rId61" xr:uid="{C73D3A29-807D-48D9-AB2D-C0275DDCB142}"/>
+    <hyperlink ref="A66" r:id="rId62" xr:uid="{44AE86D2-F001-4A21-B730-EAE436CE2FAC}"/>
+    <hyperlink ref="A67" r:id="rId63" xr:uid="{95BBA83C-4C79-4D36-8EE5-A181AC622CF6}"/>
+    <hyperlink ref="A68" r:id="rId64" xr:uid="{25E7A983-BA2B-4A8B-8720-48039A164479}"/>
+    <hyperlink ref="A69" r:id="rId65" xr:uid="{1621BBF1-DC94-4DC6-BFBD-947D15BF245B}"/>
+    <hyperlink ref="A70" r:id="rId66" xr:uid="{C31AC3A6-8EBC-4168-8EEF-9C2A69F7992D}"/>
+    <hyperlink ref="A71" r:id="rId67" xr:uid="{1BA68BD4-FFE5-40B4-B642-30213BADCC3F}"/>
+    <hyperlink ref="A72" r:id="rId68" xr:uid="{C620A5ED-D0CF-4361-A555-047B3C05D5B6}"/>
+    <hyperlink ref="A73" r:id="rId69" xr:uid="{04BA5624-67F4-4213-890A-25F9CC511E29}"/>
+    <hyperlink ref="A74" r:id="rId70" xr:uid="{6554A7D2-E11A-43ED-9B4B-FD74C8032A26}"/>
+    <hyperlink ref="A75" r:id="rId71" xr:uid="{43198718-8984-4E38-A733-AFAB8634A372}"/>
+    <hyperlink ref="A76" r:id="rId72" xr:uid="{6DBF862F-DBD7-4E02-A3C8-FA5D76A83CD6}"/>
+    <hyperlink ref="A77" r:id="rId73" xr:uid="{0C37327B-6B83-4088-914B-6E41787A707D}"/>
+    <hyperlink ref="A78" r:id="rId74" xr:uid="{28ACFA9A-E7F4-49BC-A870-342BB71F87A4}"/>
+    <hyperlink ref="A79" r:id="rId75" xr:uid="{A185B735-B194-40D4-A098-A046D6D59E05}"/>
+    <hyperlink ref="A80" r:id="rId76" xr:uid="{00AFD740-1929-46BB-BDD1-FD0109879BFB}"/>
+    <hyperlink ref="A81" r:id="rId77" xr:uid="{98A108B6-BF66-4BF4-ACC8-3D7EBAAB0F7D}"/>
+    <hyperlink ref="A82" r:id="rId78" display="nadri_s@zums.ac.ir  " xr:uid="{9F83C108-A7B4-4D0B-B129-D00E8E001BBF}"/>
+    <hyperlink ref="A83" r:id="rId79" xr:uid="{D02FECE9-4914-4CFB-8F9C-FCEFD96AC814}"/>
+    <hyperlink ref="A84" r:id="rId80" xr:uid="{82B29F41-0845-4126-ADA7-94985FF813AC}"/>
+    <hyperlink ref="A85" r:id="rId81" xr:uid="{58049502-D350-4999-BDFC-54B1C80FE7C1}"/>
+    <hyperlink ref="A86" r:id="rId82" xr:uid="{92942971-370B-4025-98BB-67BB60EEFC11}"/>
+    <hyperlink ref="A87" r:id="rId83" xr:uid="{32265B7B-EF8D-4D98-B612-EA0E1D407123}"/>
+    <hyperlink ref="A88" r:id="rId84" xr:uid="{054E9D19-60BD-489C-9A9A-43908F8E49EC}"/>
+    <hyperlink ref="A89" r:id="rId85" xr:uid="{664FB28F-784D-4E3F-ACB9-A74A11C04E78}"/>
+    <hyperlink ref="A90" r:id="rId86" xr:uid="{59476CE4-7832-41C2-A091-404CBD7844CD}"/>
+    <hyperlink ref="A91" r:id="rId87" xr:uid="{C89A4D6D-6A54-4AAE-B1FA-D13A19DF3824}"/>
+    <hyperlink ref="A92" r:id="rId88" xr:uid="{32B9C080-5690-4A16-91DA-5AADAD9E6249}"/>
+    <hyperlink ref="A93" r:id="rId89" xr:uid="{D978A2CF-68A3-455D-8B3C-BC7F6E8F5EAA}"/>
+    <hyperlink ref="A94" r:id="rId90" xr:uid="{90678AEF-E03C-44B9-AD45-27EBFE105CD0}"/>
+    <hyperlink ref="A95" r:id="rId91" xr:uid="{95EB8F30-4C9E-4FF9-8656-AEDC650E0435}"/>
+    <hyperlink ref="A96" r:id="rId92" xr:uid="{66CBA257-459B-4276-9EA0-F6A4C469057D}"/>
+    <hyperlink ref="A97" r:id="rId93" xr:uid="{019BB3B1-D9F4-41C1-BB00-320F1F76F65F}"/>
+    <hyperlink ref="A98" r:id="rId94" xr:uid="{8214465D-0D33-4765-955D-B2274A9DF4CE}"/>
+    <hyperlink ref="A99" r:id="rId95" xr:uid="{C4A3FA77-D9CF-4CAD-BBB6-1F1980742F25}"/>
+    <hyperlink ref="A100" r:id="rId96" xr:uid="{FF59407F-6829-4C32-9B15-0BA62BB6AF51}"/>
+    <hyperlink ref="A101" r:id="rId97" xr:uid="{68A23C69-DF70-4216-ADD1-7D3846CBB678}"/>
+    <hyperlink ref="A102" r:id="rId98" xr:uid="{14F181A4-FDB2-4234-9B08-AA32DA89D6B0}"/>
+    <hyperlink ref="A103" r:id="rId99" xr:uid="{EDC80657-FFE4-46B3-BE80-AD9A1EFFB4B4}"/>
+    <hyperlink ref="A104" r:id="rId100" xr:uid="{24B688CA-CFC8-43BD-81A1-A5AA05C72A25}"/>
+    <hyperlink ref="A105" r:id="rId101" xr:uid="{4462ABD1-2FCC-4F80-83E3-1187DFD492F4}"/>
+    <hyperlink ref="A106" r:id="rId102" xr:uid="{C3A63646-BE7B-485E-8AA5-D20AB4169DFB}"/>
+    <hyperlink ref="A107" r:id="rId103" xr:uid="{2A5C5D1B-01E1-4E55-959B-86852B81A0B6}"/>
+    <hyperlink ref="A108" r:id="rId104" xr:uid="{DF869774-D716-4C9D-A04B-B34D776CB7DE}"/>
+    <hyperlink ref="A109" r:id="rId105" xr:uid="{AAC7D201-94F8-45FA-B159-907F4A86C5F3}"/>
+    <hyperlink ref="A110" r:id="rId106" xr:uid="{E7A72C02-AAB3-422F-AEA3-0E7DFABEF094}"/>
+    <hyperlink ref="A111" r:id="rId107" display="dalghin68@yahoo.com" xr:uid="{AC6A03A9-FD33-423E-A5F3-245213B01D3A}"/>
+    <hyperlink ref="A112" r:id="rId108" xr:uid="{82176CD4-DB3D-4076-A172-FE678F005F73}"/>
+    <hyperlink ref="A113" r:id="rId109" xr:uid="{915F6BE8-75C5-49D2-B222-B48DA2362297}"/>
+    <hyperlink ref="A114" r:id="rId110" xr:uid="{AED28940-72FB-47A7-8461-869E24ACE58D}"/>
+    <hyperlink ref="A115" r:id="rId111" xr:uid="{B7782086-6411-452A-A1A4-4A273EF3264B}"/>
+    <hyperlink ref="A116" r:id="rId112" xr:uid="{E3238D9A-3324-4F15-9E7D-8470919DCBFC}"/>
+    <hyperlink ref="A117" r:id="rId113" xr:uid="{DD59FACC-8F8F-49F6-8747-98F18F68527B}"/>
+    <hyperlink ref="A118" r:id="rId114" xr:uid="{05900F0B-5FA4-4BF5-9367-BDA18AA958DE}"/>
+    <hyperlink ref="A119" r:id="rId115" xr:uid="{2FA8F11D-2EEC-473E-9E70-8AAB0659B6E3}"/>
+    <hyperlink ref="A120" r:id="rId116" xr:uid="{A1553066-CCF0-4A3A-BF93-86FC35690ECD}"/>
+    <hyperlink ref="A121" r:id="rId117" xr:uid="{0D196D4F-1FA7-438B-8338-F923007C08F5}"/>
+    <hyperlink ref="A122" r:id="rId118" xr:uid="{FACB7F3D-C512-4A5F-AA6F-061B5F26F61A}"/>
+    <hyperlink ref="A123" r:id="rId119" xr:uid="{341660B4-0CD6-4682-8D84-808829A7A3ED}"/>
+    <hyperlink ref="A124" r:id="rId120" xr:uid="{32F4CF45-9A0D-482B-807C-4A4EA76E5A88}"/>
+    <hyperlink ref="A125" r:id="rId121" xr:uid="{1801A917-4DE2-4266-9525-1AE949A1E5E5}"/>
+    <hyperlink ref="A126" r:id="rId122" xr:uid="{52E6438B-FC32-46C5-B7E3-D27DF61CFCBB}"/>
+    <hyperlink ref="A127" r:id="rId123" xr:uid="{435961F5-2040-47C4-BBFE-C6FC4DA7E0E6}"/>
+    <hyperlink ref="A128" r:id="rId124" xr:uid="{9FD6E7AA-C0D2-4C65-8862-B96419BC53B3}"/>
+    <hyperlink ref="A129" r:id="rId125" xr:uid="{D877D98E-3D43-46F5-9A0B-26D89395EFD6}"/>
+    <hyperlink ref="A130" r:id="rId126" xr:uid="{E7E3EA8C-245E-4560-960A-9695801551EE}"/>
+    <hyperlink ref="A131" r:id="rId127" xr:uid="{1BD6CE31-1F75-44B9-BA57-E9C411EA9206}"/>
+    <hyperlink ref="A132" r:id="rId128" xr:uid="{DD08F788-874F-4A14-AC37-D587D73F4EF9}"/>
+    <hyperlink ref="A133" r:id="rId129" xr:uid="{FE5F2648-8A41-4DAF-B463-E38D9232655A}"/>
+    <hyperlink ref="A134" r:id="rId130" xr:uid="{A022FF20-63CD-475E-BDEC-48C2860015E8}"/>
+    <hyperlink ref="A135" r:id="rId131" xr:uid="{A94FD184-94EF-41F4-93D4-4B0B15AB5F9A}"/>
+    <hyperlink ref="A136" r:id="rId132" xr:uid="{E9240F33-691D-4B5F-A3E2-DE97386A62E1}"/>
+    <hyperlink ref="A137" r:id="rId133" xr:uid="{81F3491C-C9DF-455E-B9F9-42D714B734F4}"/>
+    <hyperlink ref="A138" r:id="rId134" xr:uid="{EC741294-7E8E-46DE-99EE-32FB115470AE}"/>
+    <hyperlink ref="A139" r:id="rId135" xr:uid="{F35BBEA2-2FF8-4F2F-9211-EDCAE6C8146B}"/>
+    <hyperlink ref="A140" r:id="rId136" xr:uid="{1725FC26-EE9C-4238-AC0A-0AD6EBD96A01}"/>
+    <hyperlink ref="A141" r:id="rId137" xr:uid="{4D2BB732-D71F-490D-8D6B-2170CBDA857D}"/>
+    <hyperlink ref="A142" r:id="rId138" xr:uid="{CE9314BF-BB09-42CA-A0A1-D060115C7319}"/>
+    <hyperlink ref="A143" r:id="rId139" xr:uid="{B804D0D6-EEE0-40FF-AA73-A6FA9944F184}"/>
+    <hyperlink ref="A144" r:id="rId140" xr:uid="{5AE9BDA9-83A5-40F1-A299-9EA7595B0BD3}"/>
+    <hyperlink ref="A145" r:id="rId141" xr:uid="{B9D05B7D-4C02-48A2-8D9D-760030E6DB79}"/>
+    <hyperlink ref="A146" r:id="rId142" xr:uid="{0A293059-F9C0-484B-B5A6-7A2B12BFAE69}"/>
+    <hyperlink ref="A147" r:id="rId143" xr:uid="{0B00E371-CB51-4F1B-BB7B-0A75A8C92086}"/>
+    <hyperlink ref="A148" r:id="rId144" xr:uid="{515D4454-25F6-465C-901B-7604B1F8B5C8}"/>
+    <hyperlink ref="A149" r:id="rId145" xr:uid="{1AA92820-6923-4C91-BF5E-438895234322}"/>
+    <hyperlink ref="A150" r:id="rId146" xr:uid="{A7F93362-636F-40FE-B094-77E024FC1A0E}"/>
+    <hyperlink ref="A151" r:id="rId147" xr:uid="{7029D463-E64F-4DED-B25D-9195CF8ABA22}"/>
+    <hyperlink ref="A152" r:id="rId148" xr:uid="{5F0410C4-129E-4FB8-B18E-E755F93DC536}"/>
+    <hyperlink ref="A153" r:id="rId149" xr:uid="{F790B2D9-E7C2-4416-9001-67201969FDA1}"/>
+    <hyperlink ref="A154" r:id="rId150" xr:uid="{0D74A262-06CA-40ED-8757-17B295DBDD96}"/>
+    <hyperlink ref="A155" r:id="rId151" xr:uid="{FD55CDC8-7F75-480A-8729-93BE3B876EF1}"/>
+    <hyperlink ref="A156" r:id="rId152" xr:uid="{BB4FEE8B-4F3E-4D93-AD2B-4C945C1FEFC5}"/>
+    <hyperlink ref="A157" r:id="rId153" xr:uid="{2A9B9B16-2EFB-4AB5-B219-5E0B4931A602}"/>
+    <hyperlink ref="A158" r:id="rId154" xr:uid="{157D1B7C-3B0E-48FB-AA46-AEF1287F177C}"/>
+    <hyperlink ref="A159" r:id="rId155" xr:uid="{F1EB4F74-C484-4879-A203-02B2E5A31854}"/>
+    <hyperlink ref="A160" r:id="rId156" xr:uid="{F6BAB08B-7FB0-488A-BDA1-4432AA309938}"/>
+    <hyperlink ref="A161" r:id="rId157" xr:uid="{D7281387-67B3-4503-BEFF-19D8605174CA}"/>
+    <hyperlink ref="A162" r:id="rId158" xr:uid="{88EF02B8-9341-4882-B097-7E870874E756}"/>
+    <hyperlink ref="A163" r:id="rId159" xr:uid="{0E53DA7B-B971-4A21-8191-B757193CAA63}"/>
+    <hyperlink ref="A164" r:id="rId160" xr:uid="{94FAF243-CBC1-414B-B95E-FA55BB1C58CA}"/>
+    <hyperlink ref="A165" r:id="rId161" xr:uid="{D3A2CE8F-F142-42FC-AD25-11424971B716}"/>
+    <hyperlink ref="A166" r:id="rId162" xr:uid="{94C91573-54BB-4DA3-9A67-4E0B6114F873}"/>
+    <hyperlink ref="A686" r:id="rId163" display="http://sph.tums.ac.ir/" xr:uid="{3D4168AA-DDB6-4905-A524-816C4805EA6B}"/>
+    <hyperlink ref="A701" r:id="rId164" xr:uid="{00EE04C8-A6C6-452C-AFEF-8F367D3CD333}"/>
+    <hyperlink ref="A702" r:id="rId165" xr:uid="{33725344-787A-4300-B725-DC18FA2509B1}"/>
+    <hyperlink ref="A703" r:id="rId166" xr:uid="{1122A989-FE0F-413F-8081-BC0C28F9E70C}"/>
+    <hyperlink ref="A704" r:id="rId167" xr:uid="{044CA121-3064-4B82-BECC-0E30DAE46CF0}"/>
+    <hyperlink ref="A705" r:id="rId168" xr:uid="{95A99DB2-34B7-4D06-9EAE-DCE595092377}"/>
+    <hyperlink ref="A706" r:id="rId169" xr:uid="{F8EEAE71-CCAD-4259-99BB-5BC85F23B4C2}"/>
+    <hyperlink ref="A707" r:id="rId170" display="mailto:rezaeizadeh@tums.ac.ir" xr:uid="{637D7D0C-7BFD-4034-AB07-15873F3AD06B}"/>
+    <hyperlink ref="A709" r:id="rId171" xr:uid="{1B0B9AFA-DFAA-4C24-BD46-D061D4D8FBFF}"/>
+    <hyperlink ref="A710" r:id="rId172" xr:uid="{E5685AF4-660A-417C-B227-CCF98A4A4D73}"/>
+    <hyperlink ref="A711" r:id="rId173" xr:uid="{2DCC835F-0A30-4878-A8D3-76895528B9E9}"/>
+    <hyperlink ref="A712" r:id="rId174" display="mailto:sina.marashi@gmail.com" xr:uid="{4A972128-57BE-4C02-8A08-6CE0CAC8DC05}"/>
+    <hyperlink ref="A713" r:id="rId175" xr:uid="{4D7F4295-1A4B-46C6-A07C-94BF5A0E8482}"/>
+    <hyperlink ref="A715" r:id="rId176" xr:uid="{CC3A65CB-75E2-43B7-BD82-67C5D2321DE8}"/>
+    <hyperlink ref="A716" r:id="rId177" xr:uid="{CE8D31F9-21E4-4603-8322-E9BF9E502531}"/>
+    <hyperlink ref="A717" r:id="rId178" xr:uid="{9EB92218-7F96-4D98-82C5-35BCF8026212}"/>
+    <hyperlink ref="A718" r:id="rId179" xr:uid="{005627B1-346C-472E-8859-E939CAF295E4}"/>
+    <hyperlink ref="A719" r:id="rId180" xr:uid="{45B5F462-A1D9-4300-B2ED-98D5F10824B6}"/>
+    <hyperlink ref="A720" r:id="rId181" xr:uid="{7EF175F4-C70F-4FEA-82E9-741F6D8A4365}"/>
+    <hyperlink ref="A721" r:id="rId182" xr:uid="{E903A1C2-0A18-40F6-B823-4A23BD97F679}"/>
+    <hyperlink ref="A722" r:id="rId183" xr:uid="{5992459D-D657-487B-94F2-5D208416F424}"/>
+    <hyperlink ref="A723" r:id="rId184" xr:uid="{35D7F4E2-F541-4D28-BCC7-9430A058101A}"/>
+    <hyperlink ref="A724" r:id="rId185" xr:uid="{D8CAB375-CDB5-4779-A448-48C53B0A0EAD}"/>
+    <hyperlink ref="A725" r:id="rId186" xr:uid="{6B94353C-3963-47DF-90FB-EC16AB08BE98}"/>
+    <hyperlink ref="A726" r:id="rId187" xr:uid="{3B95098B-A294-48B6-9B08-F8D31A74B130}"/>
+    <hyperlink ref="A727" r:id="rId188" xr:uid="{3FAD5F88-2E5B-4BB6-9553-A1DB52FAD040}"/>
+    <hyperlink ref="A728" r:id="rId189" xr:uid="{FDA403CD-DA39-4140-B70C-ABC10A595221}"/>
+    <hyperlink ref="A729" r:id="rId190" xr:uid="{C9B6FAE1-075C-4B41-BD21-9AE247B2877C}"/>
+    <hyperlink ref="A730" r:id="rId191" xr:uid="{CEC6ACF1-4BE1-471E-AA03-F3C76C25B8EF}"/>
+    <hyperlink ref="A731" r:id="rId192" xr:uid="{82273192-A0A3-4ED8-9041-A772DBC6563E}"/>
+    <hyperlink ref="A732" r:id="rId193" xr:uid="{F92440DA-70B4-41C5-966C-5B041299F00C}"/>
+    <hyperlink ref="A733" r:id="rId194" xr:uid="{AB516E97-62C2-4AC2-A35D-3B8DF1803352}"/>
+    <hyperlink ref="A734" r:id="rId195" xr:uid="{24B1AC24-FB37-4270-B781-1DF0D659FC87}"/>
+    <hyperlink ref="A735" r:id="rId196" xr:uid="{8264521C-F733-4C81-B05F-F8944D9633E1}"/>
+    <hyperlink ref="A736" r:id="rId197" xr:uid="{990B9AAF-D90C-4E1A-9DB6-43A67FD0104D}"/>
+    <hyperlink ref="A742" r:id="rId198" display="mailto:mahya.rahmani@gmail.com" xr:uid="{3205E694-56C2-4096-983C-905840DFAE23}"/>
+    <hyperlink ref="A743" r:id="rId199" display="mailto:nazeriali2007@yahoo.com" xr:uid="{CEF5CD3F-F610-400F-8048-B3990F025B3E}"/>
+    <hyperlink ref="A744" r:id="rId200" display="mailto:m-nikbakht@razi.tums.ac.ir" xr:uid="{FA4E8121-AC7B-4302-9F1B-A056EA343417}"/>
+    <hyperlink ref="A745" r:id="rId201" display="mailto:a.valizadeh_medicalnano@yahoo,com" xr:uid="{65162598-D89D-4463-8256-22A0255DA976}"/>
+    <hyperlink ref="A746" r:id="rId202" display="mailto:asghari_mnt@yahoo.com" xr:uid="{81F07F8F-1694-45BC-BAFB-0A34E3228CAD}"/>
+    <hyperlink ref="A747" r:id="rId203" display="mailto:biophysicsiasbs@yahoo.com" xr:uid="{9F3D4CAD-3A45-421E-9AAF-AB5D90160699}"/>
+    <hyperlink ref="A748" r:id="rId204" display="mailto:hasanmaleki95@yahoo.com" xr:uid="{8DC23226-1A61-45F3-8381-A171ED7DB306}"/>
+    <hyperlink ref="A749" r:id="rId205" display="mailto:najmehketabchi@yahoo.com" xr:uid="{153CA2DA-2C78-4F19-B6EF-8F7072260691}"/>
+    <hyperlink ref="A750" r:id="rId206" display="mailto:mortezakamali1979@gmail.com" xr:uid="{37881458-BBCD-447D-9B27-AEA473849C67}"/>
+    <hyperlink ref="A751" r:id="rId207" display="mailto:marya.sharif90@yahoo.com" xr:uid="{86F4CBF7-7B72-4313-8836-5C10FD86CE72}"/>
+    <hyperlink ref="A752" r:id="rId208" display="mailto:bahrani.s6412@yahoo.com" xr:uid="{92C25970-8236-4908-9DC3-363795F0D683}"/>
+    <hyperlink ref="A753" r:id="rId209" display="mailto:naserineda1989@gmail.com" xr:uid="{01473793-8055-49DB-8AAB-FA249A8FBE3C}"/>
+    <hyperlink ref="A754" r:id="rId210" display="mailto:mosafarkhanis@gmail.com" xr:uid="{2DCBA322-12CE-43D7-9BDB-7B6B27A894C5}"/>
+    <hyperlink ref="A755" r:id="rId211" display="mailto:elnazshaabani91@gmail.com" xr:uid="{EB35E4B6-7E1A-487C-A227-295242517B27}"/>
+    <hyperlink ref="A756" r:id="rId212" display="mailto:hasanpourakram@gmail.com" xr:uid="{9BA7B431-3196-417A-80E2-1966E8DD2251}"/>
+    <hyperlink ref="A757" r:id="rId213" display="mailto:gharatape_ar@yahoo.com" xr:uid="{B7C94467-AAAE-41E0-BB3A-87DB9D1AB966}"/>
+    <hyperlink ref="A758" r:id="rId214" display="mailto:azarnajafi.tsh@gmail.com" xr:uid="{292CC52C-1F09-4BE2-BF79-99AAE0D82228}"/>
+    <hyperlink ref="A759" r:id="rId215" display="mailto:beheshtkhoo.nano@gmail.com" xr:uid="{3F972A5B-D29A-42FD-8FF2-A74CC94B2533}"/>
+    <hyperlink ref="A760" r:id="rId216" display="mailto:mmalekpour@razi.tums.ac.ir" xr:uid="{1879CB5B-A60C-40E9-BD73-A7F4D0268A0D}"/>
+    <hyperlink ref="A761" r:id="rId217" display="mailto:amanzadi@yahoo.com" xr:uid="{64CAE73D-6D91-41F6-BE38-EEE8D9849219}"/>
+    <hyperlink ref="A762" r:id="rId218" display="mailto:aminjadidi1993@gmail.com" xr:uid="{E176E1B3-24D8-4F94-BDF4-E122C228F7A5}"/>
+    <hyperlink ref="A763" r:id="rId219" display="mailto:mmonfaredd@gmail.com" xr:uid="{39295873-B9CE-4081-AE28-D152CAB8D80D}"/>
+    <hyperlink ref="A764" r:id="rId220" display="mailto:doostan.mahtab@gmail.com" xr:uid="{662DBC40-A99B-4838-85E8-80095D9D104B}"/>
+    <hyperlink ref="A765" r:id="rId221" display="mailto:hasani.njf@gmail.com" xr:uid="{9C7ED6B9-B333-46FE-A5F4-BD7CD5234F0A}"/>
+    <hyperlink ref="A766" r:id="rId222" display="mailto:ali-dehghan70@yahoo.com" xr:uid="{EC993113-EDDB-432F-B7CC-6E1A98337E56}"/>
+    <hyperlink ref="A767" r:id="rId223" display="mailto:khorsand_fa@yahoo.com" xr:uid="{D878E0D7-C889-4DC9-B79B-41BEBF6A20B8}"/>
+    <hyperlink ref="A768" r:id="rId224" display="mailto:amingholizadeh71@gmail.com" xr:uid="{B5973EB7-EB99-415A-90AC-9381C64A6643}"/>
+    <hyperlink ref="A769" r:id="rId225" display="mailto:maryam-khodadadi@hotmail.com" xr:uid="{26A784EB-4963-4CC1-AACA-57E6C6BA2B74}"/>
+    <hyperlink ref="A770" r:id="rId226" display="mailto:dar.rahban777@gmail.com" xr:uid="{F8FDB738-4886-485C-BFEC-DD1AB5F290EE}"/>
+    <hyperlink ref="A771" r:id="rId227" display="mailto:ezio1441@yahoo.com" xr:uid="{74CAA2DF-BE05-422E-9BAE-45424BA2A2CF}"/>
+    <hyperlink ref="A772" r:id="rId228" display="mailto:hana.gm125@gmail.com" xr:uid="{98E3B1CB-842B-4F1F-8BA0-E0E425D88703}"/>
+    <hyperlink ref="A773" r:id="rId229" display="mailto:alinut4147@gmail.com" xr:uid="{32B3C0A0-22F3-4429-A742-7127E7A6D1EE}"/>
+    <hyperlink ref="A774" r:id="rId230" display="mailto:elnazalmasi95@yahoo.com" xr:uid="{49CD0E4D-E799-4BCF-ABAE-280DC4CFBAF0}"/>
+    <hyperlink ref="A775" r:id="rId231" display="mailto:gavanji.k@gmail.com" xr:uid="{C46DBD8D-A380-4ADC-90EB-B5E479DF31EF}"/>
+    <hyperlink ref="A776" r:id="rId232" display="mailto:sarahzokaasadi@gmail.com" xr:uid="{8D3D01DC-6DAB-4266-915D-40A8F12F326A}"/>
+    <hyperlink ref="A777" r:id="rId233" display="mailto:hannaneh_6929@yahoo.com" xr:uid="{7C4868AB-1A04-479E-B19B-2AC87DB578B4}"/>
+    <hyperlink ref="A778" r:id="rId234" display="mailto:fa.fayazbakhsh@gmail.com" xr:uid="{92DE85B4-7960-4EA6-B668-6F08E2639710}"/>
+    <hyperlink ref="A779" r:id="rId235" display="mailto:pooyaatshin1994@yahoo.com" xr:uid="{360C03AE-4EED-4AE9-8139-5425274768E7}"/>
+    <hyperlink ref="A780" r:id="rId236" display="mailto:mohamad_musavi73@yahoo.com" xr:uid="{A41DB1D7-8038-4A4C-8442-DC15B7BF6381}"/>
+    <hyperlink ref="A781" r:id="rId237" display="mailto:misaghft1995@gmail.com" xr:uid="{8FABBFC9-4BD5-4804-9D2F-227D82A099FC}"/>
+    <hyperlink ref="A782" r:id="rId238" display="mailto:f.bagheri.3223@gmail.com" xr:uid="{99A696B3-3C11-448B-A3A5-3EB1E4B71681}"/>
+    <hyperlink ref="A783" r:id="rId239" display="mailto:sun.mansoori@gmail.com" xr:uid="{AF1E3088-6CE5-4C77-8947-17504F08B632}"/>
+    <hyperlink ref="A784" r:id="rId240" display="mailto:hdialabadi@yahoo.com" xr:uid="{C6440C56-959D-469E-9E70-D6ED92D85340}"/>
+    <hyperlink ref="A785" r:id="rId241" display="mailto:mohammad.akbar935@gmail.com" xr:uid="{D19F699B-F06F-4B07-B159-FEBC18D7BD61}"/>
+    <hyperlink ref="A786" r:id="rId242" display="mailto:sina.seif@gmail.com" xr:uid="{EB4BE757-FA08-486B-A058-8EEC5127D949}"/>
+    <hyperlink ref="A787" r:id="rId243" display="mailto:noroozmaryam@gmail.com" xr:uid="{E4EDAFEE-C922-43A0-A52F-77443221C2AF}"/>
+    <hyperlink ref="A788" r:id="rId244" display="mailto:anise.zamrou@gmail.com" xr:uid="{93F0F4FF-88ED-4CE7-89B6-9F1706B03DE1}"/>
+    <hyperlink ref="A789" r:id="rId245" display="mailto:fatemehmonzavi@yahoo.com" xr:uid="{AAA807E0-0396-4CFD-9C99-2FFC35ACA4D7}"/>
+    <hyperlink ref="A790" r:id="rId246" display="mailto:om.mojarad@gmail.com" xr:uid="{6C04B349-13C5-471A-BA1C-CBA408F1C7F2}"/>
+    <hyperlink ref="A791" r:id="rId247" display="mailto:f.sasani08@gmail.com" xr:uid="{C8B91706-BD71-4CFE-9DB8-E7D63C244CAC}"/>
+    <hyperlink ref="A792" r:id="rId248" display="mailto:mgaravand90@gmail.com" xr:uid="{FD6E2E05-DB1F-49D5-85F9-9D3E1CEA0E51}"/>
+    <hyperlink ref="A793" r:id="rId249" display="mailto:fesmaeili2002@yahoo.com" xr:uid="{2A31932B-6D08-4C88-9A8E-7961CD57DF57}"/>
+    <hyperlink ref="A794" r:id="rId250" xr:uid="{C4766EC1-47AE-462E-9A46-622EE3353EFC}"/>
     <hyperlink ref="A2" r:id="rId251" xr:uid="{3BA7E4E7-AE30-4B8B-B356-D13AB904828B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
